--- a/Documents/Cashiers Report Format.xlsx
+++ b/Documents/Cashiers Report Format.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baluy\Documents\GitHub\TEVES-Laravel\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RECPC2\OneDrive\Documents\Github\TEVES-Laravel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E7D08E-AB77-43D2-9096-2928412E8F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F0CFC4-1E09-4AC4-8445-6302C249A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1033,6 +1033,282 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1052,300 +1328,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="21" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1624,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A52" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I57" sqref="I56:I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1651,19 +1651,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="13"/>
@@ -1816,17 +1816,17 @@
     <row r="6" spans="1:25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="99"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="16"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="40"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="99"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -1841,17 +1841,17 @@
       <c r="Y6" s="38"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="102" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="182" t="s">
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="96" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="17" t="s">
@@ -1860,14 +1860,14 @@
       <c r="I7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="111" t="s">
+      <c r="J7" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="112"/>
-      <c r="L7" s="114" t="s">
+      <c r="K7" s="102"/>
+      <c r="L7" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="115"/>
+      <c r="M7" s="197"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -1882,27 +1882,27 @@
       <c r="Y7" s="38"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="181"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="102" t="s">
+      <c r="A8" s="97"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105" t="s">
+      <c r="D8" s="122"/>
+      <c r="E8" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="181"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="97"/>
       <c r="H8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="197"/>
+      <c r="M8" s="197"/>
       <c r="N8" s="15"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -1923,14 +1923,14 @@
       <c r="B9" s="20">
         <v>1</v>
       </c>
-      <c r="C9" s="107">
+      <c r="C9" s="180">
         <v>45</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="107">
+      <c r="D9" s="122"/>
+      <c r="E9" s="180">
         <v>78</v>
       </c>
-      <c r="F9" s="104"/>
+      <c r="F9" s="122"/>
       <c r="G9" s="21">
         <v>1</v>
       </c>
@@ -1941,15 +1941,15 @@
       <c r="I9" s="1">
         <v>78</v>
       </c>
-      <c r="J9" s="108">
+      <c r="J9" s="181">
         <f>I9*H9</f>
         <v>2496</v>
       </c>
-      <c r="K9" s="109"/>
-      <c r="L9" s="110" t="s">
+      <c r="K9" s="182"/>
+      <c r="L9" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="99"/>
+      <c r="M9" s="94"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
@@ -1963,28 +1963,28 @@
       <c r="X9" s="38"/>
       <c r="Y9" s="38"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" ht="30">
       <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="20">
         <v>2</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="104"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="122"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="197" t="s">
+      <c r="I10" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="108"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110" t="s">
+      <c r="J10" s="181"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="110"/>
+      <c r="M10" s="173"/>
       <c r="N10" s="13" t="s">
         <v>20</v>
       </c>
@@ -2007,19 +2007,19 @@
       <c r="B11" s="20">
         <v>3</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="104"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="122"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="110" t="s">
+      <c r="J11" s="181"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="110"/>
+      <c r="M11" s="173"/>
       <c r="N11" s="13" t="s">
         <v>22</v>
       </c>
@@ -2042,17 +2042,17 @@
       <c r="B12" s="20">
         <v>4</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="104"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="122"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="173"/>
+      <c r="M12" s="173"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
@@ -2073,17 +2073,17 @@
       <c r="B13" s="20">
         <v>5</v>
       </c>
-      <c r="C13" s="118"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="104"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="122"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -2104,17 +2104,17 @@
       <c r="B14" s="20">
         <v>6</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="104"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="122"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="182"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -2129,24 +2129,24 @@
       <c r="Y14" s="38"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="122"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="171"/>
       <c r="H15" s="23"/>
       <c r="I15" s="45"/>
-      <c r="J15" s="123">
+      <c r="J15" s="178">
         <f>SUM(J9:K14)</f>
         <v>2496</v>
       </c>
-      <c r="K15" s="117"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -2163,8 +2163,8 @@
     <row r="16" spans="1:25">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="99"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -2172,8 +2172,8 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="46"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
+      <c r="L16" s="173"/>
+      <c r="M16" s="173"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -2194,17 +2194,17 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="104"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="173"/>
+      <c r="M17" s="173"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -2225,17 +2225,17 @@
       <c r="B18" s="20">
         <v>2</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="104"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="122"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -2250,21 +2250,21 @@
       <c r="Y18" s="38"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="122"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="171"/>
       <c r="H19" s="27"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="173"/>
+      <c r="M19" s="173"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13" t="s">
         <v>25</v>
@@ -2292,8 +2292,8 @@
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="46"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -2314,17 +2314,17 @@
       <c r="B21" s="20">
         <v>1</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="104"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="122"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -2345,17 +2345,17 @@
       <c r="B22" s="20">
         <v>2</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="104"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="122"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
       <c r="N22" s="13"/>
       <c r="O22" s="47"/>
       <c r="P22" s="13"/>
@@ -2376,17 +2376,17 @@
       <c r="B23" s="20">
         <v>3</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="104"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="122"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="173"/>
+      <c r="M23" s="173"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -2407,17 +2407,17 @@
       <c r="B24" s="20">
         <v>4</v>
       </c>
-      <c r="C24" s="119"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="104"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="122"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="173"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -2432,23 +2432,23 @@
       <c r="Y24" s="38"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="122"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="171"/>
       <c r="H25" s="28"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="99"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="173"/>
+      <c r="M25" s="173"/>
+      <c r="N25" s="174"/>
+      <c r="O25" s="94"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
@@ -2472,8 +2472,8 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="48"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
+      <c r="L26" s="173"/>
+      <c r="M26" s="173"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -2488,20 +2488,20 @@
       <c r="Y26" s="38"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A27" s="127" t="s">
+      <c r="A27" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="93" t="s">
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="185" t="s">
         <v>61</v>
       </c>
       <c r="M27" s="47"/>
@@ -2519,20 +2519,20 @@
       <c r="Y27" s="38"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A28" s="129" t="s">
+      <c r="A28" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="93"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="185"/>
       <c r="M28" s="49"/>
       <c r="N28" s="13"/>
       <c r="O28" s="50"/>
@@ -2548,25 +2548,25 @@
       <c r="Y28" s="38"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A29" s="187" t="s">
+      <c r="A29" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="188"/>
-      <c r="C29" s="188"/>
-      <c r="D29" s="188"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="183" t="s">
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="185" t="s">
+      <c r="I29" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="135" t="s">
+      <c r="J29" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="136"/>
+      <c r="K29" s="166"/>
       <c r="L29" s="51"/>
       <c r="M29" s="52"/>
       <c r="N29" s="53"/>
@@ -2583,17 +2583,17 @@
       <c r="Y29" s="38"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A30" s="189"/>
-      <c r="B30" s="190"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="190"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="138"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="168"/>
       <c r="L30" s="51"/>
       <c r="M30" s="52"/>
       <c r="N30" s="54"/>
@@ -2610,17 +2610,17 @@
       <c r="Y30" s="38"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A31" s="131"/>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="133"/>
+      <c r="A31" s="153"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="155"/>
       <c r="H31" s="31"/>
       <c r="I31" s="33"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="117"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="103"/>
       <c r="L31" s="47"/>
       <c r="M31" s="47"/>
       <c r="N31" s="47"/>
@@ -2637,17 +2637,17 @@
       <c r="Y31" s="38"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A32" s="131"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="133"/>
+      <c r="A32" s="153"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="155"/>
       <c r="H32" s="32"/>
       <c r="I32" s="33"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="117"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="103"/>
       <c r="L32" s="47"/>
       <c r="M32" s="47"/>
       <c r="N32" s="47"/>
@@ -2664,17 +2664,17 @@
       <c r="Y32" s="38"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="131"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="133"/>
+      <c r="A33" s="153"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="155"/>
       <c r="H33" s="32"/>
       <c r="I33" s="33"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="117"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="103"/>
       <c r="L33" s="47"/>
       <c r="M33" s="47"/>
       <c r="N33" s="47"/>
@@ -2691,17 +2691,17 @@
       <c r="Y33" s="38"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A34" s="131"/>
-      <c r="B34" s="132"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="133"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="155"/>
       <c r="H34" s="32"/>
       <c r="I34" s="33"/>
-      <c r="J34" s="134"/>
-      <c r="K34" s="117"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="103"/>
       <c r="L34" s="47"/>
       <c r="M34" s="55"/>
       <c r="N34" s="55"/>
@@ -2718,17 +2718,17 @@
       <c r="Y34" s="38"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A35" s="131"/>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="133"/>
+      <c r="A35" s="153"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="155"/>
       <c r="H35" s="31"/>
       <c r="I35" s="33"/>
-      <c r="J35" s="134"/>
-      <c r="K35" s="117"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="103"/>
       <c r="L35" s="47"/>
       <c r="M35" s="55"/>
       <c r="N35" s="55"/>
@@ -2745,17 +2745,17 @@
       <c r="Y35" s="38"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A36" s="131"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="133"/>
+      <c r="A36" s="153"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="155"/>
       <c r="H36" s="31"/>
       <c r="I36" s="33"/>
-      <c r="J36" s="134"/>
-      <c r="K36" s="117"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="103"/>
       <c r="L36" s="47"/>
       <c r="M36" s="55"/>
       <c r="N36" s="55"/>
@@ -2772,17 +2772,17 @@
       <c r="Y36" s="38"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A37" s="131"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="133"/>
+      <c r="A37" s="153"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="155"/>
       <c r="H37" s="32"/>
       <c r="I37" s="33"/>
-      <c r="J37" s="134"/>
-      <c r="K37" s="117"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="103"/>
       <c r="L37" s="47"/>
       <c r="M37" s="55"/>
       <c r="N37" s="55"/>
@@ -2799,17 +2799,17 @@
       <c r="Y37" s="38"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A38" s="131"/>
-      <c r="B38" s="132"/>
-      <c r="C38" s="132"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="133"/>
+      <c r="A38" s="153"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="155"/>
       <c r="H38" s="32"/>
       <c r="I38" s="33"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="117"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="103"/>
       <c r="L38" s="47"/>
       <c r="M38" s="55"/>
       <c r="N38" s="55"/>
@@ -2826,17 +2826,17 @@
       <c r="Y38" s="38"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A39" s="131"/>
-      <c r="B39" s="132"/>
-      <c r="C39" s="132"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="132"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="133"/>
+      <c r="A39" s="153"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="155"/>
       <c r="H39" s="32"/>
       <c r="I39" s="33"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="117"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="103"/>
       <c r="L39" s="47"/>
       <c r="M39" s="55"/>
       <c r="N39" s="55"/>
@@ -2853,17 +2853,17 @@
       <c r="Y39" s="38"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A40" s="131"/>
-      <c r="B40" s="132"/>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="133"/>
+      <c r="A40" s="153"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="155"/>
       <c r="H40" s="32"/>
       <c r="I40" s="33"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="117"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="103"/>
       <c r="L40" s="47"/>
       <c r="M40" s="55"/>
       <c r="N40" s="55"/>
@@ -2880,17 +2880,17 @@
       <c r="Y40" s="38"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A41" s="131"/>
-      <c r="B41" s="132"/>
-      <c r="C41" s="132"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="133"/>
+      <c r="A41" s="153"/>
+      <c r="B41" s="154"/>
+      <c r="C41" s="154"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="155"/>
       <c r="H41" s="32"/>
       <c r="I41" s="33"/>
-      <c r="J41" s="139"/>
-      <c r="K41" s="104"/>
+      <c r="J41" s="157"/>
+      <c r="K41" s="122"/>
       <c r="L41" s="47"/>
       <c r="M41" s="55"/>
       <c r="N41" s="55"/>
@@ -2907,17 +2907,17 @@
       <c r="Y41" s="38"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A42" s="131"/>
-      <c r="B42" s="132"/>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="133"/>
+      <c r="A42" s="153"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="155"/>
       <c r="H42" s="32"/>
       <c r="I42" s="33"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="104"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="122"/>
       <c r="L42" s="47"/>
       <c r="M42" s="55"/>
       <c r="N42" s="55"/>
@@ -2934,17 +2934,17 @@
       <c r="Y42" s="38"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A43" s="131"/>
-      <c r="B43" s="132"/>
-      <c r="C43" s="132"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="133"/>
+      <c r="A43" s="153"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="155"/>
       <c r="H43" s="32"/>
       <c r="I43" s="33"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="104"/>
+      <c r="J43" s="157"/>
+      <c r="K43" s="122"/>
       <c r="L43" s="47"/>
       <c r="M43" s="55"/>
       <c r="N43" s="55"/>
@@ -2961,17 +2961,17 @@
       <c r="Y43" s="38"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A44" s="131"/>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="133"/>
+      <c r="A44" s="153"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="155"/>
       <c r="H44" s="32"/>
       <c r="I44" s="33"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="104"/>
+      <c r="J44" s="157"/>
+      <c r="K44" s="122"/>
       <c r="L44" s="47"/>
       <c r="M44" s="55"/>
       <c r="N44" s="55"/>
@@ -2988,17 +2988,17 @@
       <c r="Y44" s="38"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A45" s="131"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="133"/>
+      <c r="A45" s="153"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="154"/>
+      <c r="D45" s="154"/>
+      <c r="E45" s="154"/>
+      <c r="F45" s="154"/>
+      <c r="G45" s="155"/>
       <c r="H45" s="32"/>
       <c r="I45" s="33"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="117"/>
+      <c r="J45" s="156"/>
+      <c r="K45" s="103"/>
       <c r="L45" s="47"/>
       <c r="M45" s="55"/>
       <c r="N45" s="55"/>
@@ -3015,17 +3015,17 @@
       <c r="Y45" s="38"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A46" s="131"/>
-      <c r="B46" s="132"/>
-      <c r="C46" s="132"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="133"/>
+      <c r="A46" s="153"/>
+      <c r="B46" s="154"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="154"/>
+      <c r="G46" s="155"/>
       <c r="H46" s="32"/>
       <c r="I46" s="33"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="117"/>
+      <c r="J46" s="156"/>
+      <c r="K46" s="103"/>
       <c r="L46" s="47"/>
       <c r="M46" s="55"/>
       <c r="N46" s="55"/>
@@ -3042,17 +3042,17 @@
       <c r="Y46" s="38"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A47" s="131"/>
-      <c r="B47" s="132"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="133"/>
+      <c r="A47" s="153"/>
+      <c r="B47" s="154"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="155"/>
       <c r="H47" s="32"/>
       <c r="I47" s="33"/>
-      <c r="J47" s="139"/>
-      <c r="K47" s="104"/>
+      <c r="J47" s="157"/>
+      <c r="K47" s="122"/>
       <c r="L47" s="47"/>
       <c r="M47" s="55"/>
       <c r="N47" s="55"/>
@@ -3069,17 +3069,17 @@
       <c r="Y47" s="38"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A48" s="131"/>
-      <c r="B48" s="132"/>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="133"/>
+      <c r="A48" s="153"/>
+      <c r="B48" s="154"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="155"/>
       <c r="H48" s="32"/>
       <c r="I48" s="33"/>
-      <c r="J48" s="139"/>
-      <c r="K48" s="104"/>
+      <c r="J48" s="157"/>
+      <c r="K48" s="122"/>
       <c r="L48" s="47"/>
       <c r="M48" s="55"/>
       <c r="N48" s="55"/>
@@ -3096,20 +3096,20 @@
       <c r="Y48" s="38"/>
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A49" s="140" t="s">
+      <c r="A49" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="141"/>
-      <c r="C49" s="141"/>
-      <c r="D49" s="141"/>
-      <c r="E49" s="141"/>
-      <c r="F49" s="141"/>
-      <c r="G49" s="141"/>
-      <c r="H49" s="141"/>
-      <c r="I49" s="141"/>
-      <c r="J49" s="141"/>
-      <c r="K49" s="142"/>
-      <c r="L49" s="94" t="s">
+      <c r="B49" s="159"/>
+      <c r="C49" s="159"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="159"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="159"/>
+      <c r="J49" s="159"/>
+      <c r="K49" s="160"/>
+      <c r="L49" s="186" t="s">
         <v>62</v>
       </c>
       <c r="M49" s="49"/>
@@ -3127,20 +3127,20 @@
       <c r="Y49" s="38"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A50" s="143" t="s">
+      <c r="A50" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="144"/>
-      <c r="C50" s="144"/>
-      <c r="D50" s="144"/>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="144"/>
-      <c r="K50" s="145"/>
-      <c r="L50" s="95"/>
+      <c r="B50" s="162"/>
+      <c r="C50" s="162"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="162"/>
+      <c r="F50" s="162"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="162"/>
+      <c r="J50" s="162"/>
+      <c r="K50" s="163"/>
+      <c r="L50" s="187"/>
       <c r="M50" s="49"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
@@ -3156,19 +3156,19 @@
       <c r="Y50" s="38"/>
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A51" s="146" t="s">
+      <c r="A51" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="130"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="130"/>
-      <c r="J51" s="130"/>
-      <c r="K51" s="117"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="110"/>
+      <c r="K51" s="103"/>
       <c r="L51" s="51"/>
       <c r="M51" s="51"/>
       <c r="N51" s="47"/>
@@ -3191,14 +3191,14 @@
       <c r="B52" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="147" t="s">
+      <c r="C52" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="148"/>
-      <c r="E52" s="149" t="s">
+      <c r="D52" s="150"/>
+      <c r="E52" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="150"/>
+      <c r="F52" s="152"/>
       <c r="G52" s="88" t="s">
         <v>37</v>
       </c>
@@ -3232,10 +3232,10 @@
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="34"/>
       <c r="B53" s="35"/>
-      <c r="C53" s="151"/>
-      <c r="D53" s="152"/>
-      <c r="E53" s="151"/>
-      <c r="F53" s="152"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="138"/>
       <c r="G53" s="34"/>
       <c r="H53" s="34"/>
       <c r="I53" s="34"/>
@@ -3261,10 +3261,10 @@
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="34"/>
       <c r="B54" s="35"/>
-      <c r="C54" s="151"/>
-      <c r="D54" s="152"/>
-      <c r="E54" s="151"/>
-      <c r="F54" s="152"/>
+      <c r="C54" s="137"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="138"/>
       <c r="G54" s="34"/>
       <c r="H54" s="34"/>
       <c r="I54" s="57"/>
@@ -3290,10 +3290,10 @@
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="34"/>
       <c r="B55" s="35"/>
-      <c r="C55" s="151"/>
-      <c r="D55" s="152"/>
-      <c r="E55" s="151"/>
-      <c r="F55" s="152"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="138"/>
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
       <c r="I55" s="57"/>
@@ -3317,10 +3317,10 @@
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="34"/>
       <c r="B56" s="35"/>
-      <c r="C56" s="151"/>
-      <c r="D56" s="152"/>
-      <c r="E56" s="151"/>
-      <c r="F56" s="152"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="138"/>
       <c r="G56" s="34"/>
       <c r="H56" s="34"/>
       <c r="I56" s="57"/>
@@ -3344,10 +3344,10 @@
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="34"/>
       <c r="B57" s="35"/>
-      <c r="C57" s="151"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="151"/>
-      <c r="F57" s="152"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="138"/>
       <c r="G57" s="34"/>
       <c r="H57" s="34"/>
       <c r="I57" s="57"/>
@@ -3371,10 +3371,10 @@
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="36"/>
       <c r="B58" s="35"/>
-      <c r="C58" s="151"/>
-      <c r="D58" s="152"/>
-      <c r="E58" s="151"/>
-      <c r="F58" s="152"/>
+      <c r="C58" s="137"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="138"/>
       <c r="G58" s="34"/>
       <c r="H58" s="34"/>
       <c r="I58" s="57"/>
@@ -3398,10 +3398,10 @@
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="36"/>
       <c r="B59" s="35"/>
-      <c r="C59" s="151"/>
-      <c r="D59" s="152"/>
-      <c r="E59" s="151"/>
-      <c r="F59" s="152"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="138"/>
       <c r="G59" s="34"/>
       <c r="H59" s="34"/>
       <c r="I59" s="57"/>
@@ -3425,10 +3425,10 @@
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="36"/>
       <c r="B60" s="35"/>
-      <c r="C60" s="151"/>
-      <c r="D60" s="152"/>
-      <c r="E60" s="151"/>
-      <c r="F60" s="152"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="138"/>
       <c r="G60" s="34"/>
       <c r="H60" s="34"/>
       <c r="I60" s="57"/>
@@ -3452,10 +3452,10 @@
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="36"/>
       <c r="B61" s="35"/>
-      <c r="C61" s="151"/>
-      <c r="D61" s="152"/>
-      <c r="E61" s="151"/>
-      <c r="F61" s="152"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="138"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="138"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
       <c r="I61" s="57"/>
@@ -3479,10 +3479,10 @@
     <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="34"/>
       <c r="B62" s="35"/>
-      <c r="C62" s="151"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="151"/>
-      <c r="F62" s="152"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="138"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
       <c r="I62" s="57"/>
@@ -3505,10 +3505,10 @@
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="34"/>
       <c r="B63" s="35"/>
-      <c r="C63" s="151"/>
-      <c r="D63" s="152"/>
-      <c r="E63" s="151"/>
-      <c r="F63" s="152"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="138"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="138"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
       <c r="I63" s="57"/>
@@ -3532,10 +3532,10 @@
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="34"/>
       <c r="B64" s="35"/>
-      <c r="C64" s="151"/>
-      <c r="D64" s="152"/>
-      <c r="E64" s="151"/>
-      <c r="F64" s="152"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="138"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="138"/>
       <c r="G64" s="34"/>
       <c r="H64" s="34"/>
       <c r="I64" s="57"/>
@@ -3559,10 +3559,10 @@
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="34"/>
       <c r="B65" s="35"/>
-      <c r="C65" s="151"/>
-      <c r="D65" s="152"/>
-      <c r="E65" s="153"/>
-      <c r="F65" s="152"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="138"/>
+      <c r="E65" s="148"/>
+      <c r="F65" s="138"/>
       <c r="G65" s="34"/>
       <c r="H65" s="34"/>
       <c r="I65" s="68"/>
@@ -3586,10 +3586,10 @@
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="34"/>
       <c r="B66" s="35"/>
-      <c r="C66" s="151"/>
-      <c r="D66" s="152"/>
-      <c r="E66" s="151"/>
-      <c r="F66" s="152"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="138"/>
+      <c r="E66" s="137"/>
+      <c r="F66" s="138"/>
       <c r="G66" s="34"/>
       <c r="H66" s="34"/>
       <c r="I66" s="57"/>
@@ -3613,10 +3613,10 @@
     <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="34"/>
       <c r="B67" s="35"/>
-      <c r="C67" s="151"/>
-      <c r="D67" s="152"/>
-      <c r="E67" s="151"/>
-      <c r="F67" s="152"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="138"/>
+      <c r="E67" s="137"/>
+      <c r="F67" s="138"/>
       <c r="G67" s="34"/>
       <c r="H67" s="34"/>
       <c r="I67" s="57"/>
@@ -3640,10 +3640,10 @@
     <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="34"/>
       <c r="B68" s="35"/>
-      <c r="C68" s="151"/>
-      <c r="D68" s="152"/>
-      <c r="E68" s="151"/>
-      <c r="F68" s="152"/>
+      <c r="C68" s="137"/>
+      <c r="D68" s="138"/>
+      <c r="E68" s="137"/>
+      <c r="F68" s="138"/>
       <c r="G68" s="34"/>
       <c r="H68" s="34"/>
       <c r="I68" s="57"/>
@@ -3667,10 +3667,10 @@
     <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="34"/>
       <c r="B69" s="35"/>
-      <c r="C69" s="151"/>
-      <c r="D69" s="152"/>
-      <c r="E69" s="151"/>
-      <c r="F69" s="152"/>
+      <c r="C69" s="137"/>
+      <c r="D69" s="138"/>
+      <c r="E69" s="137"/>
+      <c r="F69" s="138"/>
       <c r="G69" s="34"/>
       <c r="H69" s="34"/>
       <c r="I69" s="57"/>
@@ -3694,10 +3694,10 @@
     <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="34"/>
       <c r="B70" s="35"/>
-      <c r="C70" s="151"/>
-      <c r="D70" s="152"/>
-      <c r="E70" s="151"/>
-      <c r="F70" s="152"/>
+      <c r="C70" s="137"/>
+      <c r="D70" s="138"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="138"/>
       <c r="G70" s="34"/>
       <c r="H70" s="34"/>
       <c r="I70" s="57"/>
@@ -3721,10 +3721,10 @@
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="34"/>
       <c r="B71" s="35"/>
-      <c r="C71" s="151"/>
-      <c r="D71" s="152"/>
-      <c r="E71" s="151"/>
-      <c r="F71" s="152"/>
+      <c r="C71" s="137"/>
+      <c r="D71" s="138"/>
+      <c r="E71" s="137"/>
+      <c r="F71" s="138"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
       <c r="I71" s="57"/>
@@ -3748,10 +3748,10 @@
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="34"/>
       <c r="B72" s="35"/>
-      <c r="C72" s="151"/>
-      <c r="D72" s="152"/>
-      <c r="E72" s="151"/>
-      <c r="F72" s="152"/>
+      <c r="C72" s="137"/>
+      <c r="D72" s="138"/>
+      <c r="E72" s="137"/>
+      <c r="F72" s="138"/>
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
       <c r="I72" s="57"/>
@@ -3775,10 +3775,10 @@
     <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="34"/>
       <c r="B73" s="35"/>
-      <c r="C73" s="151"/>
-      <c r="D73" s="152"/>
-      <c r="E73" s="151"/>
-      <c r="F73" s="152"/>
+      <c r="C73" s="137"/>
+      <c r="D73" s="138"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="138"/>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
       <c r="I73" s="57"/>
@@ -3802,10 +3802,10 @@
     <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="59"/>
       <c r="B74" s="35"/>
-      <c r="C74" s="151"/>
-      <c r="D74" s="152"/>
-      <c r="E74" s="154"/>
-      <c r="F74" s="155"/>
+      <c r="C74" s="137"/>
+      <c r="D74" s="138"/>
+      <c r="E74" s="139"/>
+      <c r="F74" s="140"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
       <c r="I74" s="71"/>
@@ -3829,10 +3829,10 @@
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="59"/>
       <c r="B75" s="35"/>
-      <c r="C75" s="151"/>
-      <c r="D75" s="152"/>
-      <c r="E75" s="154"/>
-      <c r="F75" s="155"/>
+      <c r="C75" s="137"/>
+      <c r="D75" s="138"/>
+      <c r="E75" s="139"/>
+      <c r="F75" s="140"/>
       <c r="G75" s="34"/>
       <c r="H75" s="34"/>
       <c r="I75" s="71"/>
@@ -3856,10 +3856,10 @@
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="59"/>
       <c r="B76" s="35"/>
-      <c r="C76" s="151"/>
-      <c r="D76" s="152"/>
-      <c r="E76" s="154"/>
-      <c r="F76" s="155"/>
+      <c r="C76" s="137"/>
+      <c r="D76" s="138"/>
+      <c r="E76" s="139"/>
+      <c r="F76" s="140"/>
       <c r="G76" s="34"/>
       <c r="H76" s="34"/>
       <c r="I76" s="71"/>
@@ -3883,10 +3883,10 @@
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="59"/>
       <c r="B77" s="35"/>
-      <c r="C77" s="151"/>
-      <c r="D77" s="152"/>
-      <c r="E77" s="154"/>
-      <c r="F77" s="155"/>
+      <c r="C77" s="137"/>
+      <c r="D77" s="138"/>
+      <c r="E77" s="139"/>
+      <c r="F77" s="140"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
       <c r="I77" s="71"/>
@@ -3910,10 +3910,10 @@
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="59"/>
       <c r="B78" s="35"/>
-      <c r="C78" s="151"/>
-      <c r="D78" s="104"/>
-      <c r="E78" s="156"/>
-      <c r="F78" s="112"/>
+      <c r="C78" s="137"/>
+      <c r="D78" s="122"/>
+      <c r="E78" s="141"/>
+      <c r="F78" s="102"/>
       <c r="G78" s="60"/>
       <c r="H78" s="61"/>
       <c r="I78" s="71"/>
@@ -3935,20 +3935,20 @@
       <c r="Y78" s="38"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A79" s="157" t="s">
+      <c r="A79" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="158"/>
-      <c r="C79" s="158"/>
-      <c r="D79" s="158"/>
-      <c r="E79" s="158"/>
-      <c r="F79" s="158"/>
-      <c r="G79" s="158"/>
-      <c r="H79" s="158"/>
-      <c r="I79" s="158"/>
-      <c r="J79" s="158"/>
-      <c r="K79" s="159"/>
-      <c r="L79" s="92"/>
+      <c r="B79" s="143"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="143"/>
+      <c r="F79" s="143"/>
+      <c r="G79" s="143"/>
+      <c r="H79" s="143"/>
+      <c r="I79" s="143"/>
+      <c r="J79" s="143"/>
+      <c r="K79" s="144"/>
+      <c r="L79" s="184"/>
       <c r="M79" s="55"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
@@ -3967,27 +3967,27 @@
       <c r="A80" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="160" t="s">
+      <c r="B80" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="160"/>
-      <c r="D80" s="161" t="s">
+      <c r="C80" s="145"/>
+      <c r="D80" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="161"/>
-      <c r="F80" s="161"/>
+      <c r="E80" s="146"/>
+      <c r="F80" s="146"/>
       <c r="G80" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="H80" s="162" t="s">
+      <c r="H80" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="I80" s="162"/>
-      <c r="J80" s="162" t="s">
+      <c r="I80" s="147"/>
+      <c r="J80" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="K80" s="162"/>
-      <c r="L80" s="92"/>
+      <c r="K80" s="147"/>
+      <c r="L80" s="184"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
@@ -4002,16 +4002,16 @@
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1">
       <c r="A81" s="62"/>
-      <c r="B81" s="163"/>
-      <c r="C81" s="163"/>
-      <c r="D81" s="163"/>
-      <c r="E81" s="163"/>
-      <c r="F81" s="163"/>
+      <c r="B81" s="132"/>
+      <c r="C81" s="132"/>
+      <c r="D81" s="132"/>
+      <c r="E81" s="132"/>
+      <c r="F81" s="132"/>
       <c r="G81" s="62"/>
-      <c r="H81" s="164"/>
-      <c r="I81" s="165"/>
-      <c r="J81" s="163"/>
-      <c r="K81" s="163"/>
+      <c r="H81" s="133"/>
+      <c r="I81" s="134"/>
+      <c r="J81" s="132"/>
+      <c r="K81" s="132"/>
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
@@ -4027,16 +4027,16 @@
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1">
       <c r="A82" s="62"/>
-      <c r="B82" s="163"/>
-      <c r="C82" s="163"/>
-      <c r="D82" s="163"/>
-      <c r="E82" s="163"/>
-      <c r="F82" s="163"/>
+      <c r="B82" s="132"/>
+      <c r="C82" s="132"/>
+      <c r="D82" s="132"/>
+      <c r="E82" s="132"/>
+      <c r="F82" s="132"/>
       <c r="G82" s="62"/>
-      <c r="H82" s="164"/>
-      <c r="I82" s="165"/>
-      <c r="J82" s="163"/>
-      <c r="K82" s="163"/>
+      <c r="H82" s="133"/>
+      <c r="I82" s="134"/>
+      <c r="J82" s="132"/>
+      <c r="K82" s="132"/>
       <c r="L82" s="13" t="s">
         <v>43</v>
       </c>
@@ -4054,16 +4054,16 @@
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1">
       <c r="A83" s="62"/>
-      <c r="B83" s="163"/>
-      <c r="C83" s="163"/>
-      <c r="D83" s="163"/>
-      <c r="E83" s="163"/>
-      <c r="F83" s="163"/>
+      <c r="B83" s="132"/>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="132"/>
+      <c r="F83" s="132"/>
       <c r="G83" s="62"/>
-      <c r="H83" s="164"/>
-      <c r="I83" s="165"/>
-      <c r="J83" s="163"/>
-      <c r="K83" s="163"/>
+      <c r="H83" s="133"/>
+      <c r="I83" s="134"/>
+      <c r="J83" s="132"/>
+      <c r="K83" s="132"/>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
@@ -4079,16 +4079,16 @@
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1">
       <c r="A84" s="62"/>
-      <c r="B84" s="163"/>
-      <c r="C84" s="163"/>
-      <c r="D84" s="163"/>
-      <c r="E84" s="163"/>
-      <c r="F84" s="163"/>
+      <c r="B84" s="132"/>
+      <c r="C84" s="132"/>
+      <c r="D84" s="132"/>
+      <c r="E84" s="132"/>
+      <c r="F84" s="132"/>
       <c r="G84" s="62"/>
-      <c r="H84" s="164"/>
-      <c r="I84" s="165"/>
-      <c r="J84" s="163"/>
-      <c r="K84" s="163"/>
+      <c r="H84" s="133"/>
+      <c r="I84" s="134"/>
+      <c r="J84" s="132"/>
+      <c r="K84" s="132"/>
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
@@ -4104,16 +4104,16 @@
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1">
       <c r="A85" s="62"/>
-      <c r="B85" s="163"/>
-      <c r="C85" s="163"/>
-      <c r="D85" s="163"/>
-      <c r="E85" s="163"/>
-      <c r="F85" s="163"/>
+      <c r="B85" s="132"/>
+      <c r="C85" s="132"/>
+      <c r="D85" s="132"/>
+      <c r="E85" s="132"/>
+      <c r="F85" s="132"/>
       <c r="G85" s="62"/>
-      <c r="H85" s="164"/>
-      <c r="I85" s="165"/>
-      <c r="J85" s="163"/>
-      <c r="K85" s="163"/>
+      <c r="H85" s="133"/>
+      <c r="I85" s="134"/>
+      <c r="J85" s="132"/>
+      <c r="K85" s="132"/>
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
@@ -4129,16 +4129,16 @@
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1">
       <c r="A86" s="62"/>
-      <c r="B86" s="163"/>
-      <c r="C86" s="163"/>
-      <c r="D86" s="163"/>
-      <c r="E86" s="163"/>
-      <c r="F86" s="163"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="132"/>
       <c r="G86" s="62"/>
-      <c r="H86" s="164"/>
-      <c r="I86" s="165"/>
-      <c r="J86" s="163"/>
-      <c r="K86" s="163"/>
+      <c r="H86" s="133"/>
+      <c r="I86" s="134"/>
+      <c r="J86" s="132"/>
+      <c r="K86" s="132"/>
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1">
       <c r="A87" s="62"/>
-      <c r="B87" s="163"/>
-      <c r="C87" s="163"/>
-      <c r="D87" s="163"/>
-      <c r="E87" s="163"/>
-      <c r="F87" s="163"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="132"/>
       <c r="G87" s="62"/>
-      <c r="H87" s="164"/>
-      <c r="I87" s="165"/>
-      <c r="J87" s="163"/>
-      <c r="K87" s="163"/>
+      <c r="H87" s="133"/>
+      <c r="I87" s="134"/>
+      <c r="J87" s="132"/>
+      <c r="K87" s="132"/>
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
@@ -4179,16 +4179,16 @@
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1">
       <c r="A88" s="62"/>
-      <c r="B88" s="163"/>
-      <c r="C88" s="163"/>
-      <c r="D88" s="163"/>
-      <c r="E88" s="163"/>
-      <c r="F88" s="163"/>
+      <c r="B88" s="132"/>
+      <c r="C88" s="132"/>
+      <c r="D88" s="132"/>
+      <c r="E88" s="132"/>
+      <c r="F88" s="132"/>
       <c r="G88" s="62"/>
-      <c r="H88" s="164"/>
-      <c r="I88" s="165"/>
-      <c r="J88" s="163"/>
-      <c r="K88" s="163"/>
+      <c r="H88" s="133"/>
+      <c r="I88" s="134"/>
+      <c r="J88" s="132"/>
+      <c r="K88" s="132"/>
       <c r="L88" s="47"/>
       <c r="M88" s="55"/>
       <c r="N88" s="13"/>
@@ -4206,16 +4206,16 @@
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1">
       <c r="A89" s="62"/>
-      <c r="B89" s="163"/>
-      <c r="C89" s="163"/>
-      <c r="D89" s="163"/>
-      <c r="E89" s="163"/>
-      <c r="F89" s="163"/>
+      <c r="B89" s="132"/>
+      <c r="C89" s="132"/>
+      <c r="D89" s="132"/>
+      <c r="E89" s="132"/>
+      <c r="F89" s="132"/>
       <c r="G89" s="62"/>
-      <c r="H89" s="164"/>
-      <c r="I89" s="165"/>
-      <c r="J89" s="163"/>
-      <c r="K89" s="163"/>
+      <c r="H89" s="133"/>
+      <c r="I89" s="134"/>
+      <c r="J89" s="132"/>
+      <c r="K89" s="132"/>
       <c r="L89" s="47"/>
       <c r="M89" s="55"/>
       <c r="N89" s="13"/>
@@ -4233,16 +4233,16 @@
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1">
       <c r="A90" s="62"/>
-      <c r="B90" s="163"/>
-      <c r="C90" s="163"/>
-      <c r="D90" s="163"/>
-      <c r="E90" s="163"/>
-      <c r="F90" s="163"/>
+      <c r="B90" s="132"/>
+      <c r="C90" s="132"/>
+      <c r="D90" s="132"/>
+      <c r="E90" s="132"/>
+      <c r="F90" s="132"/>
       <c r="G90" s="62"/>
-      <c r="H90" s="164"/>
-      <c r="I90" s="165"/>
-      <c r="J90" s="163"/>
-      <c r="K90" s="163"/>
+      <c r="H90" s="133"/>
+      <c r="I90" s="134"/>
+      <c r="J90" s="132"/>
+      <c r="K90" s="132"/>
       <c r="L90" s="47"/>
       <c r="M90" s="55"/>
       <c r="N90" s="13"/>
@@ -4260,16 +4260,16 @@
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1">
       <c r="A91" s="62"/>
-      <c r="B91" s="163"/>
-      <c r="C91" s="163"/>
-      <c r="D91" s="163"/>
-      <c r="E91" s="163"/>
-      <c r="F91" s="163"/>
+      <c r="B91" s="132"/>
+      <c r="C91" s="132"/>
+      <c r="D91" s="132"/>
+      <c r="E91" s="132"/>
+      <c r="F91" s="132"/>
       <c r="G91" s="62"/>
-      <c r="H91" s="164"/>
-      <c r="I91" s="165"/>
-      <c r="J91" s="163"/>
-      <c r="K91" s="163"/>
+      <c r="H91" s="133"/>
+      <c r="I91" s="134"/>
+      <c r="J91" s="132"/>
+      <c r="K91" s="132"/>
       <c r="L91" s="47"/>
       <c r="M91" s="47"/>
       <c r="N91" s="13"/>
@@ -4287,16 +4287,16 @@
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1">
       <c r="A92" s="62"/>
-      <c r="B92" s="163"/>
-      <c r="C92" s="163"/>
-      <c r="D92" s="163"/>
-      <c r="E92" s="163"/>
-      <c r="F92" s="163"/>
+      <c r="B92" s="132"/>
+      <c r="C92" s="132"/>
+      <c r="D92" s="132"/>
+      <c r="E92" s="132"/>
+      <c r="F92" s="132"/>
       <c r="G92" s="62"/>
-      <c r="H92" s="164"/>
-      <c r="I92" s="165"/>
-      <c r="J92" s="163"/>
-      <c r="K92" s="163"/>
+      <c r="H92" s="133"/>
+      <c r="I92" s="134"/>
+      <c r="J92" s="132"/>
+      <c r="K92" s="132"/>
       <c r="L92" s="47"/>
       <c r="M92" s="47"/>
       <c r="N92" s="13"/>
@@ -4314,16 +4314,16 @@
     </row>
     <row r="93" spans="1:25" ht="15.75" customHeight="1">
       <c r="A93" s="62"/>
-      <c r="B93" s="163"/>
-      <c r="C93" s="163"/>
-      <c r="D93" s="163"/>
-      <c r="E93" s="163"/>
-      <c r="F93" s="163"/>
+      <c r="B93" s="132"/>
+      <c r="C93" s="132"/>
+      <c r="D93" s="132"/>
+      <c r="E93" s="132"/>
+      <c r="F93" s="132"/>
       <c r="G93" s="62"/>
-      <c r="H93" s="164"/>
-      <c r="I93" s="165"/>
-      <c r="J93" s="163"/>
-      <c r="K93" s="163"/>
+      <c r="H93" s="133"/>
+      <c r="I93" s="134"/>
+      <c r="J93" s="132"/>
+      <c r="K93" s="132"/>
       <c r="L93" s="47"/>
       <c r="M93" s="47"/>
       <c r="N93" s="13"/>
@@ -4341,16 +4341,16 @@
     </row>
     <row r="94" spans="1:25" ht="15.75" customHeight="1">
       <c r="A94" s="62"/>
-      <c r="B94" s="163"/>
-      <c r="C94" s="163"/>
-      <c r="D94" s="163"/>
-      <c r="E94" s="163"/>
-      <c r="F94" s="163"/>
+      <c r="B94" s="132"/>
+      <c r="C94" s="132"/>
+      <c r="D94" s="132"/>
+      <c r="E94" s="132"/>
+      <c r="F94" s="132"/>
       <c r="G94" s="62"/>
-      <c r="H94" s="164"/>
-      <c r="I94" s="165"/>
-      <c r="J94" s="163"/>
-      <c r="K94" s="163"/>
+      <c r="H94" s="133"/>
+      <c r="I94" s="134"/>
+      <c r="J94" s="132"/>
+      <c r="K94" s="132"/>
       <c r="L94" s="47"/>
       <c r="M94" s="47"/>
       <c r="N94" s="13"/>
@@ -4368,16 +4368,16 @@
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1">
       <c r="A95" s="62"/>
-      <c r="B95" s="163"/>
-      <c r="C95" s="163"/>
-      <c r="D95" s="163"/>
-      <c r="E95" s="163"/>
-      <c r="F95" s="163"/>
+      <c r="B95" s="132"/>
+      <c r="C95" s="132"/>
+      <c r="D95" s="132"/>
+      <c r="E95" s="132"/>
+      <c r="F95" s="132"/>
       <c r="G95" s="62"/>
-      <c r="H95" s="164"/>
-      <c r="I95" s="165"/>
-      <c r="J95" s="163"/>
-      <c r="K95" s="163"/>
+      <c r="H95" s="133"/>
+      <c r="I95" s="134"/>
+      <c r="J95" s="132"/>
+      <c r="K95" s="132"/>
       <c r="L95" s="47"/>
       <c r="M95" s="47"/>
       <c r="N95" s="13"/>
@@ -4395,16 +4395,16 @@
     </row>
     <row r="96" spans="1:25" ht="15.75" customHeight="1">
       <c r="A96" s="62"/>
-      <c r="B96" s="163"/>
-      <c r="C96" s="163"/>
-      <c r="D96" s="163"/>
-      <c r="E96" s="163"/>
-      <c r="F96" s="163"/>
+      <c r="B96" s="132"/>
+      <c r="C96" s="132"/>
+      <c r="D96" s="132"/>
+      <c r="E96" s="132"/>
+      <c r="F96" s="132"/>
       <c r="G96" s="62"/>
-      <c r="H96" s="164"/>
-      <c r="I96" s="165"/>
-      <c r="J96" s="163"/>
-      <c r="K96" s="163"/>
+      <c r="H96" s="133"/>
+      <c r="I96" s="134"/>
+      <c r="J96" s="132"/>
+      <c r="K96" s="132"/>
       <c r="L96" s="47"/>
       <c r="M96" s="47"/>
       <c r="N96" s="13"/>
@@ -4422,16 +4422,16 @@
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1">
       <c r="A97" s="62"/>
-      <c r="B97" s="163"/>
-      <c r="C97" s="163"/>
-      <c r="D97" s="163"/>
-      <c r="E97" s="163"/>
-      <c r="F97" s="163"/>
+      <c r="B97" s="132"/>
+      <c r="C97" s="132"/>
+      <c r="D97" s="132"/>
+      <c r="E97" s="132"/>
+      <c r="F97" s="132"/>
       <c r="G97" s="62"/>
-      <c r="H97" s="164"/>
-      <c r="I97" s="165"/>
-      <c r="J97" s="163"/>
-      <c r="K97" s="163"/>
+      <c r="H97" s="133"/>
+      <c r="I97" s="134"/>
+      <c r="J97" s="132"/>
+      <c r="K97" s="132"/>
       <c r="L97" s="47"/>
       <c r="M97" s="47"/>
       <c r="N97" s="13"/>
@@ -4449,16 +4449,16 @@
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1">
       <c r="A98" s="62"/>
-      <c r="B98" s="163"/>
-      <c r="C98" s="163"/>
-      <c r="D98" s="163"/>
-      <c r="E98" s="163"/>
-      <c r="F98" s="163"/>
+      <c r="B98" s="132"/>
+      <c r="C98" s="132"/>
+      <c r="D98" s="132"/>
+      <c r="E98" s="132"/>
+      <c r="F98" s="132"/>
       <c r="G98" s="62"/>
-      <c r="H98" s="164"/>
-      <c r="I98" s="165"/>
-      <c r="J98" s="163"/>
-      <c r="K98" s="163"/>
+      <c r="H98" s="133"/>
+      <c r="I98" s="134"/>
+      <c r="J98" s="132"/>
+      <c r="K98" s="132"/>
       <c r="L98" s="47"/>
       <c r="M98" s="47"/>
       <c r="N98" s="13"/>
@@ -4476,16 +4476,16 @@
     </row>
     <row r="99" spans="1:25" ht="15.75" customHeight="1">
       <c r="A99" s="62"/>
-      <c r="B99" s="163"/>
-      <c r="C99" s="163"/>
-      <c r="D99" s="163"/>
-      <c r="E99" s="163"/>
-      <c r="F99" s="163"/>
+      <c r="B99" s="132"/>
+      <c r="C99" s="132"/>
+      <c r="D99" s="132"/>
+      <c r="E99" s="132"/>
+      <c r="F99" s="132"/>
       <c r="G99" s="62"/>
-      <c r="H99" s="164"/>
-      <c r="I99" s="165"/>
-      <c r="J99" s="163"/>
-      <c r="K99" s="163"/>
+      <c r="H99" s="133"/>
+      <c r="I99" s="134"/>
+      <c r="J99" s="132"/>
+      <c r="K99" s="132"/>
       <c r="L99" s="47"/>
       <c r="M99" s="47"/>
       <c r="N99" s="13"/>
@@ -4503,16 +4503,16 @@
     </row>
     <row r="100" spans="1:25" ht="15.75" customHeight="1">
       <c r="A100" s="62"/>
-      <c r="B100" s="163"/>
-      <c r="C100" s="163"/>
-      <c r="D100" s="163"/>
-      <c r="E100" s="163"/>
-      <c r="F100" s="163"/>
+      <c r="B100" s="132"/>
+      <c r="C100" s="132"/>
+      <c r="D100" s="132"/>
+      <c r="E100" s="132"/>
+      <c r="F100" s="132"/>
       <c r="G100" s="62"/>
-      <c r="H100" s="164"/>
-      <c r="I100" s="165"/>
-      <c r="J100" s="163"/>
-      <c r="K100" s="163"/>
+      <c r="H100" s="133"/>
+      <c r="I100" s="134"/>
+      <c r="J100" s="132"/>
+      <c r="K100" s="132"/>
       <c r="L100" s="47"/>
       <c r="M100" s="47"/>
       <c r="N100" s="13"/>
@@ -4530,16 +4530,16 @@
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1">
       <c r="A101" s="62"/>
-      <c r="B101" s="163"/>
-      <c r="C101" s="163"/>
-      <c r="D101" s="163"/>
-      <c r="E101" s="163"/>
-      <c r="F101" s="163"/>
+      <c r="B101" s="132"/>
+      <c r="C101" s="132"/>
+      <c r="D101" s="132"/>
+      <c r="E101" s="132"/>
+      <c r="F101" s="132"/>
       <c r="G101" s="62"/>
-      <c r="H101" s="164"/>
-      <c r="I101" s="165"/>
-      <c r="J101" s="163"/>
-      <c r="K101" s="163"/>
+      <c r="H101" s="133"/>
+      <c r="I101" s="134"/>
+      <c r="J101" s="132"/>
+      <c r="K101" s="132"/>
       <c r="L101" s="47"/>
       <c r="M101" s="47"/>
       <c r="N101" s="13"/>
@@ -4557,16 +4557,16 @@
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="62"/>
-      <c r="B102" s="163"/>
-      <c r="C102" s="163"/>
-      <c r="D102" s="163"/>
-      <c r="E102" s="163"/>
-      <c r="F102" s="163"/>
+      <c r="B102" s="132"/>
+      <c r="C102" s="132"/>
+      <c r="D102" s="132"/>
+      <c r="E102" s="132"/>
+      <c r="F102" s="132"/>
       <c r="G102" s="62"/>
-      <c r="H102" s="164"/>
-      <c r="I102" s="165"/>
-      <c r="J102" s="163"/>
-      <c r="K102" s="163"/>
+      <c r="H102" s="133"/>
+      <c r="I102" s="134"/>
+      <c r="J102" s="132"/>
+      <c r="K102" s="132"/>
       <c r="L102" s="47"/>
       <c r="M102" s="47"/>
       <c r="N102" s="13"/>
@@ -4584,16 +4584,16 @@
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="62"/>
-      <c r="B103" s="163"/>
-      <c r="C103" s="163"/>
-      <c r="D103" s="163"/>
-      <c r="E103" s="163"/>
-      <c r="F103" s="163"/>
+      <c r="B103" s="132"/>
+      <c r="C103" s="132"/>
+      <c r="D103" s="132"/>
+      <c r="E103" s="132"/>
+      <c r="F103" s="132"/>
       <c r="G103" s="62"/>
-      <c r="H103" s="164"/>
-      <c r="I103" s="165"/>
-      <c r="J103" s="163"/>
-      <c r="K103" s="163"/>
+      <c r="H103" s="133"/>
+      <c r="I103" s="134"/>
+      <c r="J103" s="132"/>
+      <c r="K103" s="132"/>
       <c r="L103" s="47"/>
       <c r="M103" s="47"/>
       <c r="N103" s="13"/>
@@ -4611,16 +4611,16 @@
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1">
       <c r="A104" s="62"/>
-      <c r="B104" s="163"/>
-      <c r="C104" s="163"/>
-      <c r="D104" s="163"/>
-      <c r="E104" s="163"/>
-      <c r="F104" s="163"/>
+      <c r="B104" s="132"/>
+      <c r="C104" s="132"/>
+      <c r="D104" s="132"/>
+      <c r="E104" s="132"/>
+      <c r="F104" s="132"/>
       <c r="G104" s="62"/>
-      <c r="H104" s="164"/>
-      <c r="I104" s="165"/>
-      <c r="J104" s="163"/>
-      <c r="K104" s="163"/>
+      <c r="H104" s="133"/>
+      <c r="I104" s="134"/>
+      <c r="J104" s="132"/>
+      <c r="K104" s="132"/>
       <c r="L104" s="47"/>
       <c r="M104" s="47"/>
       <c r="N104" s="13"/>
@@ -4638,16 +4638,16 @@
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1">
       <c r="A105" s="62"/>
-      <c r="B105" s="163"/>
-      <c r="C105" s="163"/>
-      <c r="D105" s="163"/>
-      <c r="E105" s="163"/>
-      <c r="F105" s="163"/>
+      <c r="B105" s="132"/>
+      <c r="C105" s="132"/>
+      <c r="D105" s="132"/>
+      <c r="E105" s="132"/>
+      <c r="F105" s="132"/>
       <c r="G105" s="62"/>
-      <c r="H105" s="164"/>
-      <c r="I105" s="165"/>
-      <c r="J105" s="163"/>
-      <c r="K105" s="163"/>
+      <c r="H105" s="133"/>
+      <c r="I105" s="134"/>
+      <c r="J105" s="132"/>
+      <c r="K105" s="132"/>
       <c r="L105" s="47"/>
       <c r="M105" s="47"/>
       <c r="N105" s="13"/>
@@ -4665,16 +4665,16 @@
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1">
       <c r="A106" s="62"/>
-      <c r="B106" s="163"/>
-      <c r="C106" s="163"/>
-      <c r="D106" s="163"/>
-      <c r="E106" s="163"/>
-      <c r="F106" s="163"/>
+      <c r="B106" s="132"/>
+      <c r="C106" s="132"/>
+      <c r="D106" s="132"/>
+      <c r="E106" s="132"/>
+      <c r="F106" s="132"/>
       <c r="G106" s="62"/>
-      <c r="H106" s="164"/>
-      <c r="I106" s="165"/>
-      <c r="J106" s="163"/>
-      <c r="K106" s="163"/>
+      <c r="H106" s="133"/>
+      <c r="I106" s="134"/>
+      <c r="J106" s="132"/>
+      <c r="K106" s="132"/>
       <c r="L106" s="47"/>
       <c r="M106" s="47"/>
       <c r="N106" s="13"/>
@@ -4691,19 +4691,19 @@
       <c r="Y106" s="38"/>
     </row>
     <row r="107" spans="1:25" ht="21" customHeight="1">
-      <c r="A107" s="166" t="s">
+      <c r="A107" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="166"/>
-      <c r="C107" s="166"/>
-      <c r="D107" s="166"/>
-      <c r="E107" s="166"/>
-      <c r="F107" s="166"/>
-      <c r="G107" s="167"/>
-      <c r="H107" s="99"/>
-      <c r="I107" s="99"/>
-      <c r="J107" s="99"/>
-      <c r="K107" s="113"/>
+      <c r="B107" s="135"/>
+      <c r="C107" s="135"/>
+      <c r="D107" s="135"/>
+      <c r="E107" s="135"/>
+      <c r="F107" s="135"/>
+      <c r="G107" s="136"/>
+      <c r="H107" s="94"/>
+      <c r="I107" s="94"/>
+      <c r="J107" s="94"/>
+      <c r="K107" s="109"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
@@ -4720,24 +4720,24 @@
       <c r="Y107" s="38"/>
     </row>
     <row r="108" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A108" s="191" t="s">
+      <c r="A108" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="B108" s="99"/>
-      <c r="C108" s="113"/>
-      <c r="D108" s="192" t="str">
+      <c r="B108" s="94"/>
+      <c r="C108" s="109"/>
+      <c r="D108" s="111" t="str">
         <f>L7</f>
         <v>Sec1</v>
       </c>
-      <c r="E108" s="99"/>
-      <c r="F108" s="113"/>
+      <c r="E108" s="94"/>
+      <c r="F108" s="109"/>
       <c r="G108" s="5"/>
-      <c r="H108" s="168" t="s">
+      <c r="H108" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="I108" s="103"/>
-      <c r="J108" s="103"/>
-      <c r="K108" s="104"/>
+      <c r="I108" s="129"/>
+      <c r="J108" s="129"/>
+      <c r="K108" s="122"/>
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>
@@ -4754,12 +4754,12 @@
       <c r="Y108" s="38"/>
     </row>
     <row r="109" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A109" s="181"/>
-      <c r="B109" s="130"/>
-      <c r="C109" s="117"/>
-      <c r="D109" s="181"/>
-      <c r="E109" s="130"/>
-      <c r="F109" s="117"/>
+      <c r="A109" s="97"/>
+      <c r="B109" s="110"/>
+      <c r="C109" s="103"/>
+      <c r="D109" s="97"/>
+      <c r="E109" s="110"/>
+      <c r="F109" s="103"/>
       <c r="K109" s="72"/>
       <c r="L109" s="73"/>
       <c r="M109" s="73"/>
@@ -4777,17 +4777,17 @@
       <c r="Y109" s="38"/>
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A110" s="193" t="s">
+      <c r="A110" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B110" s="128"/>
-      <c r="C110" s="112"/>
-      <c r="D110" s="194" t="str">
+      <c r="B110" s="113"/>
+      <c r="C110" s="102"/>
+      <c r="D110" s="114" t="str">
         <f>L27</f>
         <v>sec2</v>
       </c>
-      <c r="E110" s="128"/>
-      <c r="F110" s="112"/>
+      <c r="E110" s="113"/>
+      <c r="F110" s="102"/>
       <c r="G110" s="25"/>
       <c r="H110" s="63" t="s">
         <v>48</v>
@@ -4795,12 +4795,12 @@
       <c r="I110" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="J110" s="169" t="s">
+      <c r="J110" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="K110" s="104"/>
-      <c r="L110" s="170"/>
-      <c r="M110" s="170"/>
+      <c r="K110" s="122"/>
+      <c r="L110" s="131"/>
+      <c r="M110" s="131"/>
       <c r="N110" s="13"/>
       <c r="O110" s="47"/>
       <c r="P110" s="13"/>
@@ -4815,21 +4815,21 @@
       <c r="Y110" s="38"/>
     </row>
     <row r="111" spans="1:25" ht="24" customHeight="1">
-      <c r="A111" s="181"/>
-      <c r="B111" s="130"/>
-      <c r="C111" s="117"/>
-      <c r="D111" s="181"/>
-      <c r="E111" s="130"/>
-      <c r="F111" s="117"/>
+      <c r="A111" s="97"/>
+      <c r="B111" s="110"/>
+      <c r="C111" s="103"/>
+      <c r="D111" s="97"/>
+      <c r="E111" s="110"/>
+      <c r="F111" s="103"/>
       <c r="G111" s="25"/>
       <c r="H111" s="64">
         <v>1000</v>
       </c>
       <c r="I111" s="75"/>
-      <c r="J111" s="171"/>
-      <c r="K111" s="104"/>
-      <c r="L111" s="172"/>
-      <c r="M111" s="172"/>
+      <c r="J111" s="121"/>
+      <c r="K111" s="122"/>
+      <c r="L111" s="95"/>
+      <c r="M111" s="95"/>
       <c r="N111" s="13"/>
       <c r="O111" s="47"/>
       <c r="P111" s="13"/>
@@ -4844,23 +4844,23 @@
       <c r="Y111" s="38"/>
     </row>
     <row r="112" spans="1:25" ht="21" customHeight="1">
-      <c r="A112" s="195" t="s">
+      <c r="A112" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="B112" s="128"/>
-      <c r="C112" s="112"/>
-      <c r="D112" s="196"/>
-      <c r="E112" s="128"/>
-      <c r="F112" s="112"/>
+      <c r="B112" s="113"/>
+      <c r="C112" s="102"/>
+      <c r="D112" s="116"/>
+      <c r="E112" s="113"/>
+      <c r="F112" s="102"/>
       <c r="G112" s="65"/>
       <c r="H112" s="64">
         <v>500</v>
       </c>
       <c r="I112" s="75"/>
-      <c r="J112" s="171"/>
-      <c r="K112" s="104"/>
-      <c r="L112" s="172"/>
-      <c r="M112" s="172"/>
+      <c r="J112" s="121"/>
+      <c r="K112" s="122"/>
+      <c r="L112" s="95"/>
+      <c r="M112" s="95"/>
       <c r="N112" s="13"/>
       <c r="O112" s="47"/>
       <c r="P112" s="13"/>
@@ -4875,21 +4875,21 @@
       <c r="Y112" s="38"/>
     </row>
     <row r="113" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A113" s="181"/>
-      <c r="B113" s="130"/>
-      <c r="C113" s="117"/>
-      <c r="D113" s="181"/>
-      <c r="E113" s="130"/>
-      <c r="F113" s="117"/>
+      <c r="A113" s="97"/>
+      <c r="B113" s="110"/>
+      <c r="C113" s="103"/>
+      <c r="D113" s="97"/>
+      <c r="E113" s="110"/>
+      <c r="F113" s="103"/>
       <c r="G113" s="65"/>
       <c r="H113" s="64">
         <v>200</v>
       </c>
       <c r="I113" s="75"/>
-      <c r="J113" s="171"/>
-      <c r="K113" s="104"/>
-      <c r="L113" s="172"/>
-      <c r="M113" s="172"/>
+      <c r="J113" s="121"/>
+      <c r="K113" s="122"/>
+      <c r="L113" s="95"/>
+      <c r="M113" s="95"/>
       <c r="N113" s="13"/>
       <c r="O113" s="47"/>
       <c r="P113" s="13"/>
@@ -4904,26 +4904,26 @@
       <c r="Y113" s="38"/>
     </row>
     <row r="114" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A114" s="195" t="s">
+      <c r="A114" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B114" s="128"/>
-      <c r="C114" s="112"/>
-      <c r="D114" s="194" t="str">
+      <c r="B114" s="113"/>
+      <c r="C114" s="102"/>
+      <c r="D114" s="114" t="str">
         <f>L49</f>
         <v>sec3</v>
       </c>
-      <c r="E114" s="128"/>
-      <c r="F114" s="112"/>
+      <c r="E114" s="113"/>
+      <c r="F114" s="102"/>
       <c r="G114" s="65"/>
       <c r="H114" s="64">
         <v>100</v>
       </c>
       <c r="I114" s="75"/>
-      <c r="J114" s="171"/>
-      <c r="K114" s="104"/>
-      <c r="L114" s="172"/>
-      <c r="M114" s="172"/>
+      <c r="J114" s="121"/>
+      <c r="K114" s="122"/>
+      <c r="L114" s="95"/>
+      <c r="M114" s="95"/>
       <c r="N114" s="13"/>
       <c r="O114" s="47"/>
       <c r="P114" s="13"/>
@@ -4938,21 +4938,21 @@
       <c r="Y114" s="38"/>
     </row>
     <row r="115" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A115" s="181"/>
-      <c r="B115" s="130"/>
-      <c r="C115" s="117"/>
-      <c r="D115" s="181"/>
-      <c r="E115" s="130"/>
-      <c r="F115" s="117"/>
+      <c r="A115" s="97"/>
+      <c r="B115" s="110"/>
+      <c r="C115" s="103"/>
+      <c r="D115" s="97"/>
+      <c r="E115" s="110"/>
+      <c r="F115" s="103"/>
       <c r="G115" s="65"/>
       <c r="H115" s="64">
         <v>50</v>
       </c>
       <c r="I115" s="75"/>
-      <c r="J115" s="171"/>
-      <c r="K115" s="104"/>
-      <c r="L115" s="172"/>
-      <c r="M115" s="172"/>
+      <c r="J115" s="121"/>
+      <c r="K115" s="122"/>
+      <c r="L115" s="95"/>
+      <c r="M115" s="95"/>
       <c r="N115" s="13"/>
       <c r="O115" s="47"/>
       <c r="P115" s="47"/>
@@ -4967,23 +4967,23 @@
       <c r="Y115" s="38"/>
     </row>
     <row r="116" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A116" s="195" t="s">
+      <c r="A116" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="B116" s="128"/>
-      <c r="C116" s="112"/>
-      <c r="D116" s="196"/>
-      <c r="E116" s="128"/>
-      <c r="F116" s="112"/>
+      <c r="B116" s="113"/>
+      <c r="C116" s="102"/>
+      <c r="D116" s="116"/>
+      <c r="E116" s="113"/>
+      <c r="F116" s="102"/>
       <c r="G116" s="65"/>
       <c r="H116" s="64">
         <v>20</v>
       </c>
       <c r="I116" s="75"/>
-      <c r="J116" s="171"/>
-      <c r="K116" s="104"/>
-      <c r="L116" s="172"/>
-      <c r="M116" s="172"/>
+      <c r="J116" s="121"/>
+      <c r="K116" s="122"/>
+      <c r="L116" s="95"/>
+      <c r="M116" s="95"/>
       <c r="N116" s="13"/>
       <c r="O116" s="47"/>
       <c r="P116" s="47"/>
@@ -4998,21 +4998,21 @@
       <c r="Y116" s="38"/>
     </row>
     <row r="117" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A117" s="181"/>
-      <c r="B117" s="130"/>
-      <c r="C117" s="117"/>
-      <c r="D117" s="181"/>
-      <c r="E117" s="130"/>
-      <c r="F117" s="117"/>
+      <c r="A117" s="97"/>
+      <c r="B117" s="110"/>
+      <c r="C117" s="103"/>
+      <c r="D117" s="97"/>
+      <c r="E117" s="110"/>
+      <c r="F117" s="103"/>
       <c r="G117" s="65"/>
       <c r="H117" s="64">
         <v>10</v>
       </c>
       <c r="I117" s="75"/>
-      <c r="J117" s="171"/>
-      <c r="K117" s="104"/>
-      <c r="L117" s="172"/>
-      <c r="M117" s="172"/>
+      <c r="J117" s="121"/>
+      <c r="K117" s="122"/>
+      <c r="L117" s="95"/>
+      <c r="M117" s="95"/>
       <c r="N117" s="13"/>
       <c r="O117" s="47"/>
       <c r="P117" s="13"/>
@@ -5027,23 +5027,23 @@
       <c r="Y117" s="38"/>
     </row>
     <row r="118" spans="1:25" ht="21" customHeight="1">
-      <c r="A118" s="195" t="s">
+      <c r="A118" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="B118" s="128"/>
-      <c r="C118" s="112"/>
-      <c r="D118" s="196"/>
-      <c r="E118" s="128"/>
-      <c r="F118" s="112"/>
+      <c r="B118" s="113"/>
+      <c r="C118" s="102"/>
+      <c r="D118" s="116"/>
+      <c r="E118" s="113"/>
+      <c r="F118" s="102"/>
       <c r="G118" s="65"/>
       <c r="H118" s="64">
         <v>5</v>
       </c>
       <c r="I118" s="75"/>
-      <c r="J118" s="171"/>
-      <c r="K118" s="104"/>
-      <c r="L118" s="172"/>
-      <c r="M118" s="172"/>
+      <c r="J118" s="121"/>
+      <c r="K118" s="122"/>
+      <c r="L118" s="95"/>
+      <c r="M118" s="95"/>
       <c r="N118" s="13"/>
       <c r="O118" s="47"/>
       <c r="P118" s="13"/>
@@ -5058,23 +5058,23 @@
       <c r="Y118" s="38"/>
     </row>
     <row r="119" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A119" s="181"/>
-      <c r="B119" s="130"/>
-      <c r="C119" s="117"/>
-      <c r="D119" s="181"/>
-      <c r="E119" s="130"/>
-      <c r="F119" s="117"/>
+      <c r="A119" s="97"/>
+      <c r="B119" s="110"/>
+      <c r="C119" s="103"/>
+      <c r="D119" s="97"/>
+      <c r="E119" s="110"/>
+      <c r="F119" s="103"/>
       <c r="G119" s="65"/>
       <c r="H119" s="64">
         <v>1</v>
       </c>
       <c r="I119" s="75"/>
-      <c r="J119" s="171"/>
-      <c r="K119" s="104"/>
-      <c r="L119" s="172" t="s">
+      <c r="J119" s="121"/>
+      <c r="K119" s="122"/>
+      <c r="L119" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="M119" s="172"/>
+      <c r="M119" s="95"/>
       <c r="N119" s="13"/>
       <c r="O119" s="47"/>
       <c r="P119" s="13"/>
@@ -5089,25 +5089,25 @@
       <c r="Y119" s="38"/>
     </row>
     <row r="120" spans="1:25" ht="21" customHeight="1">
-      <c r="A120" s="195" t="s">
+      <c r="A120" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B120" s="128"/>
-      <c r="C120" s="112"/>
-      <c r="D120" s="179"/>
-      <c r="E120" s="128"/>
-      <c r="F120" s="112"/>
+      <c r="B120" s="113"/>
+      <c r="C120" s="102"/>
+      <c r="D120" s="120"/>
+      <c r="E120" s="113"/>
+      <c r="F120" s="102"/>
       <c r="G120" s="65"/>
       <c r="H120" s="64">
         <v>0.25</v>
       </c>
       <c r="I120" s="76"/>
-      <c r="J120" s="171"/>
-      <c r="K120" s="104"/>
-      <c r="L120" s="173" t="s">
+      <c r="J120" s="121"/>
+      <c r="K120" s="122"/>
+      <c r="L120" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="M120" s="173"/>
+      <c r="M120" s="123"/>
       <c r="N120" s="13"/>
       <c r="O120" s="47"/>
       <c r="P120" s="50"/>
@@ -5122,19 +5122,19 @@
       <c r="Y120" s="38"/>
     </row>
     <row r="121" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A121" s="180"/>
-      <c r="B121" s="195"/>
-      <c r="C121" s="113"/>
-      <c r="D121" s="180"/>
-      <c r="E121" s="179"/>
-      <c r="F121" s="113"/>
+      <c r="A121" s="117"/>
+      <c r="B121" s="115"/>
+      <c r="C121" s="109"/>
+      <c r="D121" s="117"/>
+      <c r="E121" s="120"/>
+      <c r="F121" s="109"/>
       <c r="G121" s="65"/>
-      <c r="H121" s="174" t="s">
+      <c r="H121" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="I121" s="104"/>
-      <c r="J121" s="171"/>
-      <c r="K121" s="104"/>
+      <c r="I121" s="122"/>
+      <c r="J121" s="121"/>
+      <c r="K121" s="122"/>
       <c r="L121" s="77"/>
       <c r="M121" s="51"/>
       <c r="N121" s="13"/>
@@ -5151,22 +5151,22 @@
       <c r="Y121" s="38"/>
     </row>
     <row r="122" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A122" s="181"/>
-      <c r="B122" s="130"/>
-      <c r="C122" s="117"/>
-      <c r="D122" s="181"/>
-      <c r="E122" s="130"/>
-      <c r="F122" s="117"/>
+      <c r="A122" s="97"/>
+      <c r="B122" s="110"/>
+      <c r="C122" s="103"/>
+      <c r="D122" s="97"/>
+      <c r="E122" s="110"/>
+      <c r="F122" s="103"/>
       <c r="G122" s="65"/>
-      <c r="H122" s="175" t="s">
+      <c r="H122" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="I122" s="104"/>
-      <c r="J122" s="176"/>
-      <c r="K122" s="104"/>
-      <c r="L122" s="177"/>
-      <c r="M122" s="177"/>
-      <c r="N122" s="177"/>
+      <c r="I122" s="122"/>
+      <c r="J122" s="126"/>
+      <c r="K122" s="122"/>
+      <c r="L122" s="127"/>
+      <c r="M122" s="127"/>
+      <c r="N122" s="127"/>
       <c r="O122" s="47"/>
       <c r="P122" s="13"/>
       <c r="Q122" s="13"/>
@@ -5237,12 +5237,12 @@
     </row>
     <row r="125" spans="1:25" ht="15.75" customHeight="1">
       <c r="A125" s="13"/>
-      <c r="B125" s="178"/>
-      <c r="C125" s="99"/>
-      <c r="D125" s="99"/>
-      <c r="E125" s="124"/>
-      <c r="F125" s="99"/>
-      <c r="G125" s="99"/>
+      <c r="B125" s="118"/>
+      <c r="C125" s="94"/>
+      <c r="D125" s="94"/>
+      <c r="E125" s="119"/>
+      <c r="F125" s="94"/>
+      <c r="G125" s="94"/>
       <c r="H125" s="26"/>
       <c r="I125" s="26"/>
       <c r="J125" s="43"/>
@@ -5264,12 +5264,12 @@
     </row>
     <row r="126" spans="1:25" ht="15.75" customHeight="1">
       <c r="A126" s="13"/>
-      <c r="B126" s="101"/>
-      <c r="C126" s="99"/>
-      <c r="D126" s="99"/>
-      <c r="E126" s="172"/>
-      <c r="F126" s="172"/>
-      <c r="G126" s="172"/>
+      <c r="B126" s="93"/>
+      <c r="C126" s="94"/>
+      <c r="D126" s="94"/>
+      <c r="E126" s="95"/>
+      <c r="F126" s="95"/>
+      <c r="G126" s="95"/>
       <c r="H126" s="67"/>
       <c r="I126" s="67"/>
       <c r="J126" s="67"/>
@@ -5291,12 +5291,12 @@
     </row>
     <row r="127" spans="1:25" ht="15.75" customHeight="1">
       <c r="A127" s="13"/>
-      <c r="B127" s="101"/>
-      <c r="C127" s="99"/>
-      <c r="D127" s="99"/>
-      <c r="E127" s="172"/>
-      <c r="F127" s="172"/>
-      <c r="G127" s="172"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="94"/>
+      <c r="D127" s="94"/>
+      <c r="E127" s="95"/>
+      <c r="F127" s="95"/>
+      <c r="G127" s="95"/>
       <c r="H127" s="67"/>
       <c r="I127" s="67"/>
       <c r="J127" s="67"/>
@@ -5318,12 +5318,12 @@
     </row>
     <row r="128" spans="1:25" ht="15.75" customHeight="1">
       <c r="A128" s="38"/>
-      <c r="B128" s="101"/>
-      <c r="C128" s="99"/>
-      <c r="D128" s="99"/>
-      <c r="E128" s="172"/>
-      <c r="F128" s="172"/>
-      <c r="G128" s="172"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="94"/>
+      <c r="D128" s="94"/>
+      <c r="E128" s="95"/>
+      <c r="F128" s="95"/>
+      <c r="G128" s="95"/>
       <c r="H128" s="67"/>
       <c r="I128" s="67"/>
       <c r="J128" s="67"/>
@@ -5345,12 +5345,12 @@
     </row>
     <row r="129" spans="1:25" ht="15.75" customHeight="1">
       <c r="A129" s="38"/>
-      <c r="B129" s="101"/>
-      <c r="C129" s="99"/>
-      <c r="D129" s="99"/>
-      <c r="E129" s="172"/>
-      <c r="F129" s="172"/>
-      <c r="G129" s="172"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="94"/>
+      <c r="D129" s="94"/>
+      <c r="E129" s="95"/>
+      <c r="F129" s="95"/>
+      <c r="G129" s="95"/>
       <c r="H129" s="67"/>
       <c r="I129" s="67"/>
       <c r="J129" s="67"/>
@@ -11184,6 +11184,320 @@
     <row r="923" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="338">
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="D120:F122"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="L122:N122"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="E129:G129"/>
     <mergeCell ref="G7:G8"/>
@@ -11208,320 +11522,6 @@
     <mergeCell ref="E125:G125"/>
     <mergeCell ref="B126:D126"/>
     <mergeCell ref="E126:G126"/>
-    <mergeCell ref="D120:F122"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="L119:M119"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="L122:N122"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="L116:M116"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="L117:M117"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="L118:M118"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:M110"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="A79:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
   </mergeCells>
   <pageMargins left="0.30277777777777798" right="0.30277777777777798" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>

--- a/Documents/Cashiers Report Format.xlsx
+++ b/Documents/Cashiers Report Format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RECPC2\OneDrive\Documents\Github\TEVES-Laravel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F0CFC4-1E09-4AC4-8445-6302C249A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1699C4-0254-4FA3-8A39-C2E8EE67B598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1036,21 +1036,272 @@
     <xf numFmtId="4" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,12 +1314,6 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,21 +1329,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1108,244 +1344,8 @@
     <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1624,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A52" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I57" sqref="I56:I57"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A103" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1651,19 +1651,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="13"/>
@@ -1816,17 +1816,17 @@
     <row r="6" spans="1:25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="94"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="16"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="40"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="94"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -1841,17 +1841,17 @@
       <c r="Y6" s="38"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="192" t="s">
+      <c r="B7" s="113"/>
+      <c r="C7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="96" t="s">
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="182" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="17" t="s">
@@ -1860,14 +1860,14 @@
       <c r="I7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="195" t="s">
+      <c r="J7" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="196" t="s">
+      <c r="K7" s="113"/>
+      <c r="L7" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="197"/>
+      <c r="M7" s="116"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -1882,27 +1882,27 @@
       <c r="Y7" s="38"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="97"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="192" t="s">
+      <c r="A8" s="176"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="193" t="s">
+      <c r="D8" s="105"/>
+      <c r="E8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="194"/>
-      <c r="G8" s="97"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="176"/>
       <c r="H8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="197"/>
-      <c r="M8" s="197"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
       <c r="N8" s="15"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -1923,14 +1923,14 @@
       <c r="B9" s="20">
         <v>1</v>
       </c>
-      <c r="C9" s="180">
+      <c r="C9" s="108">
         <v>45</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="180">
+      <c r="D9" s="105"/>
+      <c r="E9" s="108">
         <v>78</v>
       </c>
-      <c r="F9" s="122"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="21">
         <v>1</v>
       </c>
@@ -1941,15 +1941,15 @@
       <c r="I9" s="1">
         <v>78</v>
       </c>
-      <c r="J9" s="181">
+      <c r="J9" s="109">
         <f>I9*H9</f>
         <v>2496</v>
       </c>
-      <c r="K9" s="182"/>
-      <c r="L9" s="173" t="s">
+      <c r="K9" s="110"/>
+      <c r="L9" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="94"/>
+      <c r="M9" s="100"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
@@ -1970,21 +1970,21 @@
       <c r="B10" s="20">
         <v>2</v>
       </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="122"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="181"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="173" t="s">
+      <c r="J10" s="109"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="173"/>
+      <c r="M10" s="111"/>
       <c r="N10" s="13" t="s">
         <v>20</v>
       </c>
@@ -2007,19 +2007,19 @@
       <c r="B11" s="20">
         <v>3</v>
       </c>
-      <c r="C11" s="179"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="122"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="105"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="173" t="s">
+      <c r="J11" s="109"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="173"/>
+      <c r="M11" s="111"/>
       <c r="N11" s="13" t="s">
         <v>22</v>
       </c>
@@ -2042,17 +2042,17 @@
       <c r="B12" s="20">
         <v>4</v>
       </c>
-      <c r="C12" s="179"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="122"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="105"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
@@ -2073,17 +2073,17 @@
       <c r="B13" s="20">
         <v>5</v>
       </c>
-      <c r="C13" s="183"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="122"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -2104,17 +2104,17 @@
       <c r="B14" s="20">
         <v>6</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="177"/>
-      <c r="F14" s="122"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="182"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="173"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -2129,24 +2129,24 @@
       <c r="Y14" s="38"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="169" t="s">
+      <c r="A15" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="171"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
       <c r="H15" s="23"/>
       <c r="I15" s="45"/>
-      <c r="J15" s="178">
+      <c r="J15" s="124">
         <f>SUM(J9:K14)</f>
         <v>2496</v>
       </c>
-      <c r="K15" s="103"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -2163,8 +2163,8 @@
     <row r="16" spans="1:25">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="94"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -2172,8 +2172,8 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="46"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="173"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -2194,17 +2194,17 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="177"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="122"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="173"/>
-      <c r="M17" s="173"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -2225,17 +2225,17 @@
       <c r="B18" s="20">
         <v>2</v>
       </c>
-      <c r="C18" s="177"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="122"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="105"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -2250,21 +2250,21 @@
       <c r="Y18" s="38"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="171"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="123"/>
       <c r="H19" s="27"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="173"/>
-      <c r="M19" s="173"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13" t="s">
         <v>25</v>
@@ -2292,8 +2292,8 @@
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="46"/>
-      <c r="L20" s="173"/>
-      <c r="M20" s="173"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -2314,17 +2314,17 @@
       <c r="B21" s="20">
         <v>1</v>
       </c>
-      <c r="C21" s="177"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="122"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="105"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -2345,17 +2345,17 @@
       <c r="B22" s="20">
         <v>2</v>
       </c>
-      <c r="C22" s="177"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="122"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="105"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="173"/>
-      <c r="M22" s="173"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
       <c r="N22" s="13"/>
       <c r="O22" s="47"/>
       <c r="P22" s="13"/>
@@ -2376,17 +2376,17 @@
       <c r="B23" s="20">
         <v>3</v>
       </c>
-      <c r="C23" s="177"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="122"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="105"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -2407,17 +2407,17 @@
       <c r="B24" s="20">
         <v>4</v>
       </c>
-      <c r="C24" s="177"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="122"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="105"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -2432,23 +2432,23 @@
       <c r="Y24" s="38"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A25" s="169" t="s">
+      <c r="A25" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="171"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="123"/>
       <c r="H25" s="28"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="173"/>
-      <c r="M25" s="173"/>
-      <c r="N25" s="174"/>
-      <c r="O25" s="94"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="100"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
@@ -2472,8 +2472,8 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="48"/>
-      <c r="L26" s="173"/>
-      <c r="M26" s="173"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -2488,20 +2488,20 @@
       <c r="Y26" s="38"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A27" s="175" t="s">
+      <c r="A27" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="185" t="s">
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="94" t="s">
         <v>61</v>
       </c>
       <c r="M27" s="47"/>
@@ -2519,20 +2519,20 @@
       <c r="Y27" s="38"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A28" s="176" t="s">
+      <c r="A28" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="185"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="94"/>
       <c r="M28" s="49"/>
       <c r="N28" s="13"/>
       <c r="O28" s="50"/>
@@ -2548,25 +2548,25 @@
       <c r="Y28" s="38"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A29" s="104" t="s">
+      <c r="A29" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="98" t="s">
+      <c r="B29" s="188"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="100" t="s">
+      <c r="I29" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="165" t="s">
+      <c r="J29" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="166"/>
+      <c r="K29" s="137"/>
       <c r="L29" s="51"/>
       <c r="M29" s="52"/>
       <c r="N29" s="53"/>
@@ -2583,17 +2583,17 @@
       <c r="Y29" s="38"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A30" s="106"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="168"/>
+      <c r="A30" s="189"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="190"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="139"/>
       <c r="L30" s="51"/>
       <c r="M30" s="52"/>
       <c r="N30" s="54"/>
@@ -2610,17 +2610,17 @@
       <c r="Y30" s="38"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A31" s="153"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="155"/>
+      <c r="A31" s="132"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="134"/>
       <c r="H31" s="31"/>
       <c r="I31" s="33"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="103"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="118"/>
       <c r="L31" s="47"/>
       <c r="M31" s="47"/>
       <c r="N31" s="47"/>
@@ -2637,17 +2637,17 @@
       <c r="Y31" s="38"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A32" s="153"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="155"/>
+      <c r="A32" s="132"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="134"/>
       <c r="H32" s="32"/>
       <c r="I32" s="33"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="103"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="118"/>
       <c r="L32" s="47"/>
       <c r="M32" s="47"/>
       <c r="N32" s="47"/>
@@ -2664,17 +2664,17 @@
       <c r="Y32" s="38"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="153"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="155"/>
+      <c r="A33" s="132"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="134"/>
       <c r="H33" s="32"/>
       <c r="I33" s="33"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="103"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="118"/>
       <c r="L33" s="47"/>
       <c r="M33" s="47"/>
       <c r="N33" s="47"/>
@@ -2691,17 +2691,17 @@
       <c r="Y33" s="38"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A34" s="153"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="155"/>
+      <c r="A34" s="132"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="134"/>
       <c r="H34" s="32"/>
       <c r="I34" s="33"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="103"/>
+      <c r="J34" s="135"/>
+      <c r="K34" s="118"/>
       <c r="L34" s="47"/>
       <c r="M34" s="55"/>
       <c r="N34" s="55"/>
@@ -2718,17 +2718,17 @@
       <c r="Y34" s="38"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A35" s="153"/>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="155"/>
+      <c r="A35" s="132"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="134"/>
       <c r="H35" s="31"/>
       <c r="I35" s="33"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="103"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="118"/>
       <c r="L35" s="47"/>
       <c r="M35" s="55"/>
       <c r="N35" s="55"/>
@@ -2745,17 +2745,17 @@
       <c r="Y35" s="38"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A36" s="153"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="155"/>
+      <c r="A36" s="132"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="134"/>
       <c r="H36" s="31"/>
       <c r="I36" s="33"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="103"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="118"/>
       <c r="L36" s="47"/>
       <c r="M36" s="55"/>
       <c r="N36" s="55"/>
@@ -2772,17 +2772,17 @@
       <c r="Y36" s="38"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A37" s="153"/>
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="155"/>
+      <c r="A37" s="132"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="134"/>
       <c r="H37" s="32"/>
       <c r="I37" s="33"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="103"/>
+      <c r="J37" s="135"/>
+      <c r="K37" s="118"/>
       <c r="L37" s="47"/>
       <c r="M37" s="55"/>
       <c r="N37" s="55"/>
@@ -2799,17 +2799,17 @@
       <c r="Y37" s="38"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A38" s="153"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="155"/>
+      <c r="A38" s="132"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="134"/>
       <c r="H38" s="32"/>
       <c r="I38" s="33"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="103"/>
+      <c r="J38" s="135"/>
+      <c r="K38" s="118"/>
       <c r="L38" s="47"/>
       <c r="M38" s="55"/>
       <c r="N38" s="55"/>
@@ -2826,17 +2826,17 @@
       <c r="Y38" s="38"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A39" s="153"/>
-      <c r="B39" s="154"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="155"/>
+      <c r="A39" s="132"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="134"/>
       <c r="H39" s="32"/>
       <c r="I39" s="33"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="103"/>
+      <c r="J39" s="135"/>
+      <c r="K39" s="118"/>
       <c r="L39" s="47"/>
       <c r="M39" s="55"/>
       <c r="N39" s="55"/>
@@ -2853,17 +2853,17 @@
       <c r="Y39" s="38"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A40" s="153"/>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="155"/>
+      <c r="A40" s="132"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="134"/>
       <c r="H40" s="32"/>
       <c r="I40" s="33"/>
-      <c r="J40" s="156"/>
-      <c r="K40" s="103"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="118"/>
       <c r="L40" s="47"/>
       <c r="M40" s="55"/>
       <c r="N40" s="55"/>
@@ -2880,17 +2880,17 @@
       <c r="Y40" s="38"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A41" s="153"/>
-      <c r="B41" s="154"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="155"/>
+      <c r="A41" s="132"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="134"/>
       <c r="H41" s="32"/>
       <c r="I41" s="33"/>
-      <c r="J41" s="157"/>
-      <c r="K41" s="122"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="105"/>
       <c r="L41" s="47"/>
       <c r="M41" s="55"/>
       <c r="N41" s="55"/>
@@ -2907,17 +2907,17 @@
       <c r="Y41" s="38"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A42" s="153"/>
-      <c r="B42" s="154"/>
-      <c r="C42" s="154"/>
-      <c r="D42" s="154"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="155"/>
+      <c r="A42" s="132"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="134"/>
       <c r="H42" s="32"/>
       <c r="I42" s="33"/>
-      <c r="J42" s="157"/>
-      <c r="K42" s="122"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="105"/>
       <c r="L42" s="47"/>
       <c r="M42" s="55"/>
       <c r="N42" s="55"/>
@@ -2934,17 +2934,17 @@
       <c r="Y42" s="38"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A43" s="153"/>
-      <c r="B43" s="154"/>
-      <c r="C43" s="154"/>
-      <c r="D43" s="154"/>
-      <c r="E43" s="154"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="155"/>
+      <c r="A43" s="132"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="134"/>
       <c r="H43" s="32"/>
       <c r="I43" s="33"/>
-      <c r="J43" s="157"/>
-      <c r="K43" s="122"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="105"/>
       <c r="L43" s="47"/>
       <c r="M43" s="55"/>
       <c r="N43" s="55"/>
@@ -2961,17 +2961,17 @@
       <c r="Y43" s="38"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A44" s="153"/>
-      <c r="B44" s="154"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="155"/>
+      <c r="A44" s="132"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="134"/>
       <c r="H44" s="32"/>
       <c r="I44" s="33"/>
-      <c r="J44" s="157"/>
-      <c r="K44" s="122"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="105"/>
       <c r="L44" s="47"/>
       <c r="M44" s="55"/>
       <c r="N44" s="55"/>
@@ -2988,17 +2988,17 @@
       <c r="Y44" s="38"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A45" s="153"/>
-      <c r="B45" s="154"/>
-      <c r="C45" s="154"/>
-      <c r="D45" s="154"/>
-      <c r="E45" s="154"/>
-      <c r="F45" s="154"/>
-      <c r="G45" s="155"/>
+      <c r="A45" s="132"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="134"/>
       <c r="H45" s="32"/>
       <c r="I45" s="33"/>
-      <c r="J45" s="156"/>
-      <c r="K45" s="103"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="118"/>
       <c r="L45" s="47"/>
       <c r="M45" s="55"/>
       <c r="N45" s="55"/>
@@ -3015,17 +3015,17 @@
       <c r="Y45" s="38"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A46" s="153"/>
-      <c r="B46" s="154"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="155"/>
+      <c r="A46" s="132"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="134"/>
       <c r="H46" s="32"/>
       <c r="I46" s="33"/>
-      <c r="J46" s="156"/>
-      <c r="K46" s="103"/>
+      <c r="J46" s="135"/>
+      <c r="K46" s="118"/>
       <c r="L46" s="47"/>
       <c r="M46" s="55"/>
       <c r="N46" s="55"/>
@@ -3042,17 +3042,17 @@
       <c r="Y46" s="38"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A47" s="153"/>
-      <c r="B47" s="154"/>
-      <c r="C47" s="154"/>
-      <c r="D47" s="154"/>
-      <c r="E47" s="154"/>
-      <c r="F47" s="154"/>
-      <c r="G47" s="155"/>
+      <c r="A47" s="132"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="134"/>
       <c r="H47" s="32"/>
       <c r="I47" s="33"/>
-      <c r="J47" s="157"/>
-      <c r="K47" s="122"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="105"/>
       <c r="L47" s="47"/>
       <c r="M47" s="55"/>
       <c r="N47" s="55"/>
@@ -3069,17 +3069,17 @@
       <c r="Y47" s="38"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A48" s="153"/>
-      <c r="B48" s="154"/>
-      <c r="C48" s="154"/>
-      <c r="D48" s="154"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="155"/>
+      <c r="A48" s="132"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="134"/>
       <c r="H48" s="32"/>
       <c r="I48" s="33"/>
-      <c r="J48" s="157"/>
-      <c r="K48" s="122"/>
+      <c r="J48" s="140"/>
+      <c r="K48" s="105"/>
       <c r="L48" s="47"/>
       <c r="M48" s="55"/>
       <c r="N48" s="55"/>
@@ -3096,20 +3096,20 @@
       <c r="Y48" s="38"/>
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A49" s="158" t="s">
+      <c r="A49" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="159"/>
-      <c r="C49" s="159"/>
-      <c r="D49" s="159"/>
-      <c r="E49" s="159"/>
-      <c r="F49" s="159"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="159"/>
-      <c r="I49" s="159"/>
-      <c r="J49" s="159"/>
-      <c r="K49" s="160"/>
-      <c r="L49" s="186" t="s">
+      <c r="B49" s="142"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="142"/>
+      <c r="I49" s="142"/>
+      <c r="J49" s="142"/>
+      <c r="K49" s="143"/>
+      <c r="L49" s="95" t="s">
         <v>62</v>
       </c>
       <c r="M49" s="49"/>
@@ -3127,20 +3127,20 @@
       <c r="Y49" s="38"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A50" s="161" t="s">
+      <c r="A50" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="162"/>
-      <c r="C50" s="162"/>
-      <c r="D50" s="162"/>
-      <c r="E50" s="162"/>
-      <c r="F50" s="162"/>
-      <c r="G50" s="162"/>
-      <c r="H50" s="162"/>
-      <c r="I50" s="162"/>
-      <c r="J50" s="162"/>
-      <c r="K50" s="163"/>
-      <c r="L50" s="187"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="146"/>
+      <c r="L50" s="96"/>
       <c r="M50" s="49"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
@@ -3156,19 +3156,19 @@
       <c r="Y50" s="38"/>
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A51" s="164" t="s">
+      <c r="A51" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="110"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="110"/>
-      <c r="H51" s="110"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="110"/>
-      <c r="K51" s="103"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="131"/>
+      <c r="K51" s="118"/>
       <c r="L51" s="51"/>
       <c r="M51" s="51"/>
       <c r="N51" s="47"/>
@@ -3191,14 +3191,14 @@
       <c r="B52" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="149" t="s">
+      <c r="C52" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="150"/>
-      <c r="E52" s="151" t="s">
+      <c r="D52" s="149"/>
+      <c r="E52" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="152"/>
+      <c r="F52" s="151"/>
       <c r="G52" s="88" t="s">
         <v>37</v>
       </c>
@@ -3232,10 +3232,10 @@
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="34"/>
       <c r="B53" s="35"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="138"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="153"/>
+      <c r="E53" s="152"/>
+      <c r="F53" s="153"/>
       <c r="G53" s="34"/>
       <c r="H53" s="34"/>
       <c r="I53" s="34"/>
@@ -3261,10 +3261,10 @@
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="34"/>
       <c r="B54" s="35"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="138"/>
+      <c r="C54" s="152"/>
+      <c r="D54" s="153"/>
+      <c r="E54" s="152"/>
+      <c r="F54" s="153"/>
       <c r="G54" s="34"/>
       <c r="H54" s="34"/>
       <c r="I54" s="57"/>
@@ -3290,10 +3290,10 @@
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="34"/>
       <c r="B55" s="35"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="138"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="153"/>
+      <c r="E55" s="152"/>
+      <c r="F55" s="153"/>
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
       <c r="I55" s="57"/>
@@ -3317,10 +3317,10 @@
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="34"/>
       <c r="B56" s="35"/>
-      <c r="C56" s="137"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="137"/>
-      <c r="F56" s="138"/>
+      <c r="C56" s="152"/>
+      <c r="D56" s="153"/>
+      <c r="E56" s="152"/>
+      <c r="F56" s="153"/>
       <c r="G56" s="34"/>
       <c r="H56" s="34"/>
       <c r="I56" s="57"/>
@@ -3344,10 +3344,10 @@
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="34"/>
       <c r="B57" s="35"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="138"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="153"/>
       <c r="G57" s="34"/>
       <c r="H57" s="34"/>
       <c r="I57" s="57"/>
@@ -3371,10 +3371,10 @@
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="36"/>
       <c r="B58" s="35"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="138"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="152"/>
+      <c r="F58" s="153"/>
       <c r="G58" s="34"/>
       <c r="H58" s="34"/>
       <c r="I58" s="57"/>
@@ -3398,10 +3398,10 @@
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="36"/>
       <c r="B59" s="35"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="138"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="153"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="153"/>
       <c r="G59" s="34"/>
       <c r="H59" s="34"/>
       <c r="I59" s="57"/>
@@ -3425,10 +3425,10 @@
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="36"/>
       <c r="B60" s="35"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="138"/>
+      <c r="C60" s="152"/>
+      <c r="D60" s="153"/>
+      <c r="E60" s="152"/>
+      <c r="F60" s="153"/>
       <c r="G60" s="34"/>
       <c r="H60" s="34"/>
       <c r="I60" s="57"/>
@@ -3452,10 +3452,10 @@
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="36"/>
       <c r="B61" s="35"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="138"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="138"/>
+      <c r="C61" s="152"/>
+      <c r="D61" s="153"/>
+      <c r="E61" s="152"/>
+      <c r="F61" s="153"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
       <c r="I61" s="57"/>
@@ -3479,10 +3479,10 @@
     <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="34"/>
       <c r="B62" s="35"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="138"/>
+      <c r="C62" s="152"/>
+      <c r="D62" s="153"/>
+      <c r="E62" s="152"/>
+      <c r="F62" s="153"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
       <c r="I62" s="57"/>
@@ -3505,10 +3505,10 @@
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="34"/>
       <c r="B63" s="35"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="138"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="138"/>
+      <c r="C63" s="152"/>
+      <c r="D63" s="153"/>
+      <c r="E63" s="152"/>
+      <c r="F63" s="153"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
       <c r="I63" s="57"/>
@@ -3532,10 +3532,10 @@
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="34"/>
       <c r="B64" s="35"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="138"/>
-      <c r="E64" s="137"/>
-      <c r="F64" s="138"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="153"/>
+      <c r="E64" s="152"/>
+      <c r="F64" s="153"/>
       <c r="G64" s="34"/>
       <c r="H64" s="34"/>
       <c r="I64" s="57"/>
@@ -3559,10 +3559,10 @@
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="34"/>
       <c r="B65" s="35"/>
-      <c r="C65" s="137"/>
-      <c r="D65" s="138"/>
-      <c r="E65" s="148"/>
-      <c r="F65" s="138"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="153"/>
+      <c r="E65" s="154"/>
+      <c r="F65" s="153"/>
       <c r="G65" s="34"/>
       <c r="H65" s="34"/>
       <c r="I65" s="68"/>
@@ -3586,10 +3586,10 @@
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="34"/>
       <c r="B66" s="35"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="138"/>
-      <c r="E66" s="137"/>
-      <c r="F66" s="138"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="153"/>
+      <c r="E66" s="152"/>
+      <c r="F66" s="153"/>
       <c r="G66" s="34"/>
       <c r="H66" s="34"/>
       <c r="I66" s="57"/>
@@ -3613,10 +3613,10 @@
     <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="34"/>
       <c r="B67" s="35"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="138"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="138"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="152"/>
+      <c r="F67" s="153"/>
       <c r="G67" s="34"/>
       <c r="H67" s="34"/>
       <c r="I67" s="57"/>
@@ -3640,10 +3640,10 @@
     <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="34"/>
       <c r="B68" s="35"/>
-      <c r="C68" s="137"/>
-      <c r="D68" s="138"/>
-      <c r="E68" s="137"/>
-      <c r="F68" s="138"/>
+      <c r="C68" s="152"/>
+      <c r="D68" s="153"/>
+      <c r="E68" s="152"/>
+      <c r="F68" s="153"/>
       <c r="G68" s="34"/>
       <c r="H68" s="34"/>
       <c r="I68" s="57"/>
@@ -3667,10 +3667,10 @@
     <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="34"/>
       <c r="B69" s="35"/>
-      <c r="C69" s="137"/>
-      <c r="D69" s="138"/>
-      <c r="E69" s="137"/>
-      <c r="F69" s="138"/>
+      <c r="C69" s="152"/>
+      <c r="D69" s="153"/>
+      <c r="E69" s="152"/>
+      <c r="F69" s="153"/>
       <c r="G69" s="34"/>
       <c r="H69" s="34"/>
       <c r="I69" s="57"/>
@@ -3694,10 +3694,10 @@
     <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="34"/>
       <c r="B70" s="35"/>
-      <c r="C70" s="137"/>
-      <c r="D70" s="138"/>
-      <c r="E70" s="137"/>
-      <c r="F70" s="138"/>
+      <c r="C70" s="152"/>
+      <c r="D70" s="153"/>
+      <c r="E70" s="152"/>
+      <c r="F70" s="153"/>
       <c r="G70" s="34"/>
       <c r="H70" s="34"/>
       <c r="I70" s="57"/>
@@ -3721,10 +3721,10 @@
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="34"/>
       <c r="B71" s="35"/>
-      <c r="C71" s="137"/>
-      <c r="D71" s="138"/>
-      <c r="E71" s="137"/>
-      <c r="F71" s="138"/>
+      <c r="C71" s="152"/>
+      <c r="D71" s="153"/>
+      <c r="E71" s="152"/>
+      <c r="F71" s="153"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
       <c r="I71" s="57"/>
@@ -3748,10 +3748,10 @@
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="34"/>
       <c r="B72" s="35"/>
-      <c r="C72" s="137"/>
-      <c r="D72" s="138"/>
-      <c r="E72" s="137"/>
-      <c r="F72" s="138"/>
+      <c r="C72" s="152"/>
+      <c r="D72" s="153"/>
+      <c r="E72" s="152"/>
+      <c r="F72" s="153"/>
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
       <c r="I72" s="57"/>
@@ -3775,10 +3775,10 @@
     <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="34"/>
       <c r="B73" s="35"/>
-      <c r="C73" s="137"/>
-      <c r="D73" s="138"/>
-      <c r="E73" s="137"/>
-      <c r="F73" s="138"/>
+      <c r="C73" s="152"/>
+      <c r="D73" s="153"/>
+      <c r="E73" s="152"/>
+      <c r="F73" s="153"/>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
       <c r="I73" s="57"/>
@@ -3802,10 +3802,10 @@
     <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="59"/>
       <c r="B74" s="35"/>
-      <c r="C74" s="137"/>
-      <c r="D74" s="138"/>
-      <c r="E74" s="139"/>
-      <c r="F74" s="140"/>
+      <c r="C74" s="152"/>
+      <c r="D74" s="153"/>
+      <c r="E74" s="155"/>
+      <c r="F74" s="156"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
       <c r="I74" s="71"/>
@@ -3829,10 +3829,10 @@
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="59"/>
       <c r="B75" s="35"/>
-      <c r="C75" s="137"/>
-      <c r="D75" s="138"/>
-      <c r="E75" s="139"/>
-      <c r="F75" s="140"/>
+      <c r="C75" s="152"/>
+      <c r="D75" s="153"/>
+      <c r="E75" s="155"/>
+      <c r="F75" s="156"/>
       <c r="G75" s="34"/>
       <c r="H75" s="34"/>
       <c r="I75" s="71"/>
@@ -3856,10 +3856,10 @@
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="59"/>
       <c r="B76" s="35"/>
-      <c r="C76" s="137"/>
-      <c r="D76" s="138"/>
-      <c r="E76" s="139"/>
-      <c r="F76" s="140"/>
+      <c r="C76" s="152"/>
+      <c r="D76" s="153"/>
+      <c r="E76" s="155"/>
+      <c r="F76" s="156"/>
       <c r="G76" s="34"/>
       <c r="H76" s="34"/>
       <c r="I76" s="71"/>
@@ -3883,10 +3883,10 @@
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="59"/>
       <c r="B77" s="35"/>
-      <c r="C77" s="137"/>
-      <c r="D77" s="138"/>
-      <c r="E77" s="139"/>
-      <c r="F77" s="140"/>
+      <c r="C77" s="152"/>
+      <c r="D77" s="153"/>
+      <c r="E77" s="155"/>
+      <c r="F77" s="156"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
       <c r="I77" s="71"/>
@@ -3910,10 +3910,10 @@
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="59"/>
       <c r="B78" s="35"/>
-      <c r="C78" s="137"/>
-      <c r="D78" s="122"/>
-      <c r="E78" s="141"/>
-      <c r="F78" s="102"/>
+      <c r="C78" s="152"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="157"/>
+      <c r="F78" s="113"/>
       <c r="G78" s="60"/>
       <c r="H78" s="61"/>
       <c r="I78" s="71"/>
@@ -3935,20 +3935,20 @@
       <c r="Y78" s="38"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A79" s="142" t="s">
+      <c r="A79" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="143"/>
-      <c r="C79" s="143"/>
-      <c r="D79" s="143"/>
-      <c r="E79" s="143"/>
-      <c r="F79" s="143"/>
-      <c r="G79" s="143"/>
-      <c r="H79" s="143"/>
-      <c r="I79" s="143"/>
-      <c r="J79" s="143"/>
-      <c r="K79" s="144"/>
-      <c r="L79" s="184"/>
+      <c r="B79" s="159"/>
+      <c r="C79" s="159"/>
+      <c r="D79" s="159"/>
+      <c r="E79" s="159"/>
+      <c r="F79" s="159"/>
+      <c r="G79" s="159"/>
+      <c r="H79" s="159"/>
+      <c r="I79" s="159"/>
+      <c r="J79" s="159"/>
+      <c r="K79" s="160"/>
+      <c r="L79" s="93"/>
       <c r="M79" s="55"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
@@ -3967,27 +3967,27 @@
       <c r="A80" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="145" t="s">
+      <c r="B80" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="145"/>
-      <c r="D80" s="146" t="s">
+      <c r="C80" s="161"/>
+      <c r="D80" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="146"/>
-      <c r="F80" s="146"/>
+      <c r="E80" s="162"/>
+      <c r="F80" s="162"/>
       <c r="G80" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="H80" s="147" t="s">
+      <c r="H80" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="I80" s="147"/>
-      <c r="J80" s="147" t="s">
+      <c r="I80" s="163"/>
+      <c r="J80" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="K80" s="147"/>
-      <c r="L80" s="184"/>
+      <c r="K80" s="163"/>
+      <c r="L80" s="93"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
@@ -4002,16 +4002,16 @@
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1">
       <c r="A81" s="62"/>
-      <c r="B81" s="132"/>
-      <c r="C81" s="132"/>
-      <c r="D81" s="132"/>
-      <c r="E81" s="132"/>
-      <c r="F81" s="132"/>
+      <c r="B81" s="164"/>
+      <c r="C81" s="164"/>
+      <c r="D81" s="164"/>
+      <c r="E81" s="164"/>
+      <c r="F81" s="164"/>
       <c r="G81" s="62"/>
-      <c r="H81" s="133"/>
-      <c r="I81" s="134"/>
-      <c r="J81" s="132"/>
-      <c r="K81" s="132"/>
+      <c r="H81" s="165"/>
+      <c r="I81" s="166"/>
+      <c r="J81" s="164"/>
+      <c r="K81" s="164"/>
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
@@ -4027,16 +4027,16 @@
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1">
       <c r="A82" s="62"/>
-      <c r="B82" s="132"/>
-      <c r="C82" s="132"/>
-      <c r="D82" s="132"/>
-      <c r="E82" s="132"/>
-      <c r="F82" s="132"/>
+      <c r="B82" s="164"/>
+      <c r="C82" s="164"/>
+      <c r="D82" s="164"/>
+      <c r="E82" s="164"/>
+      <c r="F82" s="164"/>
       <c r="G82" s="62"/>
-      <c r="H82" s="133"/>
-      <c r="I82" s="134"/>
-      <c r="J82" s="132"/>
-      <c r="K82" s="132"/>
+      <c r="H82" s="165"/>
+      <c r="I82" s="166"/>
+      <c r="J82" s="164"/>
+      <c r="K82" s="164"/>
       <c r="L82" s="13" t="s">
         <v>43</v>
       </c>
@@ -4054,16 +4054,16 @@
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1">
       <c r="A83" s="62"/>
-      <c r="B83" s="132"/>
-      <c r="C83" s="132"/>
-      <c r="D83" s="132"/>
-      <c r="E83" s="132"/>
-      <c r="F83" s="132"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="164"/>
+      <c r="D83" s="164"/>
+      <c r="E83" s="164"/>
+      <c r="F83" s="164"/>
       <c r="G83" s="62"/>
-      <c r="H83" s="133"/>
-      <c r="I83" s="134"/>
-      <c r="J83" s="132"/>
-      <c r="K83" s="132"/>
+      <c r="H83" s="165"/>
+      <c r="I83" s="166"/>
+      <c r="J83" s="164"/>
+      <c r="K83" s="164"/>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
@@ -4079,16 +4079,16 @@
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1">
       <c r="A84" s="62"/>
-      <c r="B84" s="132"/>
-      <c r="C84" s="132"/>
-      <c r="D84" s="132"/>
-      <c r="E84" s="132"/>
-      <c r="F84" s="132"/>
+      <c r="B84" s="164"/>
+      <c r="C84" s="164"/>
+      <c r="D84" s="164"/>
+      <c r="E84" s="164"/>
+      <c r="F84" s="164"/>
       <c r="G84" s="62"/>
-      <c r="H84" s="133"/>
-      <c r="I84" s="134"/>
-      <c r="J84" s="132"/>
-      <c r="K84" s="132"/>
+      <c r="H84" s="165"/>
+      <c r="I84" s="166"/>
+      <c r="J84" s="164"/>
+      <c r="K84" s="164"/>
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
@@ -4104,16 +4104,16 @@
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1">
       <c r="A85" s="62"/>
-      <c r="B85" s="132"/>
-      <c r="C85" s="132"/>
-      <c r="D85" s="132"/>
-      <c r="E85" s="132"/>
-      <c r="F85" s="132"/>
+      <c r="B85" s="164"/>
+      <c r="C85" s="164"/>
+      <c r="D85" s="164"/>
+      <c r="E85" s="164"/>
+      <c r="F85" s="164"/>
       <c r="G85" s="62"/>
-      <c r="H85" s="133"/>
-      <c r="I85" s="134"/>
-      <c r="J85" s="132"/>
-      <c r="K85" s="132"/>
+      <c r="H85" s="165"/>
+      <c r="I85" s="166"/>
+      <c r="J85" s="164"/>
+      <c r="K85" s="164"/>
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
@@ -4129,16 +4129,16 @@
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1">
       <c r="A86" s="62"/>
-      <c r="B86" s="132"/>
-      <c r="C86" s="132"/>
-      <c r="D86" s="132"/>
-      <c r="E86" s="132"/>
-      <c r="F86" s="132"/>
+      <c r="B86" s="164"/>
+      <c r="C86" s="164"/>
+      <c r="D86" s="164"/>
+      <c r="E86" s="164"/>
+      <c r="F86" s="164"/>
       <c r="G86" s="62"/>
-      <c r="H86" s="133"/>
-      <c r="I86" s="134"/>
-      <c r="J86" s="132"/>
-      <c r="K86" s="132"/>
+      <c r="H86" s="165"/>
+      <c r="I86" s="166"/>
+      <c r="J86" s="164"/>
+      <c r="K86" s="164"/>
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
@@ -4154,16 +4154,16 @@
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1">
       <c r="A87" s="62"/>
-      <c r="B87" s="132"/>
-      <c r="C87" s="132"/>
-      <c r="D87" s="132"/>
-      <c r="E87" s="132"/>
-      <c r="F87" s="132"/>
+      <c r="B87" s="164"/>
+      <c r="C87" s="164"/>
+      <c r="D87" s="164"/>
+      <c r="E87" s="164"/>
+      <c r="F87" s="164"/>
       <c r="G87" s="62"/>
-      <c r="H87" s="133"/>
-      <c r="I87" s="134"/>
-      <c r="J87" s="132"/>
-      <c r="K87" s="132"/>
+      <c r="H87" s="165"/>
+      <c r="I87" s="166"/>
+      <c r="J87" s="164"/>
+      <c r="K87" s="164"/>
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
@@ -4179,16 +4179,16 @@
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1">
       <c r="A88" s="62"/>
-      <c r="B88" s="132"/>
-      <c r="C88" s="132"/>
-      <c r="D88" s="132"/>
-      <c r="E88" s="132"/>
-      <c r="F88" s="132"/>
+      <c r="B88" s="164"/>
+      <c r="C88" s="164"/>
+      <c r="D88" s="164"/>
+      <c r="E88" s="164"/>
+      <c r="F88" s="164"/>
       <c r="G88" s="62"/>
-      <c r="H88" s="133"/>
-      <c r="I88" s="134"/>
-      <c r="J88" s="132"/>
-      <c r="K88" s="132"/>
+      <c r="H88" s="165"/>
+      <c r="I88" s="166"/>
+      <c r="J88" s="164"/>
+      <c r="K88" s="164"/>
       <c r="L88" s="47"/>
       <c r="M88" s="55"/>
       <c r="N88" s="13"/>
@@ -4206,16 +4206,16 @@
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1">
       <c r="A89" s="62"/>
-      <c r="B89" s="132"/>
-      <c r="C89" s="132"/>
-      <c r="D89" s="132"/>
-      <c r="E89" s="132"/>
-      <c r="F89" s="132"/>
+      <c r="B89" s="164"/>
+      <c r="C89" s="164"/>
+      <c r="D89" s="164"/>
+      <c r="E89" s="164"/>
+      <c r="F89" s="164"/>
       <c r="G89" s="62"/>
-      <c r="H89" s="133"/>
-      <c r="I89" s="134"/>
-      <c r="J89" s="132"/>
-      <c r="K89" s="132"/>
+      <c r="H89" s="165"/>
+      <c r="I89" s="166"/>
+      <c r="J89" s="164"/>
+      <c r="K89" s="164"/>
       <c r="L89" s="47"/>
       <c r="M89" s="55"/>
       <c r="N89" s="13"/>
@@ -4233,16 +4233,16 @@
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1">
       <c r="A90" s="62"/>
-      <c r="B90" s="132"/>
-      <c r="C90" s="132"/>
-      <c r="D90" s="132"/>
-      <c r="E90" s="132"/>
-      <c r="F90" s="132"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="164"/>
+      <c r="D90" s="164"/>
+      <c r="E90" s="164"/>
+      <c r="F90" s="164"/>
       <c r="G90" s="62"/>
-      <c r="H90" s="133"/>
-      <c r="I90" s="134"/>
-      <c r="J90" s="132"/>
-      <c r="K90" s="132"/>
+      <c r="H90" s="165"/>
+      <c r="I90" s="166"/>
+      <c r="J90" s="164"/>
+      <c r="K90" s="164"/>
       <c r="L90" s="47"/>
       <c r="M90" s="55"/>
       <c r="N90" s="13"/>
@@ -4260,16 +4260,16 @@
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1">
       <c r="A91" s="62"/>
-      <c r="B91" s="132"/>
-      <c r="C91" s="132"/>
-      <c r="D91" s="132"/>
-      <c r="E91" s="132"/>
-      <c r="F91" s="132"/>
+      <c r="B91" s="164"/>
+      <c r="C91" s="164"/>
+      <c r="D91" s="164"/>
+      <c r="E91" s="164"/>
+      <c r="F91" s="164"/>
       <c r="G91" s="62"/>
-      <c r="H91" s="133"/>
-      <c r="I91" s="134"/>
-      <c r="J91" s="132"/>
-      <c r="K91" s="132"/>
+      <c r="H91" s="165"/>
+      <c r="I91" s="166"/>
+      <c r="J91" s="164"/>
+      <c r="K91" s="164"/>
       <c r="L91" s="47"/>
       <c r="M91" s="47"/>
       <c r="N91" s="13"/>
@@ -4287,16 +4287,16 @@
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1">
       <c r="A92" s="62"/>
-      <c r="B92" s="132"/>
-      <c r="C92" s="132"/>
-      <c r="D92" s="132"/>
-      <c r="E92" s="132"/>
-      <c r="F92" s="132"/>
+      <c r="B92" s="164"/>
+      <c r="C92" s="164"/>
+      <c r="D92" s="164"/>
+      <c r="E92" s="164"/>
+      <c r="F92" s="164"/>
       <c r="G92" s="62"/>
-      <c r="H92" s="133"/>
-      <c r="I92" s="134"/>
-      <c r="J92" s="132"/>
-      <c r="K92" s="132"/>
+      <c r="H92" s="165"/>
+      <c r="I92" s="166"/>
+      <c r="J92" s="164"/>
+      <c r="K92" s="164"/>
       <c r="L92" s="47"/>
       <c r="M92" s="47"/>
       <c r="N92" s="13"/>
@@ -4314,16 +4314,16 @@
     </row>
     <row r="93" spans="1:25" ht="15.75" customHeight="1">
       <c r="A93" s="62"/>
-      <c r="B93" s="132"/>
-      <c r="C93" s="132"/>
-      <c r="D93" s="132"/>
-      <c r="E93" s="132"/>
-      <c r="F93" s="132"/>
+      <c r="B93" s="164"/>
+      <c r="C93" s="164"/>
+      <c r="D93" s="164"/>
+      <c r="E93" s="164"/>
+      <c r="F93" s="164"/>
       <c r="G93" s="62"/>
-      <c r="H93" s="133"/>
-      <c r="I93" s="134"/>
-      <c r="J93" s="132"/>
-      <c r="K93" s="132"/>
+      <c r="H93" s="165"/>
+      <c r="I93" s="166"/>
+      <c r="J93" s="164"/>
+      <c r="K93" s="164"/>
       <c r="L93" s="47"/>
       <c r="M93" s="47"/>
       <c r="N93" s="13"/>
@@ -4341,16 +4341,16 @@
     </row>
     <row r="94" spans="1:25" ht="15.75" customHeight="1">
       <c r="A94" s="62"/>
-      <c r="B94" s="132"/>
-      <c r="C94" s="132"/>
-      <c r="D94" s="132"/>
-      <c r="E94" s="132"/>
-      <c r="F94" s="132"/>
+      <c r="B94" s="164"/>
+      <c r="C94" s="164"/>
+      <c r="D94" s="164"/>
+      <c r="E94" s="164"/>
+      <c r="F94" s="164"/>
       <c r="G94" s="62"/>
-      <c r="H94" s="133"/>
-      <c r="I94" s="134"/>
-      <c r="J94" s="132"/>
-      <c r="K94" s="132"/>
+      <c r="H94" s="165"/>
+      <c r="I94" s="166"/>
+      <c r="J94" s="164"/>
+      <c r="K94" s="164"/>
       <c r="L94" s="47"/>
       <c r="M94" s="47"/>
       <c r="N94" s="13"/>
@@ -4368,16 +4368,16 @@
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1">
       <c r="A95" s="62"/>
-      <c r="B95" s="132"/>
-      <c r="C95" s="132"/>
-      <c r="D95" s="132"/>
-      <c r="E95" s="132"/>
-      <c r="F95" s="132"/>
+      <c r="B95" s="164"/>
+      <c r="C95" s="164"/>
+      <c r="D95" s="164"/>
+      <c r="E95" s="164"/>
+      <c r="F95" s="164"/>
       <c r="G95" s="62"/>
-      <c r="H95" s="133"/>
-      <c r="I95" s="134"/>
-      <c r="J95" s="132"/>
-      <c r="K95" s="132"/>
+      <c r="H95" s="165"/>
+      <c r="I95" s="166"/>
+      <c r="J95" s="164"/>
+      <c r="K95" s="164"/>
       <c r="L95" s="47"/>
       <c r="M95" s="47"/>
       <c r="N95" s="13"/>
@@ -4395,16 +4395,16 @@
     </row>
     <row r="96" spans="1:25" ht="15.75" customHeight="1">
       <c r="A96" s="62"/>
-      <c r="B96" s="132"/>
-      <c r="C96" s="132"/>
-      <c r="D96" s="132"/>
-      <c r="E96" s="132"/>
-      <c r="F96" s="132"/>
+      <c r="B96" s="164"/>
+      <c r="C96" s="164"/>
+      <c r="D96" s="164"/>
+      <c r="E96" s="164"/>
+      <c r="F96" s="164"/>
       <c r="G96" s="62"/>
-      <c r="H96" s="133"/>
-      <c r="I96" s="134"/>
-      <c r="J96" s="132"/>
-      <c r="K96" s="132"/>
+      <c r="H96" s="165"/>
+      <c r="I96" s="166"/>
+      <c r="J96" s="164"/>
+      <c r="K96" s="164"/>
       <c r="L96" s="47"/>
       <c r="M96" s="47"/>
       <c r="N96" s="13"/>
@@ -4422,16 +4422,16 @@
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1">
       <c r="A97" s="62"/>
-      <c r="B97" s="132"/>
-      <c r="C97" s="132"/>
-      <c r="D97" s="132"/>
-      <c r="E97" s="132"/>
-      <c r="F97" s="132"/>
+      <c r="B97" s="164"/>
+      <c r="C97" s="164"/>
+      <c r="D97" s="164"/>
+      <c r="E97" s="164"/>
+      <c r="F97" s="164"/>
       <c r="G97" s="62"/>
-      <c r="H97" s="133"/>
-      <c r="I97" s="134"/>
-      <c r="J97" s="132"/>
-      <c r="K97" s="132"/>
+      <c r="H97" s="165"/>
+      <c r="I97" s="166"/>
+      <c r="J97" s="164"/>
+      <c r="K97" s="164"/>
       <c r="L97" s="47"/>
       <c r="M97" s="47"/>
       <c r="N97" s="13"/>
@@ -4449,16 +4449,16 @@
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1">
       <c r="A98" s="62"/>
-      <c r="B98" s="132"/>
-      <c r="C98" s="132"/>
-      <c r="D98" s="132"/>
-      <c r="E98" s="132"/>
-      <c r="F98" s="132"/>
+      <c r="B98" s="164"/>
+      <c r="C98" s="164"/>
+      <c r="D98" s="164"/>
+      <c r="E98" s="164"/>
+      <c r="F98" s="164"/>
       <c r="G98" s="62"/>
-      <c r="H98" s="133"/>
-      <c r="I98" s="134"/>
-      <c r="J98" s="132"/>
-      <c r="K98" s="132"/>
+      <c r="H98" s="165"/>
+      <c r="I98" s="166"/>
+      <c r="J98" s="164"/>
+      <c r="K98" s="164"/>
       <c r="L98" s="47"/>
       <c r="M98" s="47"/>
       <c r="N98" s="13"/>
@@ -4476,16 +4476,16 @@
     </row>
     <row r="99" spans="1:25" ht="15.75" customHeight="1">
       <c r="A99" s="62"/>
-      <c r="B99" s="132"/>
-      <c r="C99" s="132"/>
-      <c r="D99" s="132"/>
-      <c r="E99" s="132"/>
-      <c r="F99" s="132"/>
+      <c r="B99" s="164"/>
+      <c r="C99" s="164"/>
+      <c r="D99" s="164"/>
+      <c r="E99" s="164"/>
+      <c r="F99" s="164"/>
       <c r="G99" s="62"/>
-      <c r="H99" s="133"/>
-      <c r="I99" s="134"/>
-      <c r="J99" s="132"/>
-      <c r="K99" s="132"/>
+      <c r="H99" s="165"/>
+      <c r="I99" s="166"/>
+      <c r="J99" s="164"/>
+      <c r="K99" s="164"/>
       <c r="L99" s="47"/>
       <c r="M99" s="47"/>
       <c r="N99" s="13"/>
@@ -4503,16 +4503,16 @@
     </row>
     <row r="100" spans="1:25" ht="15.75" customHeight="1">
       <c r="A100" s="62"/>
-      <c r="B100" s="132"/>
-      <c r="C100" s="132"/>
-      <c r="D100" s="132"/>
-      <c r="E100" s="132"/>
-      <c r="F100" s="132"/>
+      <c r="B100" s="164"/>
+      <c r="C100" s="164"/>
+      <c r="D100" s="164"/>
+      <c r="E100" s="164"/>
+      <c r="F100" s="164"/>
       <c r="G100" s="62"/>
-      <c r="H100" s="133"/>
-      <c r="I100" s="134"/>
-      <c r="J100" s="132"/>
-      <c r="K100" s="132"/>
+      <c r="H100" s="165"/>
+      <c r="I100" s="166"/>
+      <c r="J100" s="164"/>
+      <c r="K100" s="164"/>
       <c r="L100" s="47"/>
       <c r="M100" s="47"/>
       <c r="N100" s="13"/>
@@ -4530,16 +4530,16 @@
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1">
       <c r="A101" s="62"/>
-      <c r="B101" s="132"/>
-      <c r="C101" s="132"/>
-      <c r="D101" s="132"/>
-      <c r="E101" s="132"/>
-      <c r="F101" s="132"/>
+      <c r="B101" s="164"/>
+      <c r="C101" s="164"/>
+      <c r="D101" s="164"/>
+      <c r="E101" s="164"/>
+      <c r="F101" s="164"/>
       <c r="G101" s="62"/>
-      <c r="H101" s="133"/>
-      <c r="I101" s="134"/>
-      <c r="J101" s="132"/>
-      <c r="K101" s="132"/>
+      <c r="H101" s="165"/>
+      <c r="I101" s="166"/>
+      <c r="J101" s="164"/>
+      <c r="K101" s="164"/>
       <c r="L101" s="47"/>
       <c r="M101" s="47"/>
       <c r="N101" s="13"/>
@@ -4557,16 +4557,16 @@
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="62"/>
-      <c r="B102" s="132"/>
-      <c r="C102" s="132"/>
-      <c r="D102" s="132"/>
-      <c r="E102" s="132"/>
-      <c r="F102" s="132"/>
+      <c r="B102" s="164"/>
+      <c r="C102" s="164"/>
+      <c r="D102" s="164"/>
+      <c r="E102" s="164"/>
+      <c r="F102" s="164"/>
       <c r="G102" s="62"/>
-      <c r="H102" s="133"/>
-      <c r="I102" s="134"/>
-      <c r="J102" s="132"/>
-      <c r="K102" s="132"/>
+      <c r="H102" s="165"/>
+      <c r="I102" s="166"/>
+      <c r="J102" s="164"/>
+      <c r="K102" s="164"/>
       <c r="L102" s="47"/>
       <c r="M102" s="47"/>
       <c r="N102" s="13"/>
@@ -4584,16 +4584,16 @@
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="62"/>
-      <c r="B103" s="132"/>
-      <c r="C103" s="132"/>
-      <c r="D103" s="132"/>
-      <c r="E103" s="132"/>
-      <c r="F103" s="132"/>
+      <c r="B103" s="164"/>
+      <c r="C103" s="164"/>
+      <c r="D103" s="164"/>
+      <c r="E103" s="164"/>
+      <c r="F103" s="164"/>
       <c r="G103" s="62"/>
-      <c r="H103" s="133"/>
-      <c r="I103" s="134"/>
-      <c r="J103" s="132"/>
-      <c r="K103" s="132"/>
+      <c r="H103" s="165"/>
+      <c r="I103" s="166"/>
+      <c r="J103" s="164"/>
+      <c r="K103" s="164"/>
       <c r="L103" s="47"/>
       <c r="M103" s="47"/>
       <c r="N103" s="13"/>
@@ -4611,16 +4611,16 @@
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1">
       <c r="A104" s="62"/>
-      <c r="B104" s="132"/>
-      <c r="C104" s="132"/>
-      <c r="D104" s="132"/>
-      <c r="E104" s="132"/>
-      <c r="F104" s="132"/>
+      <c r="B104" s="164"/>
+      <c r="C104" s="164"/>
+      <c r="D104" s="164"/>
+      <c r="E104" s="164"/>
+      <c r="F104" s="164"/>
       <c r="G104" s="62"/>
-      <c r="H104" s="133"/>
-      <c r="I104" s="134"/>
-      <c r="J104" s="132"/>
-      <c r="K104" s="132"/>
+      <c r="H104" s="165"/>
+      <c r="I104" s="166"/>
+      <c r="J104" s="164"/>
+      <c r="K104" s="164"/>
       <c r="L104" s="47"/>
       <c r="M104" s="47"/>
       <c r="N104" s="13"/>
@@ -4638,16 +4638,16 @@
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1">
       <c r="A105" s="62"/>
-      <c r="B105" s="132"/>
-      <c r="C105" s="132"/>
-      <c r="D105" s="132"/>
-      <c r="E105" s="132"/>
-      <c r="F105" s="132"/>
+      <c r="B105" s="164"/>
+      <c r="C105" s="164"/>
+      <c r="D105" s="164"/>
+      <c r="E105" s="164"/>
+      <c r="F105" s="164"/>
       <c r="G105" s="62"/>
-      <c r="H105" s="133"/>
-      <c r="I105" s="134"/>
-      <c r="J105" s="132"/>
-      <c r="K105" s="132"/>
+      <c r="H105" s="165"/>
+      <c r="I105" s="166"/>
+      <c r="J105" s="164"/>
+      <c r="K105" s="164"/>
       <c r="L105" s="47"/>
       <c r="M105" s="47"/>
       <c r="N105" s="13"/>
@@ -4665,16 +4665,16 @@
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1">
       <c r="A106" s="62"/>
-      <c r="B106" s="132"/>
-      <c r="C106" s="132"/>
-      <c r="D106" s="132"/>
-      <c r="E106" s="132"/>
-      <c r="F106" s="132"/>
+      <c r="B106" s="164"/>
+      <c r="C106" s="164"/>
+      <c r="D106" s="164"/>
+      <c r="E106" s="164"/>
+      <c r="F106" s="164"/>
       <c r="G106" s="62"/>
-      <c r="H106" s="133"/>
-      <c r="I106" s="134"/>
-      <c r="J106" s="132"/>
-      <c r="K106" s="132"/>
+      <c r="H106" s="165"/>
+      <c r="I106" s="166"/>
+      <c r="J106" s="164"/>
+      <c r="K106" s="164"/>
       <c r="L106" s="47"/>
       <c r="M106" s="47"/>
       <c r="N106" s="13"/>
@@ -4691,19 +4691,19 @@
       <c r="Y106" s="38"/>
     </row>
     <row r="107" spans="1:25" ht="21" customHeight="1">
-      <c r="A107" s="135" t="s">
+      <c r="A107" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="135"/>
-      <c r="C107" s="135"/>
-      <c r="D107" s="135"/>
-      <c r="E107" s="135"/>
-      <c r="F107" s="135"/>
-      <c r="G107" s="136"/>
-      <c r="H107" s="94"/>
-      <c r="I107" s="94"/>
-      <c r="J107" s="94"/>
-      <c r="K107" s="109"/>
+      <c r="B107" s="167"/>
+      <c r="C107" s="167"/>
+      <c r="D107" s="167"/>
+      <c r="E107" s="167"/>
+      <c r="F107" s="167"/>
+      <c r="G107" s="168"/>
+      <c r="H107" s="100"/>
+      <c r="I107" s="100"/>
+      <c r="J107" s="100"/>
+      <c r="K107" s="114"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
@@ -4720,24 +4720,24 @@
       <c r="Y107" s="38"/>
     </row>
     <row r="108" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A108" s="108" t="s">
+      <c r="A108" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="B108" s="94"/>
-      <c r="C108" s="109"/>
-      <c r="D108" s="111" t="str">
+      <c r="B108" s="100"/>
+      <c r="C108" s="114"/>
+      <c r="D108" s="192" t="str">
         <f>L7</f>
         <v>Sec1</v>
       </c>
-      <c r="E108" s="94"/>
-      <c r="F108" s="109"/>
+      <c r="E108" s="100"/>
+      <c r="F108" s="114"/>
       <c r="G108" s="5"/>
-      <c r="H108" s="128" t="s">
+      <c r="H108" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="I108" s="129"/>
-      <c r="J108" s="129"/>
-      <c r="K108" s="122"/>
+      <c r="I108" s="104"/>
+      <c r="J108" s="104"/>
+      <c r="K108" s="105"/>
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>
@@ -4754,12 +4754,12 @@
       <c r="Y108" s="38"/>
     </row>
     <row r="109" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A109" s="97"/>
-      <c r="B109" s="110"/>
-      <c r="C109" s="103"/>
-      <c r="D109" s="97"/>
-      <c r="E109" s="110"/>
-      <c r="F109" s="103"/>
+      <c r="A109" s="176"/>
+      <c r="B109" s="131"/>
+      <c r="C109" s="118"/>
+      <c r="D109" s="176"/>
+      <c r="E109" s="131"/>
+      <c r="F109" s="118"/>
       <c r="K109" s="72"/>
       <c r="L109" s="73"/>
       <c r="M109" s="73"/>
@@ -4777,17 +4777,17 @@
       <c r="Y109" s="38"/>
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A110" s="112" t="s">
+      <c r="A110" s="193" t="s">
         <v>47</v>
       </c>
-      <c r="B110" s="113"/>
-      <c r="C110" s="102"/>
-      <c r="D110" s="114" t="str">
+      <c r="B110" s="129"/>
+      <c r="C110" s="113"/>
+      <c r="D110" s="194" t="str">
         <f>L27</f>
         <v>sec2</v>
       </c>
-      <c r="E110" s="113"/>
-      <c r="F110" s="102"/>
+      <c r="E110" s="129"/>
+      <c r="F110" s="113"/>
       <c r="G110" s="25"/>
       <c r="H110" s="63" t="s">
         <v>48</v>
@@ -4795,12 +4795,12 @@
       <c r="I110" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="J110" s="130" t="s">
+      <c r="J110" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="K110" s="122"/>
-      <c r="L110" s="131"/>
-      <c r="M110" s="131"/>
+      <c r="K110" s="105"/>
+      <c r="L110" s="171"/>
+      <c r="M110" s="171"/>
       <c r="N110" s="13"/>
       <c r="O110" s="47"/>
       <c r="P110" s="13"/>
@@ -4815,21 +4815,21 @@
       <c r="Y110" s="38"/>
     </row>
     <row r="111" spans="1:25" ht="24" customHeight="1">
-      <c r="A111" s="97"/>
-      <c r="B111" s="110"/>
-      <c r="C111" s="103"/>
-      <c r="D111" s="97"/>
-      <c r="E111" s="110"/>
-      <c r="F111" s="103"/>
+      <c r="A111" s="176"/>
+      <c r="B111" s="131"/>
+      <c r="C111" s="118"/>
+      <c r="D111" s="176"/>
+      <c r="E111" s="131"/>
+      <c r="F111" s="118"/>
       <c r="G111" s="25"/>
       <c r="H111" s="64">
         <v>1000</v>
       </c>
       <c r="I111" s="75"/>
-      <c r="J111" s="121"/>
-      <c r="K111" s="122"/>
-      <c r="L111" s="95"/>
-      <c r="M111" s="95"/>
+      <c r="J111" s="172"/>
+      <c r="K111" s="105"/>
+      <c r="L111" s="173"/>
+      <c r="M111" s="173"/>
       <c r="N111" s="13"/>
       <c r="O111" s="47"/>
       <c r="P111" s="13"/>
@@ -4844,23 +4844,23 @@
       <c r="Y111" s="38"/>
     </row>
     <row r="112" spans="1:25" ht="21" customHeight="1">
-      <c r="A112" s="115" t="s">
+      <c r="A112" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="B112" s="113"/>
-      <c r="C112" s="102"/>
-      <c r="D112" s="116"/>
-      <c r="E112" s="113"/>
-      <c r="F112" s="102"/>
+      <c r="B112" s="129"/>
+      <c r="C112" s="113"/>
+      <c r="D112" s="196"/>
+      <c r="E112" s="129"/>
+      <c r="F112" s="113"/>
       <c r="G112" s="65"/>
       <c r="H112" s="64">
         <v>500</v>
       </c>
       <c r="I112" s="75"/>
-      <c r="J112" s="121"/>
-      <c r="K112" s="122"/>
-      <c r="L112" s="95"/>
-      <c r="M112" s="95"/>
+      <c r="J112" s="172"/>
+      <c r="K112" s="105"/>
+      <c r="L112" s="173"/>
+      <c r="M112" s="173"/>
       <c r="N112" s="13"/>
       <c r="O112" s="47"/>
       <c r="P112" s="13"/>
@@ -4875,21 +4875,21 @@
       <c r="Y112" s="38"/>
     </row>
     <row r="113" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A113" s="97"/>
-      <c r="B113" s="110"/>
-      <c r="C113" s="103"/>
-      <c r="D113" s="97"/>
-      <c r="E113" s="110"/>
-      <c r="F113" s="103"/>
+      <c r="A113" s="176"/>
+      <c r="B113" s="131"/>
+      <c r="C113" s="118"/>
+      <c r="D113" s="176"/>
+      <c r="E113" s="131"/>
+      <c r="F113" s="118"/>
       <c r="G113" s="65"/>
       <c r="H113" s="64">
         <v>200</v>
       </c>
       <c r="I113" s="75"/>
-      <c r="J113" s="121"/>
-      <c r="K113" s="122"/>
-      <c r="L113" s="95"/>
-      <c r="M113" s="95"/>
+      <c r="J113" s="172"/>
+      <c r="K113" s="105"/>
+      <c r="L113" s="173"/>
+      <c r="M113" s="173"/>
       <c r="N113" s="13"/>
       <c r="O113" s="47"/>
       <c r="P113" s="13"/>
@@ -4904,26 +4904,26 @@
       <c r="Y113" s="38"/>
     </row>
     <row r="114" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A114" s="115" t="s">
+      <c r="A114" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="B114" s="113"/>
-      <c r="C114" s="102"/>
-      <c r="D114" s="114" t="str">
+      <c r="B114" s="129"/>
+      <c r="C114" s="113"/>
+      <c r="D114" s="194" t="str">
         <f>L49</f>
         <v>sec3</v>
       </c>
-      <c r="E114" s="113"/>
-      <c r="F114" s="102"/>
+      <c r="E114" s="129"/>
+      <c r="F114" s="113"/>
       <c r="G114" s="65"/>
       <c r="H114" s="64">
         <v>100</v>
       </c>
       <c r="I114" s="75"/>
-      <c r="J114" s="121"/>
-      <c r="K114" s="122"/>
-      <c r="L114" s="95"/>
-      <c r="M114" s="95"/>
+      <c r="J114" s="172"/>
+      <c r="K114" s="105"/>
+      <c r="L114" s="173"/>
+      <c r="M114" s="173"/>
       <c r="N114" s="13"/>
       <c r="O114" s="47"/>
       <c r="P114" s="13"/>
@@ -4938,21 +4938,21 @@
       <c r="Y114" s="38"/>
     </row>
     <row r="115" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A115" s="97"/>
-      <c r="B115" s="110"/>
-      <c r="C115" s="103"/>
-      <c r="D115" s="97"/>
-      <c r="E115" s="110"/>
-      <c r="F115" s="103"/>
+      <c r="A115" s="176"/>
+      <c r="B115" s="131"/>
+      <c r="C115" s="118"/>
+      <c r="D115" s="176"/>
+      <c r="E115" s="131"/>
+      <c r="F115" s="118"/>
       <c r="G115" s="65"/>
       <c r="H115" s="64">
         <v>50</v>
       </c>
       <c r="I115" s="75"/>
-      <c r="J115" s="121"/>
-      <c r="K115" s="122"/>
-      <c r="L115" s="95"/>
-      <c r="M115" s="95"/>
+      <c r="J115" s="172"/>
+      <c r="K115" s="105"/>
+      <c r="L115" s="173"/>
+      <c r="M115" s="173"/>
       <c r="N115" s="13"/>
       <c r="O115" s="47"/>
       <c r="P115" s="47"/>
@@ -4967,23 +4967,23 @@
       <c r="Y115" s="38"/>
     </row>
     <row r="116" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A116" s="115" t="s">
+      <c r="A116" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="B116" s="113"/>
-      <c r="C116" s="102"/>
-      <c r="D116" s="116"/>
-      <c r="E116" s="113"/>
-      <c r="F116" s="102"/>
+      <c r="B116" s="129"/>
+      <c r="C116" s="113"/>
+      <c r="D116" s="196"/>
+      <c r="E116" s="129"/>
+      <c r="F116" s="113"/>
       <c r="G116" s="65"/>
       <c r="H116" s="64">
         <v>20</v>
       </c>
       <c r="I116" s="75"/>
-      <c r="J116" s="121"/>
-      <c r="K116" s="122"/>
-      <c r="L116" s="95"/>
-      <c r="M116" s="95"/>
+      <c r="J116" s="172"/>
+      <c r="K116" s="105"/>
+      <c r="L116" s="173"/>
+      <c r="M116" s="173"/>
       <c r="N116" s="13"/>
       <c r="O116" s="47"/>
       <c r="P116" s="47"/>
@@ -4998,21 +4998,21 @@
       <c r="Y116" s="38"/>
     </row>
     <row r="117" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A117" s="97"/>
-      <c r="B117" s="110"/>
-      <c r="C117" s="103"/>
-      <c r="D117" s="97"/>
-      <c r="E117" s="110"/>
-      <c r="F117" s="103"/>
+      <c r="A117" s="176"/>
+      <c r="B117" s="131"/>
+      <c r="C117" s="118"/>
+      <c r="D117" s="176"/>
+      <c r="E117" s="131"/>
+      <c r="F117" s="118"/>
       <c r="G117" s="65"/>
       <c r="H117" s="64">
         <v>10</v>
       </c>
       <c r="I117" s="75"/>
-      <c r="J117" s="121"/>
-      <c r="K117" s="122"/>
-      <c r="L117" s="95"/>
-      <c r="M117" s="95"/>
+      <c r="J117" s="172"/>
+      <c r="K117" s="105"/>
+      <c r="L117" s="173"/>
+      <c r="M117" s="173"/>
       <c r="N117" s="13"/>
       <c r="O117" s="47"/>
       <c r="P117" s="13"/>
@@ -5027,23 +5027,23 @@
       <c r="Y117" s="38"/>
     </row>
     <row r="118" spans="1:25" ht="21" customHeight="1">
-      <c r="A118" s="115" t="s">
+      <c r="A118" s="195" t="s">
         <v>54</v>
       </c>
-      <c r="B118" s="113"/>
-      <c r="C118" s="102"/>
-      <c r="D118" s="116"/>
-      <c r="E118" s="113"/>
-      <c r="F118" s="102"/>
+      <c r="B118" s="129"/>
+      <c r="C118" s="113"/>
+      <c r="D118" s="196"/>
+      <c r="E118" s="129"/>
+      <c r="F118" s="113"/>
       <c r="G118" s="65"/>
       <c r="H118" s="64">
         <v>5</v>
       </c>
       <c r="I118" s="75"/>
-      <c r="J118" s="121"/>
-      <c r="K118" s="122"/>
-      <c r="L118" s="95"/>
-      <c r="M118" s="95"/>
+      <c r="J118" s="172"/>
+      <c r="K118" s="105"/>
+      <c r="L118" s="173"/>
+      <c r="M118" s="173"/>
       <c r="N118" s="13"/>
       <c r="O118" s="47"/>
       <c r="P118" s="13"/>
@@ -5058,23 +5058,23 @@
       <c r="Y118" s="38"/>
     </row>
     <row r="119" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A119" s="97"/>
-      <c r="B119" s="110"/>
-      <c r="C119" s="103"/>
-      <c r="D119" s="97"/>
-      <c r="E119" s="110"/>
-      <c r="F119" s="103"/>
+      <c r="A119" s="176"/>
+      <c r="B119" s="131"/>
+      <c r="C119" s="118"/>
+      <c r="D119" s="176"/>
+      <c r="E119" s="131"/>
+      <c r="F119" s="118"/>
       <c r="G119" s="65"/>
       <c r="H119" s="64">
         <v>1</v>
       </c>
       <c r="I119" s="75"/>
-      <c r="J119" s="121"/>
-      <c r="K119" s="122"/>
-      <c r="L119" s="95" t="s">
+      <c r="J119" s="172"/>
+      <c r="K119" s="105"/>
+      <c r="L119" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="M119" s="95"/>
+      <c r="M119" s="173"/>
       <c r="N119" s="13"/>
       <c r="O119" s="47"/>
       <c r="P119" s="13"/>
@@ -5089,25 +5089,25 @@
       <c r="Y119" s="38"/>
     </row>
     <row r="120" spans="1:25" ht="21" customHeight="1">
-      <c r="A120" s="115" t="s">
+      <c r="A120" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="B120" s="113"/>
-      <c r="C120" s="102"/>
-      <c r="D120" s="120"/>
-      <c r="E120" s="113"/>
-      <c r="F120" s="102"/>
+      <c r="B120" s="129"/>
+      <c r="C120" s="113"/>
+      <c r="D120" s="174"/>
+      <c r="E120" s="129"/>
+      <c r="F120" s="113"/>
       <c r="G120" s="65"/>
       <c r="H120" s="64">
         <v>0.25</v>
       </c>
       <c r="I120" s="76"/>
-      <c r="J120" s="121"/>
-      <c r="K120" s="122"/>
-      <c r="L120" s="123" t="s">
+      <c r="J120" s="172"/>
+      <c r="K120" s="105"/>
+      <c r="L120" s="177" t="s">
         <v>25</v>
       </c>
-      <c r="M120" s="123"/>
+      <c r="M120" s="177"/>
       <c r="N120" s="13"/>
       <c r="O120" s="47"/>
       <c r="P120" s="50"/>
@@ -5122,19 +5122,19 @@
       <c r="Y120" s="38"/>
     </row>
     <row r="121" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A121" s="117"/>
-      <c r="B121" s="115"/>
-      <c r="C121" s="109"/>
-      <c r="D121" s="117"/>
-      <c r="E121" s="120"/>
-      <c r="F121" s="109"/>
+      <c r="A121" s="175"/>
+      <c r="B121" s="195"/>
+      <c r="C121" s="114"/>
+      <c r="D121" s="175"/>
+      <c r="E121" s="174"/>
+      <c r="F121" s="114"/>
       <c r="G121" s="65"/>
-      <c r="H121" s="124" t="s">
+      <c r="H121" s="178" t="s">
         <v>57</v>
       </c>
-      <c r="I121" s="122"/>
-      <c r="J121" s="121"/>
-      <c r="K121" s="122"/>
+      <c r="I121" s="105"/>
+      <c r="J121" s="172"/>
+      <c r="K121" s="105"/>
       <c r="L121" s="77"/>
       <c r="M121" s="51"/>
       <c r="N121" s="13"/>
@@ -5151,22 +5151,22 @@
       <c r="Y121" s="38"/>
     </row>
     <row r="122" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A122" s="97"/>
-      <c r="B122" s="110"/>
-      <c r="C122" s="103"/>
-      <c r="D122" s="97"/>
-      <c r="E122" s="110"/>
-      <c r="F122" s="103"/>
+      <c r="A122" s="176"/>
+      <c r="B122" s="131"/>
+      <c r="C122" s="118"/>
+      <c r="D122" s="176"/>
+      <c r="E122" s="131"/>
+      <c r="F122" s="118"/>
       <c r="G122" s="65"/>
-      <c r="H122" s="125" t="s">
+      <c r="H122" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="I122" s="122"/>
-      <c r="J122" s="126"/>
-      <c r="K122" s="122"/>
-      <c r="L122" s="127"/>
-      <c r="M122" s="127"/>
-      <c r="N122" s="127"/>
+      <c r="I122" s="105"/>
+      <c r="J122" s="180"/>
+      <c r="K122" s="105"/>
+      <c r="L122" s="181"/>
+      <c r="M122" s="181"/>
+      <c r="N122" s="181"/>
       <c r="O122" s="47"/>
       <c r="P122" s="13"/>
       <c r="Q122" s="13"/>
@@ -5237,12 +5237,12 @@
     </row>
     <row r="125" spans="1:25" ht="15.75" customHeight="1">
       <c r="A125" s="13"/>
-      <c r="B125" s="118"/>
-      <c r="C125" s="94"/>
-      <c r="D125" s="94"/>
-      <c r="E125" s="119"/>
-      <c r="F125" s="94"/>
-      <c r="G125" s="94"/>
+      <c r="B125" s="197"/>
+      <c r="C125" s="100"/>
+      <c r="D125" s="100"/>
+      <c r="E125" s="125"/>
+      <c r="F125" s="100"/>
+      <c r="G125" s="100"/>
       <c r="H125" s="26"/>
       <c r="I125" s="26"/>
       <c r="J125" s="43"/>
@@ -5264,12 +5264,12 @@
     </row>
     <row r="126" spans="1:25" ht="15.75" customHeight="1">
       <c r="A126" s="13"/>
-      <c r="B126" s="93"/>
-      <c r="C126" s="94"/>
-      <c r="D126" s="94"/>
-      <c r="E126" s="95"/>
-      <c r="F126" s="95"/>
-      <c r="G126" s="95"/>
+      <c r="B126" s="102"/>
+      <c r="C126" s="100"/>
+      <c r="D126" s="100"/>
+      <c r="E126" s="173"/>
+      <c r="F126" s="173"/>
+      <c r="G126" s="173"/>
       <c r="H126" s="67"/>
       <c r="I126" s="67"/>
       <c r="J126" s="67"/>
@@ -5291,12 +5291,12 @@
     </row>
     <row r="127" spans="1:25" ht="15.75" customHeight="1">
       <c r="A127" s="13"/>
-      <c r="B127" s="93"/>
-      <c r="C127" s="94"/>
-      <c r="D127" s="94"/>
-      <c r="E127" s="95"/>
-      <c r="F127" s="95"/>
-      <c r="G127" s="95"/>
+      <c r="B127" s="102"/>
+      <c r="C127" s="100"/>
+      <c r="D127" s="100"/>
+      <c r="E127" s="173"/>
+      <c r="F127" s="173"/>
+      <c r="G127" s="173"/>
       <c r="H127" s="67"/>
       <c r="I127" s="67"/>
       <c r="J127" s="67"/>
@@ -5318,12 +5318,12 @@
     </row>
     <row r="128" spans="1:25" ht="15.75" customHeight="1">
       <c r="A128" s="38"/>
-      <c r="B128" s="93"/>
-      <c r="C128" s="94"/>
-      <c r="D128" s="94"/>
-      <c r="E128" s="95"/>
-      <c r="F128" s="95"/>
-      <c r="G128" s="95"/>
+      <c r="B128" s="102"/>
+      <c r="C128" s="100"/>
+      <c r="D128" s="100"/>
+      <c r="E128" s="173"/>
+      <c r="F128" s="173"/>
+      <c r="G128" s="173"/>
       <c r="H128" s="67"/>
       <c r="I128" s="67"/>
       <c r="J128" s="67"/>
@@ -5345,12 +5345,12 @@
     </row>
     <row r="129" spans="1:25" ht="15.75" customHeight="1">
       <c r="A129" s="38"/>
-      <c r="B129" s="93"/>
-      <c r="C129" s="94"/>
-      <c r="D129" s="94"/>
-      <c r="E129" s="95"/>
-      <c r="F129" s="95"/>
-      <c r="G129" s="95"/>
+      <c r="B129" s="102"/>
+      <c r="C129" s="100"/>
+      <c r="D129" s="100"/>
+      <c r="E129" s="173"/>
+      <c r="F129" s="173"/>
+      <c r="G129" s="173"/>
       <c r="H129" s="67"/>
       <c r="I129" s="67"/>
       <c r="J129" s="67"/>
@@ -5864,7 +5864,9 @@
       <c r="E148" s="38"/>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
-      <c r="H148" s="38"/>
+      <c r="H148" s="38">
+        <v>0</v>
+      </c>
       <c r="I148" s="38"/>
       <c r="J148" s="38"/>
       <c r="K148" s="38"/>
@@ -11184,6 +11186,320 @@
     <row r="923" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="338">
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A29:G30"/>
+    <mergeCell ref="A108:C109"/>
+    <mergeCell ref="D108:F109"/>
+    <mergeCell ref="A110:C111"/>
+    <mergeCell ref="D110:F111"/>
+    <mergeCell ref="A112:C113"/>
+    <mergeCell ref="D112:F113"/>
+    <mergeCell ref="A114:C115"/>
+    <mergeCell ref="D114:F115"/>
+    <mergeCell ref="A116:C117"/>
+    <mergeCell ref="D116:F117"/>
+    <mergeCell ref="A118:C119"/>
+    <mergeCell ref="D118:F119"/>
+    <mergeCell ref="A120:C122"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="D120:F122"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="L122:N122"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="L79:L80"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="L49:L50"/>
@@ -11208,320 +11524,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="A79:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:M110"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="L116:M116"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="L117:M117"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="L118:M118"/>
-    <mergeCell ref="D120:F122"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="L119:M119"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="L122:N122"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A29:G30"/>
-    <mergeCell ref="A108:C109"/>
-    <mergeCell ref="D108:F109"/>
-    <mergeCell ref="A110:C111"/>
-    <mergeCell ref="D110:F111"/>
-    <mergeCell ref="A112:C113"/>
-    <mergeCell ref="D112:F113"/>
-    <mergeCell ref="A114:C115"/>
-    <mergeCell ref="D114:F115"/>
-    <mergeCell ref="A116:C117"/>
-    <mergeCell ref="D116:F117"/>
-    <mergeCell ref="A118:C119"/>
-    <mergeCell ref="D118:F119"/>
-    <mergeCell ref="A120:C122"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="E126:G126"/>
   </mergeCells>
   <pageMargins left="0.30277777777777798" right="0.30277777777777798" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>

--- a/Documents/Cashiers Report Format.xlsx
+++ b/Documents/Cashiers Report Format.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RECPC2\OneDrive\Documents\Github\TEVES-Laravel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1699C4-0254-4FA3-8A39-C2E8EE67B598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3752EC1-933F-484D-9F2E-7225AD59C9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="December 1-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>Cashier's Report</t>
   </si>
@@ -269,6 +270,9 @@
   <si>
     <t>input</t>
   </si>
+  <si>
+    <t>Deno</t>
+  </si>
 </sst>
 </file>
 
@@ -278,10 +282,10 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="166" formatCode="[$PHP]\ #,##0.00;[Red][$PHP]\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="&quot;₱&quot;#,##0.00_);[Red]\(&quot;₱&quot;#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="168" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,8 +433,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +555,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -802,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1036,6 +1066,273 @@
     <xf numFmtId="4" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1055,297 +1352,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="21" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="21" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1624,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A103" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:K49"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A97" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1651,19 +1703,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="13"/>
@@ -1816,17 +1868,17 @@
     <row r="6" spans="1:25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="100"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="16"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="40"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="100"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="94"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -1841,17 +1893,17 @@
       <c r="Y6" s="38"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="103" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="182" t="s">
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="96" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="17" t="s">
@@ -1860,14 +1912,14 @@
       <c r="I7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="112" t="s">
+      <c r="J7" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="113"/>
-      <c r="L7" s="115" t="s">
+      <c r="K7" s="102"/>
+      <c r="L7" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="116"/>
+      <c r="M7" s="195"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -1882,27 +1934,27 @@
       <c r="Y7" s="38"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="176"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="103" t="s">
+      <c r="A8" s="97"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="190" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="106" t="s">
+      <c r="D8" s="121"/>
+      <c r="E8" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="176"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="97"/>
       <c r="H8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
       <c r="N8" s="15"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -1923,14 +1975,14 @@
       <c r="B9" s="20">
         <v>1</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="178">
         <v>45</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="108">
+      <c r="D9" s="121"/>
+      <c r="E9" s="178">
         <v>78</v>
       </c>
-      <c r="F9" s="105"/>
+      <c r="F9" s="121"/>
       <c r="G9" s="21">
         <v>1</v>
       </c>
@@ -1941,15 +1993,15 @@
       <c r="I9" s="1">
         <v>78</v>
       </c>
-      <c r="J9" s="109">
+      <c r="J9" s="179">
         <f>I9*H9</f>
         <v>2496</v>
       </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="111" t="s">
+      <c r="K9" s="180"/>
+      <c r="L9" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="100"/>
+      <c r="M9" s="94"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
@@ -1970,21 +2022,21 @@
       <c r="B10" s="20">
         <v>2</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="105"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="121"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
       <c r="I10" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="109"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="111" t="s">
+      <c r="J10" s="179"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="111"/>
+      <c r="M10" s="171"/>
       <c r="N10" s="13" t="s">
         <v>20</v>
       </c>
@@ -2007,19 +2059,19 @@
       <c r="B11" s="20">
         <v>3</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="105"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="121"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="111" t="s">
+      <c r="J11" s="179"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="111"/>
+      <c r="M11" s="171"/>
       <c r="N11" s="13" t="s">
         <v>22</v>
       </c>
@@ -2042,17 +2094,17 @@
       <c r="B12" s="20">
         <v>4</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="105"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="121"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
@@ -2073,17 +2125,17 @@
       <c r="B13" s="20">
         <v>5</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="105"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
+      <c r="J13" s="179"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -2104,17 +2156,17 @@
       <c r="B14" s="20">
         <v>6</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="105"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -2129,24 +2181,24 @@
       <c r="Y14" s="38"/>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="123"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="169"/>
       <c r="H15" s="23"/>
       <c r="I15" s="45"/>
-      <c r="J15" s="124">
+      <c r="J15" s="176">
         <f>SUM(J9:K14)</f>
         <v>2496</v>
       </c>
-      <c r="K15" s="118"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -2163,8 +2215,8 @@
     <row r="16" spans="1:25">
       <c r="A16" s="24"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="100"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
@@ -2172,8 +2224,8 @@
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="46"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
+      <c r="L16" s="171"/>
+      <c r="M16" s="171"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -2194,17 +2246,17 @@
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="105"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="121"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -2225,17 +2277,17 @@
       <c r="B18" s="20">
         <v>2</v>
       </c>
-      <c r="C18" s="120"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="105"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="121"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -2250,21 +2302,21 @@
       <c r="Y18" s="38"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="123"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="169"/>
       <c r="H19" s="27"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="126"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="171"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13" t="s">
         <v>25</v>
@@ -2292,8 +2344,8 @@
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="46"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="171"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -2314,17 +2366,17 @@
       <c r="B21" s="20">
         <v>1</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="105"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="121"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -2345,17 +2397,17 @@
       <c r="B22" s="20">
         <v>2</v>
       </c>
-      <c r="C22" s="120"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="105"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="121"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="171"/>
       <c r="N22" s="13"/>
       <c r="O22" s="47"/>
       <c r="P22" s="13"/>
@@ -2376,17 +2428,17 @@
       <c r="B23" s="20">
         <v>3</v>
       </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="105"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="121"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="171"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -2407,17 +2459,17 @@
       <c r="B24" s="20">
         <v>4</v>
       </c>
-      <c r="C24" s="120"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="105"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="121"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -2432,23 +2484,23 @@
       <c r="Y24" s="38"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="123"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="169"/>
       <c r="H25" s="28"/>
       <c r="I25" s="21"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="100"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="94"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
@@ -2472,8 +2524,8 @@
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="48"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -2488,20 +2540,20 @@
       <c r="Y26" s="38"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A27" s="128" t="s">
+      <c r="A27" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="94" t="s">
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="183" t="s">
         <v>61</v>
       </c>
       <c r="M27" s="47"/>
@@ -2519,20 +2571,20 @@
       <c r="Y27" s="38"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A28" s="130" t="s">
+      <c r="A28" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="131"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="94"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="183"/>
       <c r="M28" s="49"/>
       <c r="N28" s="13"/>
       <c r="O28" s="50"/>
@@ -2548,25 +2600,25 @@
       <c r="Y28" s="38"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A29" s="187" t="s">
+      <c r="A29" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="188"/>
-      <c r="C29" s="188"/>
-      <c r="D29" s="188"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="183" t="s">
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="185" t="s">
+      <c r="I29" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="136" t="s">
+      <c r="J29" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="137"/>
+      <c r="K29" s="164"/>
       <c r="L29" s="51"/>
       <c r="M29" s="52"/>
       <c r="N29" s="53"/>
@@ -2583,17 +2635,17 @@
       <c r="Y29" s="38"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A30" s="189"/>
-      <c r="B30" s="190"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="190"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="190"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="139"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="166"/>
       <c r="L30" s="51"/>
       <c r="M30" s="52"/>
       <c r="N30" s="54"/>
@@ -2610,17 +2662,17 @@
       <c r="Y30" s="38"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A31" s="132"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="134"/>
+      <c r="A31" s="151"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="153"/>
       <c r="H31" s="31"/>
       <c r="I31" s="33"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="118"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="103"/>
       <c r="L31" s="47"/>
       <c r="M31" s="47"/>
       <c r="N31" s="47"/>
@@ -2637,17 +2689,17 @@
       <c r="Y31" s="38"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A32" s="132"/>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="134"/>
+      <c r="A32" s="151"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="153"/>
       <c r="H32" s="32"/>
       <c r="I32" s="33"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="118"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="103"/>
       <c r="L32" s="47"/>
       <c r="M32" s="47"/>
       <c r="N32" s="47"/>
@@ -2664,17 +2716,17 @@
       <c r="Y32" s="38"/>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A33" s="132"/>
-      <c r="B33" s="133"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="134"/>
+      <c r="A33" s="151"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="32"/>
       <c r="I33" s="33"/>
-      <c r="J33" s="135"/>
-      <c r="K33" s="118"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="103"/>
       <c r="L33" s="47"/>
       <c r="M33" s="47"/>
       <c r="N33" s="47"/>
@@ -2691,17 +2743,17 @@
       <c r="Y33" s="38"/>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A34" s="132"/>
-      <c r="B34" s="133"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="133"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="134"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="153"/>
       <c r="H34" s="32"/>
       <c r="I34" s="33"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="118"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="103"/>
       <c r="L34" s="47"/>
       <c r="M34" s="55"/>
       <c r="N34" s="55"/>
@@ -2718,17 +2770,17 @@
       <c r="Y34" s="38"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A35" s="132"/>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="134"/>
+      <c r="A35" s="151"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="153"/>
       <c r="H35" s="31"/>
       <c r="I35" s="33"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="118"/>
+      <c r="J35" s="154"/>
+      <c r="K35" s="103"/>
       <c r="L35" s="47"/>
       <c r="M35" s="55"/>
       <c r="N35" s="55"/>
@@ -2745,17 +2797,17 @@
       <c r="Y35" s="38"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A36" s="132"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="134"/>
+      <c r="A36" s="151"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="153"/>
       <c r="H36" s="31"/>
       <c r="I36" s="33"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="118"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="103"/>
       <c r="L36" s="47"/>
       <c r="M36" s="55"/>
       <c r="N36" s="55"/>
@@ -2772,17 +2824,17 @@
       <c r="Y36" s="38"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A37" s="132"/>
-      <c r="B37" s="133"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="134"/>
+      <c r="A37" s="151"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="153"/>
       <c r="H37" s="32"/>
       <c r="I37" s="33"/>
-      <c r="J37" s="135"/>
-      <c r="K37" s="118"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="103"/>
       <c r="L37" s="47"/>
       <c r="M37" s="55"/>
       <c r="N37" s="55"/>
@@ -2799,17 +2851,17 @@
       <c r="Y37" s="38"/>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A38" s="132"/>
-      <c r="B38" s="133"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="134"/>
+      <c r="A38" s="151"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="153"/>
       <c r="H38" s="32"/>
       <c r="I38" s="33"/>
-      <c r="J38" s="135"/>
-      <c r="K38" s="118"/>
+      <c r="J38" s="154"/>
+      <c r="K38" s="103"/>
       <c r="L38" s="47"/>
       <c r="M38" s="55"/>
       <c r="N38" s="55"/>
@@ -2826,17 +2878,17 @@
       <c r="Y38" s="38"/>
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A39" s="132"/>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="134"/>
+      <c r="A39" s="151"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="153"/>
       <c r="H39" s="32"/>
       <c r="I39" s="33"/>
-      <c r="J39" s="135"/>
-      <c r="K39" s="118"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="103"/>
       <c r="L39" s="47"/>
       <c r="M39" s="55"/>
       <c r="N39" s="55"/>
@@ -2853,17 +2905,17 @@
       <c r="Y39" s="38"/>
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A40" s="132"/>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="134"/>
+      <c r="A40" s="151"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="153"/>
       <c r="H40" s="32"/>
       <c r="I40" s="33"/>
-      <c r="J40" s="135"/>
-      <c r="K40" s="118"/>
+      <c r="J40" s="154"/>
+      <c r="K40" s="103"/>
       <c r="L40" s="47"/>
       <c r="M40" s="55"/>
       <c r="N40" s="55"/>
@@ -2880,17 +2932,17 @@
       <c r="Y40" s="38"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A41" s="132"/>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="134"/>
+      <c r="A41" s="151"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="153"/>
       <c r="H41" s="32"/>
       <c r="I41" s="33"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="105"/>
+      <c r="J41" s="155"/>
+      <c r="K41" s="121"/>
       <c r="L41" s="47"/>
       <c r="M41" s="55"/>
       <c r="N41" s="55"/>
@@ -2907,17 +2959,17 @@
       <c r="Y41" s="38"/>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A42" s="132"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="134"/>
+      <c r="A42" s="151"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="153"/>
       <c r="H42" s="32"/>
       <c r="I42" s="33"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="105"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="121"/>
       <c r="L42" s="47"/>
       <c r="M42" s="55"/>
       <c r="N42" s="55"/>
@@ -2934,17 +2986,17 @@
       <c r="Y42" s="38"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A43" s="132"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
-      <c r="D43" s="133"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="134"/>
+      <c r="A43" s="151"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="153"/>
       <c r="H43" s="32"/>
       <c r="I43" s="33"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="105"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="121"/>
       <c r="L43" s="47"/>
       <c r="M43" s="55"/>
       <c r="N43" s="55"/>
@@ -2961,17 +3013,17 @@
       <c r="Y43" s="38"/>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A44" s="132"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="134"/>
+      <c r="A44" s="151"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="153"/>
       <c r="H44" s="32"/>
       <c r="I44" s="33"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="105"/>
+      <c r="J44" s="155"/>
+      <c r="K44" s="121"/>
       <c r="L44" s="47"/>
       <c r="M44" s="55"/>
       <c r="N44" s="55"/>
@@ -2988,17 +3040,17 @@
       <c r="Y44" s="38"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A45" s="132"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="134"/>
+      <c r="A45" s="151"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="153"/>
       <c r="H45" s="32"/>
       <c r="I45" s="33"/>
-      <c r="J45" s="135"/>
-      <c r="K45" s="118"/>
+      <c r="J45" s="154"/>
+      <c r="K45" s="103"/>
       <c r="L45" s="47"/>
       <c r="M45" s="55"/>
       <c r="N45" s="55"/>
@@ -3015,17 +3067,17 @@
       <c r="Y45" s="38"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A46" s="132"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="134"/>
+      <c r="A46" s="151"/>
+      <c r="B46" s="152"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="153"/>
       <c r="H46" s="32"/>
       <c r="I46" s="33"/>
-      <c r="J46" s="135"/>
-      <c r="K46" s="118"/>
+      <c r="J46" s="154"/>
+      <c r="K46" s="103"/>
       <c r="L46" s="47"/>
       <c r="M46" s="55"/>
       <c r="N46" s="55"/>
@@ -3042,17 +3094,17 @@
       <c r="Y46" s="38"/>
     </row>
     <row r="47" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A47" s="132"/>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="134"/>
+      <c r="A47" s="151"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="153"/>
       <c r="H47" s="32"/>
       <c r="I47" s="33"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="105"/>
+      <c r="J47" s="155"/>
+      <c r="K47" s="121"/>
       <c r="L47" s="47"/>
       <c r="M47" s="55"/>
       <c r="N47" s="55"/>
@@ -3069,17 +3121,17 @@
       <c r="Y47" s="38"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A48" s="132"/>
-      <c r="B48" s="133"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
-      <c r="G48" s="134"/>
+      <c r="A48" s="151"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="152"/>
+      <c r="F48" s="152"/>
+      <c r="G48" s="153"/>
       <c r="H48" s="32"/>
       <c r="I48" s="33"/>
-      <c r="J48" s="140"/>
-      <c r="K48" s="105"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="121"/>
       <c r="L48" s="47"/>
       <c r="M48" s="55"/>
       <c r="N48" s="55"/>
@@ -3096,20 +3148,20 @@
       <c r="Y48" s="38"/>
     </row>
     <row r="49" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A49" s="141" t="s">
+      <c r="A49" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="142"/>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="142"/>
-      <c r="I49" s="142"/>
-      <c r="J49" s="142"/>
-      <c r="K49" s="143"/>
-      <c r="L49" s="95" t="s">
+      <c r="B49" s="157"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="157"/>
+      <c r="K49" s="158"/>
+      <c r="L49" s="184" t="s">
         <v>62</v>
       </c>
       <c r="M49" s="49"/>
@@ -3127,20 +3179,20 @@
       <c r="Y49" s="38"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A50" s="144" t="s">
+      <c r="A50" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="145"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="145"/>
-      <c r="E50" s="145"/>
-      <c r="F50" s="145"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="145"/>
-      <c r="I50" s="145"/>
-      <c r="J50" s="145"/>
-      <c r="K50" s="146"/>
-      <c r="L50" s="96"/>
+      <c r="B50" s="160"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="160"/>
+      <c r="K50" s="161"/>
+      <c r="L50" s="185"/>
       <c r="M50" s="49"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
@@ -3156,19 +3208,19 @@
       <c r="Y50" s="38"/>
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A51" s="147" t="s">
+      <c r="A51" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="131"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="131"/>
-      <c r="K51" s="118"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="110"/>
+      <c r="K51" s="103"/>
       <c r="L51" s="51"/>
       <c r="M51" s="51"/>
       <c r="N51" s="47"/>
@@ -3191,14 +3243,14 @@
       <c r="B52" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="148" t="s">
+      <c r="C52" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="149"/>
-      <c r="E52" s="150" t="s">
+      <c r="D52" s="148"/>
+      <c r="E52" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="151"/>
+      <c r="F52" s="150"/>
       <c r="G52" s="88" t="s">
         <v>37</v>
       </c>
@@ -3232,10 +3284,10 @@
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="34"/>
       <c r="B53" s="35"/>
-      <c r="C53" s="152"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="152"/>
-      <c r="F53" s="153"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="136"/>
       <c r="G53" s="34"/>
       <c r="H53" s="34"/>
       <c r="I53" s="34"/>
@@ -3261,10 +3313,10 @@
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="34"/>
       <c r="B54" s="35"/>
-      <c r="C54" s="152"/>
-      <c r="D54" s="153"/>
-      <c r="E54" s="152"/>
-      <c r="F54" s="153"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="136"/>
       <c r="G54" s="34"/>
       <c r="H54" s="34"/>
       <c r="I54" s="57"/>
@@ -3290,10 +3342,10 @@
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="34"/>
       <c r="B55" s="35"/>
-      <c r="C55" s="152"/>
-      <c r="D55" s="153"/>
-      <c r="E55" s="152"/>
-      <c r="F55" s="153"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="136"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="136"/>
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
       <c r="I55" s="57"/>
@@ -3317,10 +3369,10 @@
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="34"/>
       <c r="B56" s="35"/>
-      <c r="C56" s="152"/>
-      <c r="D56" s="153"/>
-      <c r="E56" s="152"/>
-      <c r="F56" s="153"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="136"/>
       <c r="G56" s="34"/>
       <c r="H56" s="34"/>
       <c r="I56" s="57"/>
@@ -3344,10 +3396,10 @@
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="34"/>
       <c r="B57" s="35"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="152"/>
-      <c r="F57" s="153"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="136"/>
       <c r="G57" s="34"/>
       <c r="H57" s="34"/>
       <c r="I57" s="57"/>
@@ -3371,10 +3423,10 @@
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="36"/>
       <c r="B58" s="35"/>
-      <c r="C58" s="152"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="152"/>
-      <c r="F58" s="153"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="136"/>
       <c r="G58" s="34"/>
       <c r="H58" s="34"/>
       <c r="I58" s="57"/>
@@ -3398,10 +3450,10 @@
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="36"/>
       <c r="B59" s="35"/>
-      <c r="C59" s="152"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="152"/>
-      <c r="F59" s="153"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="136"/>
       <c r="G59" s="34"/>
       <c r="H59" s="34"/>
       <c r="I59" s="57"/>
@@ -3425,10 +3477,10 @@
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="36"/>
       <c r="B60" s="35"/>
-      <c r="C60" s="152"/>
-      <c r="D60" s="153"/>
-      <c r="E60" s="152"/>
-      <c r="F60" s="153"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="136"/>
       <c r="G60" s="34"/>
       <c r="H60" s="34"/>
       <c r="I60" s="57"/>
@@ -3452,10 +3504,10 @@
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="36"/>
       <c r="B61" s="35"/>
-      <c r="C61" s="152"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="152"/>
-      <c r="F61" s="153"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="136"/>
       <c r="G61" s="34"/>
       <c r="H61" s="34"/>
       <c r="I61" s="57"/>
@@ -3479,10 +3531,10 @@
     <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="34"/>
       <c r="B62" s="35"/>
-      <c r="C62" s="152"/>
-      <c r="D62" s="153"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="153"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="136"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
       <c r="I62" s="57"/>
@@ -3505,10 +3557,10 @@
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="34"/>
       <c r="B63" s="35"/>
-      <c r="C63" s="152"/>
-      <c r="D63" s="153"/>
-      <c r="E63" s="152"/>
-      <c r="F63" s="153"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="135"/>
+      <c r="F63" s="136"/>
       <c r="G63" s="34"/>
       <c r="H63" s="34"/>
       <c r="I63" s="57"/>
@@ -3532,10 +3584,10 @@
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="34"/>
       <c r="B64" s="35"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="153"/>
-      <c r="E64" s="152"/>
-      <c r="F64" s="153"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="135"/>
+      <c r="F64" s="136"/>
       <c r="G64" s="34"/>
       <c r="H64" s="34"/>
       <c r="I64" s="57"/>
@@ -3559,10 +3611,10 @@
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="34"/>
       <c r="B65" s="35"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="153"/>
-      <c r="E65" s="154"/>
-      <c r="F65" s="153"/>
+      <c r="C65" s="135"/>
+      <c r="D65" s="136"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="136"/>
       <c r="G65" s="34"/>
       <c r="H65" s="34"/>
       <c r="I65" s="68"/>
@@ -3586,10 +3638,10 @@
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="34"/>
       <c r="B66" s="35"/>
-      <c r="C66" s="152"/>
-      <c r="D66" s="153"/>
-      <c r="E66" s="152"/>
-      <c r="F66" s="153"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="136"/>
+      <c r="E66" s="135"/>
+      <c r="F66" s="136"/>
       <c r="G66" s="34"/>
       <c r="H66" s="34"/>
       <c r="I66" s="57"/>
@@ -3613,10 +3665,10 @@
     <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="34"/>
       <c r="B67" s="35"/>
-      <c r="C67" s="152"/>
-      <c r="D67" s="153"/>
-      <c r="E67" s="152"/>
-      <c r="F67" s="153"/>
+      <c r="C67" s="135"/>
+      <c r="D67" s="136"/>
+      <c r="E67" s="135"/>
+      <c r="F67" s="136"/>
       <c r="G67" s="34"/>
       <c r="H67" s="34"/>
       <c r="I67" s="57"/>
@@ -3640,10 +3692,10 @@
     <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="34"/>
       <c r="B68" s="35"/>
-      <c r="C68" s="152"/>
-      <c r="D68" s="153"/>
-      <c r="E68" s="152"/>
-      <c r="F68" s="153"/>
+      <c r="C68" s="135"/>
+      <c r="D68" s="136"/>
+      <c r="E68" s="135"/>
+      <c r="F68" s="136"/>
       <c r="G68" s="34"/>
       <c r="H68" s="34"/>
       <c r="I68" s="57"/>
@@ -3667,10 +3719,10 @@
     <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="34"/>
       <c r="B69" s="35"/>
-      <c r="C69" s="152"/>
-      <c r="D69" s="153"/>
-      <c r="E69" s="152"/>
-      <c r="F69" s="153"/>
+      <c r="C69" s="135"/>
+      <c r="D69" s="136"/>
+      <c r="E69" s="135"/>
+      <c r="F69" s="136"/>
       <c r="G69" s="34"/>
       <c r="H69" s="34"/>
       <c r="I69" s="57"/>
@@ -3694,10 +3746,10 @@
     <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="34"/>
       <c r="B70" s="35"/>
-      <c r="C70" s="152"/>
-      <c r="D70" s="153"/>
-      <c r="E70" s="152"/>
-      <c r="F70" s="153"/>
+      <c r="C70" s="135"/>
+      <c r="D70" s="136"/>
+      <c r="E70" s="135"/>
+      <c r="F70" s="136"/>
       <c r="G70" s="34"/>
       <c r="H70" s="34"/>
       <c r="I70" s="57"/>
@@ -3721,10 +3773,10 @@
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="34"/>
       <c r="B71" s="35"/>
-      <c r="C71" s="152"/>
-      <c r="D71" s="153"/>
-      <c r="E71" s="152"/>
-      <c r="F71" s="153"/>
+      <c r="C71" s="135"/>
+      <c r="D71" s="136"/>
+      <c r="E71" s="135"/>
+      <c r="F71" s="136"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
       <c r="I71" s="57"/>
@@ -3748,10 +3800,10 @@
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="34"/>
       <c r="B72" s="35"/>
-      <c r="C72" s="152"/>
-      <c r="D72" s="153"/>
-      <c r="E72" s="152"/>
-      <c r="F72" s="153"/>
+      <c r="C72" s="135"/>
+      <c r="D72" s="136"/>
+      <c r="E72" s="135"/>
+      <c r="F72" s="136"/>
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
       <c r="I72" s="57"/>
@@ -3775,10 +3827,10 @@
     <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="34"/>
       <c r="B73" s="35"/>
-      <c r="C73" s="152"/>
-      <c r="D73" s="153"/>
-      <c r="E73" s="152"/>
-      <c r="F73" s="153"/>
+      <c r="C73" s="135"/>
+      <c r="D73" s="136"/>
+      <c r="E73" s="135"/>
+      <c r="F73" s="136"/>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
       <c r="I73" s="57"/>
@@ -3802,10 +3854,10 @@
     <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="59"/>
       <c r="B74" s="35"/>
-      <c r="C74" s="152"/>
-      <c r="D74" s="153"/>
-      <c r="E74" s="155"/>
-      <c r="F74" s="156"/>
+      <c r="C74" s="135"/>
+      <c r="D74" s="136"/>
+      <c r="E74" s="137"/>
+      <c r="F74" s="138"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
       <c r="I74" s="71"/>
@@ -3829,10 +3881,10 @@
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="59"/>
       <c r="B75" s="35"/>
-      <c r="C75" s="152"/>
-      <c r="D75" s="153"/>
-      <c r="E75" s="155"/>
-      <c r="F75" s="156"/>
+      <c r="C75" s="135"/>
+      <c r="D75" s="136"/>
+      <c r="E75" s="137"/>
+      <c r="F75" s="138"/>
       <c r="G75" s="34"/>
       <c r="H75" s="34"/>
       <c r="I75" s="71"/>
@@ -3856,10 +3908,10 @@
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="59"/>
       <c r="B76" s="35"/>
-      <c r="C76" s="152"/>
-      <c r="D76" s="153"/>
-      <c r="E76" s="155"/>
-      <c r="F76" s="156"/>
+      <c r="C76" s="135"/>
+      <c r="D76" s="136"/>
+      <c r="E76" s="137"/>
+      <c r="F76" s="138"/>
       <c r="G76" s="34"/>
       <c r="H76" s="34"/>
       <c r="I76" s="71"/>
@@ -3883,10 +3935,10 @@
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="59"/>
       <c r="B77" s="35"/>
-      <c r="C77" s="152"/>
-      <c r="D77" s="153"/>
-      <c r="E77" s="155"/>
-      <c r="F77" s="156"/>
+      <c r="C77" s="135"/>
+      <c r="D77" s="136"/>
+      <c r="E77" s="137"/>
+      <c r="F77" s="138"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
       <c r="I77" s="71"/>
@@ -3910,10 +3962,10 @@
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="59"/>
       <c r="B78" s="35"/>
-      <c r="C78" s="152"/>
-      <c r="D78" s="105"/>
-      <c r="E78" s="157"/>
-      <c r="F78" s="113"/>
+      <c r="C78" s="135"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="139"/>
+      <c r="F78" s="102"/>
       <c r="G78" s="60"/>
       <c r="H78" s="61"/>
       <c r="I78" s="71"/>
@@ -3935,20 +3987,20 @@
       <c r="Y78" s="38"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A79" s="158" t="s">
+      <c r="A79" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="159"/>
-      <c r="C79" s="159"/>
-      <c r="D79" s="159"/>
-      <c r="E79" s="159"/>
-      <c r="F79" s="159"/>
-      <c r="G79" s="159"/>
-      <c r="H79" s="159"/>
-      <c r="I79" s="159"/>
-      <c r="J79" s="159"/>
-      <c r="K79" s="160"/>
-      <c r="L79" s="93"/>
+      <c r="B79" s="141"/>
+      <c r="C79" s="141"/>
+      <c r="D79" s="141"/>
+      <c r="E79" s="141"/>
+      <c r="F79" s="141"/>
+      <c r="G79" s="141"/>
+      <c r="H79" s="141"/>
+      <c r="I79" s="141"/>
+      <c r="J79" s="141"/>
+      <c r="K79" s="142"/>
+      <c r="L79" s="182"/>
       <c r="M79" s="55"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
@@ -3967,27 +4019,27 @@
       <c r="A80" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="161" t="s">
+      <c r="B80" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="161"/>
-      <c r="D80" s="162" t="s">
+      <c r="C80" s="143"/>
+      <c r="D80" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="E80" s="162"/>
-      <c r="F80" s="162"/>
+      <c r="E80" s="144"/>
+      <c r="F80" s="144"/>
       <c r="G80" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="H80" s="163" t="s">
+      <c r="H80" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="I80" s="163"/>
-      <c r="J80" s="163" t="s">
+      <c r="I80" s="145"/>
+      <c r="J80" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="K80" s="163"/>
-      <c r="L80" s="93"/>
+      <c r="K80" s="145"/>
+      <c r="L80" s="182"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
@@ -4002,16 +4054,16 @@
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1">
       <c r="A81" s="62"/>
-      <c r="B81" s="164"/>
-      <c r="C81" s="164"/>
-      <c r="D81" s="164"/>
-      <c r="E81" s="164"/>
-      <c r="F81" s="164"/>
+      <c r="B81" s="130"/>
+      <c r="C81" s="130"/>
+      <c r="D81" s="130"/>
+      <c r="E81" s="130"/>
+      <c r="F81" s="130"/>
       <c r="G81" s="62"/>
-      <c r="H81" s="165"/>
-      <c r="I81" s="166"/>
-      <c r="J81" s="164"/>
-      <c r="K81" s="164"/>
+      <c r="H81" s="131"/>
+      <c r="I81" s="132"/>
+      <c r="J81" s="130"/>
+      <c r="K81" s="130"/>
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
@@ -4027,16 +4079,16 @@
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1">
       <c r="A82" s="62"/>
-      <c r="B82" s="164"/>
-      <c r="C82" s="164"/>
-      <c r="D82" s="164"/>
-      <c r="E82" s="164"/>
-      <c r="F82" s="164"/>
+      <c r="B82" s="130"/>
+      <c r="C82" s="130"/>
+      <c r="D82" s="130"/>
+      <c r="E82" s="130"/>
+      <c r="F82" s="130"/>
       <c r="G82" s="62"/>
-      <c r="H82" s="165"/>
-      <c r="I82" s="166"/>
-      <c r="J82" s="164"/>
-      <c r="K82" s="164"/>
+      <c r="H82" s="131"/>
+      <c r="I82" s="132"/>
+      <c r="J82" s="130"/>
+      <c r="K82" s="130"/>
       <c r="L82" s="13" t="s">
         <v>43</v>
       </c>
@@ -4054,16 +4106,16 @@
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1">
       <c r="A83" s="62"/>
-      <c r="B83" s="164"/>
-      <c r="C83" s="164"/>
-      <c r="D83" s="164"/>
-      <c r="E83" s="164"/>
-      <c r="F83" s="164"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="130"/>
+      <c r="D83" s="130"/>
+      <c r="E83" s="130"/>
+      <c r="F83" s="130"/>
       <c r="G83" s="62"/>
-      <c r="H83" s="165"/>
-      <c r="I83" s="166"/>
-      <c r="J83" s="164"/>
-      <c r="K83" s="164"/>
+      <c r="H83" s="131"/>
+      <c r="I83" s="132"/>
+      <c r="J83" s="130"/>
+      <c r="K83" s="130"/>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
@@ -4079,16 +4131,16 @@
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1">
       <c r="A84" s="62"/>
-      <c r="B84" s="164"/>
-      <c r="C84" s="164"/>
-      <c r="D84" s="164"/>
-      <c r="E84" s="164"/>
-      <c r="F84" s="164"/>
+      <c r="B84" s="130"/>
+      <c r="C84" s="130"/>
+      <c r="D84" s="130"/>
+      <c r="E84" s="130"/>
+      <c r="F84" s="130"/>
       <c r="G84" s="62"/>
-      <c r="H84" s="165"/>
-      <c r="I84" s="166"/>
-      <c r="J84" s="164"/>
-      <c r="K84" s="164"/>
+      <c r="H84" s="131"/>
+      <c r="I84" s="132"/>
+      <c r="J84" s="130"/>
+      <c r="K84" s="130"/>
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
@@ -4104,16 +4156,16 @@
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1">
       <c r="A85" s="62"/>
-      <c r="B85" s="164"/>
-      <c r="C85" s="164"/>
-      <c r="D85" s="164"/>
-      <c r="E85" s="164"/>
-      <c r="F85" s="164"/>
+      <c r="B85" s="130"/>
+      <c r="C85" s="130"/>
+      <c r="D85" s="130"/>
+      <c r="E85" s="130"/>
+      <c r="F85" s="130"/>
       <c r="G85" s="62"/>
-      <c r="H85" s="165"/>
-      <c r="I85" s="166"/>
-      <c r="J85" s="164"/>
-      <c r="K85" s="164"/>
+      <c r="H85" s="131"/>
+      <c r="I85" s="132"/>
+      <c r="J85" s="130"/>
+      <c r="K85" s="130"/>
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
@@ -4129,16 +4181,16 @@
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1">
       <c r="A86" s="62"/>
-      <c r="B86" s="164"/>
-      <c r="C86" s="164"/>
-      <c r="D86" s="164"/>
-      <c r="E86" s="164"/>
-      <c r="F86" s="164"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="130"/>
       <c r="G86" s="62"/>
-      <c r="H86" s="165"/>
-      <c r="I86" s="166"/>
-      <c r="J86" s="164"/>
-      <c r="K86" s="164"/>
+      <c r="H86" s="131"/>
+      <c r="I86" s="132"/>
+      <c r="J86" s="130"/>
+      <c r="K86" s="130"/>
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
@@ -4154,16 +4206,16 @@
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1">
       <c r="A87" s="62"/>
-      <c r="B87" s="164"/>
-      <c r="C87" s="164"/>
-      <c r="D87" s="164"/>
-      <c r="E87" s="164"/>
-      <c r="F87" s="164"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="130"/>
+      <c r="D87" s="130"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="130"/>
       <c r="G87" s="62"/>
-      <c r="H87" s="165"/>
-      <c r="I87" s="166"/>
-      <c r="J87" s="164"/>
-      <c r="K87" s="164"/>
+      <c r="H87" s="131"/>
+      <c r="I87" s="132"/>
+      <c r="J87" s="130"/>
+      <c r="K87" s="130"/>
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
@@ -4179,16 +4231,16 @@
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1">
       <c r="A88" s="62"/>
-      <c r="B88" s="164"/>
-      <c r="C88" s="164"/>
-      <c r="D88" s="164"/>
-      <c r="E88" s="164"/>
-      <c r="F88" s="164"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="130"/>
+      <c r="D88" s="130"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="130"/>
       <c r="G88" s="62"/>
-      <c r="H88" s="165"/>
-      <c r="I88" s="166"/>
-      <c r="J88" s="164"/>
-      <c r="K88" s="164"/>
+      <c r="H88" s="131"/>
+      <c r="I88" s="132"/>
+      <c r="J88" s="130"/>
+      <c r="K88" s="130"/>
       <c r="L88" s="47"/>
       <c r="M88" s="55"/>
       <c r="N88" s="13"/>
@@ -4206,16 +4258,16 @@
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1">
       <c r="A89" s="62"/>
-      <c r="B89" s="164"/>
-      <c r="C89" s="164"/>
-      <c r="D89" s="164"/>
-      <c r="E89" s="164"/>
-      <c r="F89" s="164"/>
+      <c r="B89" s="130"/>
+      <c r="C89" s="130"/>
+      <c r="D89" s="130"/>
+      <c r="E89" s="130"/>
+      <c r="F89" s="130"/>
       <c r="G89" s="62"/>
-      <c r="H89" s="165"/>
-      <c r="I89" s="166"/>
-      <c r="J89" s="164"/>
-      <c r="K89" s="164"/>
+      <c r="H89" s="131"/>
+      <c r="I89" s="132"/>
+      <c r="J89" s="130"/>
+      <c r="K89" s="130"/>
       <c r="L89" s="47"/>
       <c r="M89" s="55"/>
       <c r="N89" s="13"/>
@@ -4233,16 +4285,16 @@
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1">
       <c r="A90" s="62"/>
-      <c r="B90" s="164"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
-      <c r="E90" s="164"/>
-      <c r="F90" s="164"/>
+      <c r="B90" s="130"/>
+      <c r="C90" s="130"/>
+      <c r="D90" s="130"/>
+      <c r="E90" s="130"/>
+      <c r="F90" s="130"/>
       <c r="G90" s="62"/>
-      <c r="H90" s="165"/>
-      <c r="I90" s="166"/>
-      <c r="J90" s="164"/>
-      <c r="K90" s="164"/>
+      <c r="H90" s="131"/>
+      <c r="I90" s="132"/>
+      <c r="J90" s="130"/>
+      <c r="K90" s="130"/>
       <c r="L90" s="47"/>
       <c r="M90" s="55"/>
       <c r="N90" s="13"/>
@@ -4260,16 +4312,16 @@
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1">
       <c r="A91" s="62"/>
-      <c r="B91" s="164"/>
-      <c r="C91" s="164"/>
-      <c r="D91" s="164"/>
-      <c r="E91" s="164"/>
-      <c r="F91" s="164"/>
+      <c r="B91" s="130"/>
+      <c r="C91" s="130"/>
+      <c r="D91" s="130"/>
+      <c r="E91" s="130"/>
+      <c r="F91" s="130"/>
       <c r="G91" s="62"/>
-      <c r="H91" s="165"/>
-      <c r="I91" s="166"/>
-      <c r="J91" s="164"/>
-      <c r="K91" s="164"/>
+      <c r="H91" s="131"/>
+      <c r="I91" s="132"/>
+      <c r="J91" s="130"/>
+      <c r="K91" s="130"/>
       <c r="L91" s="47"/>
       <c r="M91" s="47"/>
       <c r="N91" s="13"/>
@@ -4287,16 +4339,16 @@
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1">
       <c r="A92" s="62"/>
-      <c r="B92" s="164"/>
-      <c r="C92" s="164"/>
-      <c r="D92" s="164"/>
-      <c r="E92" s="164"/>
-      <c r="F92" s="164"/>
+      <c r="B92" s="130"/>
+      <c r="C92" s="130"/>
+      <c r="D92" s="130"/>
+      <c r="E92" s="130"/>
+      <c r="F92" s="130"/>
       <c r="G92" s="62"/>
-      <c r="H92" s="165"/>
-      <c r="I92" s="166"/>
-      <c r="J92" s="164"/>
-      <c r="K92" s="164"/>
+      <c r="H92" s="131"/>
+      <c r="I92" s="132"/>
+      <c r="J92" s="130"/>
+      <c r="K92" s="130"/>
       <c r="L92" s="47"/>
       <c r="M92" s="47"/>
       <c r="N92" s="13"/>
@@ -4314,16 +4366,16 @@
     </row>
     <row r="93" spans="1:25" ht="15.75" customHeight="1">
       <c r="A93" s="62"/>
-      <c r="B93" s="164"/>
-      <c r="C93" s="164"/>
-      <c r="D93" s="164"/>
-      <c r="E93" s="164"/>
-      <c r="F93" s="164"/>
+      <c r="B93" s="130"/>
+      <c r="C93" s="130"/>
+      <c r="D93" s="130"/>
+      <c r="E93" s="130"/>
+      <c r="F93" s="130"/>
       <c r="G93" s="62"/>
-      <c r="H93" s="165"/>
-      <c r="I93" s="166"/>
-      <c r="J93" s="164"/>
-      <c r="K93" s="164"/>
+      <c r="H93" s="131"/>
+      <c r="I93" s="132"/>
+      <c r="J93" s="130"/>
+      <c r="K93" s="130"/>
       <c r="L93" s="47"/>
       <c r="M93" s="47"/>
       <c r="N93" s="13"/>
@@ -4341,16 +4393,16 @@
     </row>
     <row r="94" spans="1:25" ht="15.75" customHeight="1">
       <c r="A94" s="62"/>
-      <c r="B94" s="164"/>
-      <c r="C94" s="164"/>
-      <c r="D94" s="164"/>
-      <c r="E94" s="164"/>
-      <c r="F94" s="164"/>
+      <c r="B94" s="130"/>
+      <c r="C94" s="130"/>
+      <c r="D94" s="130"/>
+      <c r="E94" s="130"/>
+      <c r="F94" s="130"/>
       <c r="G94" s="62"/>
-      <c r="H94" s="165"/>
-      <c r="I94" s="166"/>
-      <c r="J94" s="164"/>
-      <c r="K94" s="164"/>
+      <c r="H94" s="131"/>
+      <c r="I94" s="132"/>
+      <c r="J94" s="130"/>
+      <c r="K94" s="130"/>
       <c r="L94" s="47"/>
       <c r="M94" s="47"/>
       <c r="N94" s="13"/>
@@ -4368,16 +4420,16 @@
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1">
       <c r="A95" s="62"/>
-      <c r="B95" s="164"/>
-      <c r="C95" s="164"/>
-      <c r="D95" s="164"/>
-      <c r="E95" s="164"/>
-      <c r="F95" s="164"/>
+      <c r="B95" s="130"/>
+      <c r="C95" s="130"/>
+      <c r="D95" s="130"/>
+      <c r="E95" s="130"/>
+      <c r="F95" s="130"/>
       <c r="G95" s="62"/>
-      <c r="H95" s="165"/>
-      <c r="I95" s="166"/>
-      <c r="J95" s="164"/>
-      <c r="K95" s="164"/>
+      <c r="H95" s="131"/>
+      <c r="I95" s="132"/>
+      <c r="J95" s="130"/>
+      <c r="K95" s="130"/>
       <c r="L95" s="47"/>
       <c r="M95" s="47"/>
       <c r="N95" s="13"/>
@@ -4395,16 +4447,16 @@
     </row>
     <row r="96" spans="1:25" ht="15.75" customHeight="1">
       <c r="A96" s="62"/>
-      <c r="B96" s="164"/>
-      <c r="C96" s="164"/>
-      <c r="D96" s="164"/>
-      <c r="E96" s="164"/>
-      <c r="F96" s="164"/>
+      <c r="B96" s="130"/>
+      <c r="C96" s="130"/>
+      <c r="D96" s="130"/>
+      <c r="E96" s="130"/>
+      <c r="F96" s="130"/>
       <c r="G96" s="62"/>
-      <c r="H96" s="165"/>
-      <c r="I96" s="166"/>
-      <c r="J96" s="164"/>
-      <c r="K96" s="164"/>
+      <c r="H96" s="131"/>
+      <c r="I96" s="132"/>
+      <c r="J96" s="130"/>
+      <c r="K96" s="130"/>
       <c r="L96" s="47"/>
       <c r="M96" s="47"/>
       <c r="N96" s="13"/>
@@ -4422,16 +4474,16 @@
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1">
       <c r="A97" s="62"/>
-      <c r="B97" s="164"/>
-      <c r="C97" s="164"/>
-      <c r="D97" s="164"/>
-      <c r="E97" s="164"/>
-      <c r="F97" s="164"/>
+      <c r="B97" s="130"/>
+      <c r="C97" s="130"/>
+      <c r="D97" s="130"/>
+      <c r="E97" s="130"/>
+      <c r="F97" s="130"/>
       <c r="G97" s="62"/>
-      <c r="H97" s="165"/>
-      <c r="I97" s="166"/>
-      <c r="J97" s="164"/>
-      <c r="K97" s="164"/>
+      <c r="H97" s="131"/>
+      <c r="I97" s="132"/>
+      <c r="J97" s="130"/>
+      <c r="K97" s="130"/>
       <c r="L97" s="47"/>
       <c r="M97" s="47"/>
       <c r="N97" s="13"/>
@@ -4449,16 +4501,16 @@
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1">
       <c r="A98" s="62"/>
-      <c r="B98" s="164"/>
-      <c r="C98" s="164"/>
-      <c r="D98" s="164"/>
-      <c r="E98" s="164"/>
-      <c r="F98" s="164"/>
+      <c r="B98" s="130"/>
+      <c r="C98" s="130"/>
+      <c r="D98" s="130"/>
+      <c r="E98" s="130"/>
+      <c r="F98" s="130"/>
       <c r="G98" s="62"/>
-      <c r="H98" s="165"/>
-      <c r="I98" s="166"/>
-      <c r="J98" s="164"/>
-      <c r="K98" s="164"/>
+      <c r="H98" s="131"/>
+      <c r="I98" s="132"/>
+      <c r="J98" s="130"/>
+      <c r="K98" s="130"/>
       <c r="L98" s="47"/>
       <c r="M98" s="47"/>
       <c r="N98" s="13"/>
@@ -4476,16 +4528,16 @@
     </row>
     <row r="99" spans="1:25" ht="15.75" customHeight="1">
       <c r="A99" s="62"/>
-      <c r="B99" s="164"/>
-      <c r="C99" s="164"/>
-      <c r="D99" s="164"/>
-      <c r="E99" s="164"/>
-      <c r="F99" s="164"/>
+      <c r="B99" s="130"/>
+      <c r="C99" s="130"/>
+      <c r="D99" s="130"/>
+      <c r="E99" s="130"/>
+      <c r="F99" s="130"/>
       <c r="G99" s="62"/>
-      <c r="H99" s="165"/>
-      <c r="I99" s="166"/>
-      <c r="J99" s="164"/>
-      <c r="K99" s="164"/>
+      <c r="H99" s="131"/>
+      <c r="I99" s="132"/>
+      <c r="J99" s="130"/>
+      <c r="K99" s="130"/>
       <c r="L99" s="47"/>
       <c r="M99" s="47"/>
       <c r="N99" s="13"/>
@@ -4503,16 +4555,16 @@
     </row>
     <row r="100" spans="1:25" ht="15.75" customHeight="1">
       <c r="A100" s="62"/>
-      <c r="B100" s="164"/>
-      <c r="C100" s="164"/>
-      <c r="D100" s="164"/>
-      <c r="E100" s="164"/>
-      <c r="F100" s="164"/>
+      <c r="B100" s="130"/>
+      <c r="C100" s="130"/>
+      <c r="D100" s="130"/>
+      <c r="E100" s="130"/>
+      <c r="F100" s="130"/>
       <c r="G100" s="62"/>
-      <c r="H100" s="165"/>
-      <c r="I100" s="166"/>
-      <c r="J100" s="164"/>
-      <c r="K100" s="164"/>
+      <c r="H100" s="131"/>
+      <c r="I100" s="132"/>
+      <c r="J100" s="130"/>
+      <c r="K100" s="130"/>
       <c r="L100" s="47"/>
       <c r="M100" s="47"/>
       <c r="N100" s="13"/>
@@ -4530,16 +4582,16 @@
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1">
       <c r="A101" s="62"/>
-      <c r="B101" s="164"/>
-      <c r="C101" s="164"/>
-      <c r="D101" s="164"/>
-      <c r="E101" s="164"/>
-      <c r="F101" s="164"/>
+      <c r="B101" s="130"/>
+      <c r="C101" s="130"/>
+      <c r="D101" s="130"/>
+      <c r="E101" s="130"/>
+      <c r="F101" s="130"/>
       <c r="G101" s="62"/>
-      <c r="H101" s="165"/>
-      <c r="I101" s="166"/>
-      <c r="J101" s="164"/>
-      <c r="K101" s="164"/>
+      <c r="H101" s="131"/>
+      <c r="I101" s="132"/>
+      <c r="J101" s="130"/>
+      <c r="K101" s="130"/>
       <c r="L101" s="47"/>
       <c r="M101" s="47"/>
       <c r="N101" s="13"/>
@@ -4557,16 +4609,16 @@
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="62"/>
-      <c r="B102" s="164"/>
-      <c r="C102" s="164"/>
-      <c r="D102" s="164"/>
-      <c r="E102" s="164"/>
-      <c r="F102" s="164"/>
+      <c r="B102" s="130"/>
+      <c r="C102" s="130"/>
+      <c r="D102" s="130"/>
+      <c r="E102" s="130"/>
+      <c r="F102" s="130"/>
       <c r="G102" s="62"/>
-      <c r="H102" s="165"/>
-      <c r="I102" s="166"/>
-      <c r="J102" s="164"/>
-      <c r="K102" s="164"/>
+      <c r="H102" s="131"/>
+      <c r="I102" s="132"/>
+      <c r="J102" s="130"/>
+      <c r="K102" s="130"/>
       <c r="L102" s="47"/>
       <c r="M102" s="47"/>
       <c r="N102" s="13"/>
@@ -4584,16 +4636,16 @@
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="62"/>
-      <c r="B103" s="164"/>
-      <c r="C103" s="164"/>
-      <c r="D103" s="164"/>
-      <c r="E103" s="164"/>
-      <c r="F103" s="164"/>
+      <c r="B103" s="130"/>
+      <c r="C103" s="130"/>
+      <c r="D103" s="130"/>
+      <c r="E103" s="130"/>
+      <c r="F103" s="130"/>
       <c r="G103" s="62"/>
-      <c r="H103" s="165"/>
-      <c r="I103" s="166"/>
-      <c r="J103" s="164"/>
-      <c r="K103" s="164"/>
+      <c r="H103" s="131"/>
+      <c r="I103" s="132"/>
+      <c r="J103" s="130"/>
+      <c r="K103" s="130"/>
       <c r="L103" s="47"/>
       <c r="M103" s="47"/>
       <c r="N103" s="13"/>
@@ -4611,16 +4663,16 @@
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1">
       <c r="A104" s="62"/>
-      <c r="B104" s="164"/>
-      <c r="C104" s="164"/>
-      <c r="D104" s="164"/>
-      <c r="E104" s="164"/>
-      <c r="F104" s="164"/>
+      <c r="B104" s="130"/>
+      <c r="C104" s="130"/>
+      <c r="D104" s="130"/>
+      <c r="E104" s="130"/>
+      <c r="F104" s="130"/>
       <c r="G104" s="62"/>
-      <c r="H104" s="165"/>
-      <c r="I104" s="166"/>
-      <c r="J104" s="164"/>
-      <c r="K104" s="164"/>
+      <c r="H104" s="131"/>
+      <c r="I104" s="132"/>
+      <c r="J104" s="130"/>
+      <c r="K104" s="130"/>
       <c r="L104" s="47"/>
       <c r="M104" s="47"/>
       <c r="N104" s="13"/>
@@ -4638,16 +4690,16 @@
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1">
       <c r="A105" s="62"/>
-      <c r="B105" s="164"/>
-      <c r="C105" s="164"/>
-      <c r="D105" s="164"/>
-      <c r="E105" s="164"/>
-      <c r="F105" s="164"/>
+      <c r="B105" s="130"/>
+      <c r="C105" s="130"/>
+      <c r="D105" s="130"/>
+      <c r="E105" s="130"/>
+      <c r="F105" s="130"/>
       <c r="G105" s="62"/>
-      <c r="H105" s="165"/>
-      <c r="I105" s="166"/>
-      <c r="J105" s="164"/>
-      <c r="K105" s="164"/>
+      <c r="H105" s="131"/>
+      <c r="I105" s="132"/>
+      <c r="J105" s="130"/>
+      <c r="K105" s="130"/>
       <c r="L105" s="47"/>
       <c r="M105" s="47"/>
       <c r="N105" s="13"/>
@@ -4665,16 +4717,16 @@
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1">
       <c r="A106" s="62"/>
-      <c r="B106" s="164"/>
-      <c r="C106" s="164"/>
-      <c r="D106" s="164"/>
-      <c r="E106" s="164"/>
-      <c r="F106" s="164"/>
+      <c r="B106" s="130"/>
+      <c r="C106" s="130"/>
+      <c r="D106" s="130"/>
+      <c r="E106" s="130"/>
+      <c r="F106" s="130"/>
       <c r="G106" s="62"/>
-      <c r="H106" s="165"/>
-      <c r="I106" s="166"/>
-      <c r="J106" s="164"/>
-      <c r="K106" s="164"/>
+      <c r="H106" s="131"/>
+      <c r="I106" s="132"/>
+      <c r="J106" s="130"/>
+      <c r="K106" s="130"/>
       <c r="L106" s="47"/>
       <c r="M106" s="47"/>
       <c r="N106" s="13"/>
@@ -4691,19 +4743,19 @@
       <c r="Y106" s="38"/>
     </row>
     <row r="107" spans="1:25" ht="21" customHeight="1">
-      <c r="A107" s="167" t="s">
+      <c r="A107" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="167"/>
-      <c r="C107" s="167"/>
-      <c r="D107" s="167"/>
-      <c r="E107" s="167"/>
-      <c r="F107" s="167"/>
-      <c r="G107" s="168"/>
-      <c r="H107" s="100"/>
-      <c r="I107" s="100"/>
-      <c r="J107" s="100"/>
-      <c r="K107" s="114"/>
+      <c r="B107" s="133"/>
+      <c r="C107" s="133"/>
+      <c r="D107" s="133"/>
+      <c r="E107" s="133"/>
+      <c r="F107" s="133"/>
+      <c r="G107" s="134"/>
+      <c r="H107" s="94"/>
+      <c r="I107" s="94"/>
+      <c r="J107" s="94"/>
+      <c r="K107" s="109"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
@@ -4720,24 +4772,24 @@
       <c r="Y107" s="38"/>
     </row>
     <row r="108" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A108" s="191" t="s">
+      <c r="A108" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="B108" s="100"/>
-      <c r="C108" s="114"/>
-      <c r="D108" s="192" t="str">
+      <c r="B108" s="94"/>
+      <c r="C108" s="109"/>
+      <c r="D108" s="111" t="str">
         <f>L7</f>
         <v>Sec1</v>
       </c>
-      <c r="E108" s="100"/>
-      <c r="F108" s="114"/>
+      <c r="E108" s="94"/>
+      <c r="F108" s="109"/>
       <c r="G108" s="5"/>
-      <c r="H108" s="169" t="s">
+      <c r="H108" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="I108" s="104"/>
-      <c r="J108" s="104"/>
-      <c r="K108" s="105"/>
+      <c r="I108" s="127"/>
+      <c r="J108" s="127"/>
+      <c r="K108" s="121"/>
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>
@@ -4754,12 +4806,12 @@
       <c r="Y108" s="38"/>
     </row>
     <row r="109" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A109" s="176"/>
-      <c r="B109" s="131"/>
-      <c r="C109" s="118"/>
-      <c r="D109" s="176"/>
-      <c r="E109" s="131"/>
-      <c r="F109" s="118"/>
+      <c r="A109" s="97"/>
+      <c r="B109" s="110"/>
+      <c r="C109" s="103"/>
+      <c r="D109" s="97"/>
+      <c r="E109" s="110"/>
+      <c r="F109" s="103"/>
       <c r="K109" s="72"/>
       <c r="L109" s="73"/>
       <c r="M109" s="73"/>
@@ -4777,17 +4829,17 @@
       <c r="Y109" s="38"/>
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A110" s="193" t="s">
+      <c r="A110" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="B110" s="129"/>
-      <c r="C110" s="113"/>
-      <c r="D110" s="194" t="str">
+      <c r="B110" s="112"/>
+      <c r="C110" s="102"/>
+      <c r="D110" s="113" t="str">
         <f>L27</f>
         <v>sec2</v>
       </c>
-      <c r="E110" s="129"/>
-      <c r="F110" s="113"/>
+      <c r="E110" s="112"/>
+      <c r="F110" s="102"/>
       <c r="G110" s="25"/>
       <c r="H110" s="63" t="s">
         <v>48</v>
@@ -4795,12 +4847,12 @@
       <c r="I110" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="J110" s="170" t="s">
+      <c r="J110" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="K110" s="105"/>
-      <c r="L110" s="171"/>
-      <c r="M110" s="171"/>
+      <c r="K110" s="121"/>
+      <c r="L110" s="129"/>
+      <c r="M110" s="129"/>
       <c r="N110" s="13"/>
       <c r="O110" s="47"/>
       <c r="P110" s="13"/>
@@ -4815,21 +4867,26 @@
       <c r="Y110" s="38"/>
     </row>
     <row r="111" spans="1:25" ht="24" customHeight="1">
-      <c r="A111" s="176"/>
-      <c r="B111" s="131"/>
-      <c r="C111" s="118"/>
-      <c r="D111" s="176"/>
-      <c r="E111" s="131"/>
-      <c r="F111" s="118"/>
+      <c r="A111" s="97"/>
+      <c r="B111" s="110"/>
+      <c r="C111" s="103"/>
+      <c r="D111" s="97"/>
+      <c r="E111" s="110"/>
+      <c r="F111" s="103"/>
       <c r="G111" s="25"/>
       <c r="H111" s="64">
         <v>1000</v>
       </c>
-      <c r="I111" s="75"/>
-      <c r="J111" s="172"/>
-      <c r="K111" s="105"/>
-      <c r="L111" s="173"/>
-      <c r="M111" s="173"/>
+      <c r="I111" s="75">
+        <v>1</v>
+      </c>
+      <c r="J111" s="120">
+        <f>1000*I111</f>
+        <v>1000</v>
+      </c>
+      <c r="K111" s="121"/>
+      <c r="L111" s="95"/>
+      <c r="M111" s="95"/>
       <c r="N111" s="13"/>
       <c r="O111" s="47"/>
       <c r="P111" s="13"/>
@@ -4844,23 +4901,28 @@
       <c r="Y111" s="38"/>
     </row>
     <row r="112" spans="1:25" ht="21" customHeight="1">
-      <c r="A112" s="195" t="s">
+      <c r="A112" s="204" t="s">
         <v>51</v>
       </c>
-      <c r="B112" s="129"/>
-      <c r="C112" s="113"/>
-      <c r="D112" s="196"/>
-      <c r="E112" s="129"/>
-      <c r="F112" s="113"/>
+      <c r="B112" s="112"/>
+      <c r="C112" s="102"/>
+      <c r="D112" s="115"/>
+      <c r="E112" s="112"/>
+      <c r="F112" s="102"/>
       <c r="G112" s="65"/>
       <c r="H112" s="64">
         <v>500</v>
       </c>
-      <c r="I112" s="75"/>
-      <c r="J112" s="172"/>
-      <c r="K112" s="105"/>
-      <c r="L112" s="173"/>
-      <c r="M112" s="173"/>
+      <c r="I112" s="75">
+        <v>1</v>
+      </c>
+      <c r="J112" s="120">
+        <f>500*I112</f>
+        <v>500</v>
+      </c>
+      <c r="K112" s="121"/>
+      <c r="L112" s="95"/>
+      <c r="M112" s="95"/>
       <c r="N112" s="13"/>
       <c r="O112" s="47"/>
       <c r="P112" s="13"/>
@@ -4875,21 +4937,26 @@
       <c r="Y112" s="38"/>
     </row>
     <row r="113" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A113" s="176"/>
-      <c r="B113" s="131"/>
-      <c r="C113" s="118"/>
-      <c r="D113" s="176"/>
-      <c r="E113" s="131"/>
-      <c r="F113" s="118"/>
+      <c r="A113" s="97"/>
+      <c r="B113" s="110"/>
+      <c r="C113" s="103"/>
+      <c r="D113" s="97"/>
+      <c r="E113" s="110"/>
+      <c r="F113" s="103"/>
       <c r="G113" s="65"/>
       <c r="H113" s="64">
         <v>200</v>
       </c>
-      <c r="I113" s="75"/>
-      <c r="J113" s="172"/>
-      <c r="K113" s="105"/>
-      <c r="L113" s="173"/>
-      <c r="M113" s="173"/>
+      <c r="I113" s="75">
+        <v>1</v>
+      </c>
+      <c r="J113" s="120">
+        <f>200*I113</f>
+        <v>200</v>
+      </c>
+      <c r="K113" s="121"/>
+      <c r="L113" s="95"/>
+      <c r="M113" s="95"/>
       <c r="N113" s="13"/>
       <c r="O113" s="47"/>
       <c r="P113" s="13"/>
@@ -4904,26 +4971,31 @@
       <c r="Y113" s="38"/>
     </row>
     <row r="114" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A114" s="195" t="s">
+      <c r="A114" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="B114" s="129"/>
-      <c r="C114" s="113"/>
-      <c r="D114" s="194" t="str">
+      <c r="B114" s="112"/>
+      <c r="C114" s="102"/>
+      <c r="D114" s="113" t="str">
         <f>L49</f>
         <v>sec3</v>
       </c>
-      <c r="E114" s="129"/>
-      <c r="F114" s="113"/>
+      <c r="E114" s="112"/>
+      <c r="F114" s="102"/>
       <c r="G114" s="65"/>
       <c r="H114" s="64">
         <v>100</v>
       </c>
-      <c r="I114" s="75"/>
-      <c r="J114" s="172"/>
-      <c r="K114" s="105"/>
-      <c r="L114" s="173"/>
-      <c r="M114" s="173"/>
+      <c r="I114" s="75">
+        <v>1</v>
+      </c>
+      <c r="J114" s="120">
+        <f>100*I114</f>
+        <v>100</v>
+      </c>
+      <c r="K114" s="121"/>
+      <c r="L114" s="95"/>
+      <c r="M114" s="95"/>
       <c r="N114" s="13"/>
       <c r="O114" s="47"/>
       <c r="P114" s="13"/>
@@ -4938,21 +5010,26 @@
       <c r="Y114" s="38"/>
     </row>
     <row r="115" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A115" s="176"/>
-      <c r="B115" s="131"/>
-      <c r="C115" s="118"/>
-      <c r="D115" s="176"/>
-      <c r="E115" s="131"/>
-      <c r="F115" s="118"/>
+      <c r="A115" s="97"/>
+      <c r="B115" s="110"/>
+      <c r="C115" s="103"/>
+      <c r="D115" s="97"/>
+      <c r="E115" s="110"/>
+      <c r="F115" s="103"/>
       <c r="G115" s="65"/>
       <c r="H115" s="64">
         <v>50</v>
       </c>
-      <c r="I115" s="75"/>
-      <c r="J115" s="172"/>
-      <c r="K115" s="105"/>
-      <c r="L115" s="173"/>
-      <c r="M115" s="173"/>
+      <c r="I115" s="75">
+        <v>1</v>
+      </c>
+      <c r="J115" s="120">
+        <f>50*I115</f>
+        <v>50</v>
+      </c>
+      <c r="K115" s="121"/>
+      <c r="L115" s="95"/>
+      <c r="M115" s="95"/>
       <c r="N115" s="13"/>
       <c r="O115" s="47"/>
       <c r="P115" s="47"/>
@@ -4967,23 +5044,28 @@
       <c r="Y115" s="38"/>
     </row>
     <row r="116" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A116" s="195" t="s">
+      <c r="A116" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="B116" s="129"/>
-      <c r="C116" s="113"/>
-      <c r="D116" s="196"/>
-      <c r="E116" s="129"/>
-      <c r="F116" s="113"/>
+      <c r="B116" s="112"/>
+      <c r="C116" s="102"/>
+      <c r="D116" s="115"/>
+      <c r="E116" s="112"/>
+      <c r="F116" s="102"/>
       <c r="G116" s="65"/>
       <c r="H116" s="64">
         <v>20</v>
       </c>
-      <c r="I116" s="75"/>
-      <c r="J116" s="172"/>
-      <c r="K116" s="105"/>
-      <c r="L116" s="173"/>
-      <c r="M116" s="173"/>
+      <c r="I116" s="75">
+        <v>1</v>
+      </c>
+      <c r="J116" s="120">
+        <f>20*I116</f>
+        <v>20</v>
+      </c>
+      <c r="K116" s="121"/>
+      <c r="L116" s="95"/>
+      <c r="M116" s="95"/>
       <c r="N116" s="13"/>
       <c r="O116" s="47"/>
       <c r="P116" s="47"/>
@@ -4998,21 +5080,26 @@
       <c r="Y116" s="38"/>
     </row>
     <row r="117" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A117" s="176"/>
-      <c r="B117" s="131"/>
-      <c r="C117" s="118"/>
-      <c r="D117" s="176"/>
-      <c r="E117" s="131"/>
-      <c r="F117" s="118"/>
+      <c r="A117" s="97"/>
+      <c r="B117" s="110"/>
+      <c r="C117" s="103"/>
+      <c r="D117" s="97"/>
+      <c r="E117" s="110"/>
+      <c r="F117" s="103"/>
       <c r="G117" s="65"/>
       <c r="H117" s="64">
         <v>10</v>
       </c>
-      <c r="I117" s="75"/>
-      <c r="J117" s="172"/>
-      <c r="K117" s="105"/>
-      <c r="L117" s="173"/>
-      <c r="M117" s="173"/>
+      <c r="I117" s="75">
+        <v>1</v>
+      </c>
+      <c r="J117" s="120">
+        <f>10*I117</f>
+        <v>10</v>
+      </c>
+      <c r="K117" s="121"/>
+      <c r="L117" s="95"/>
+      <c r="M117" s="95"/>
       <c r="N117" s="13"/>
       <c r="O117" s="47"/>
       <c r="P117" s="13"/>
@@ -5027,23 +5114,28 @@
       <c r="Y117" s="38"/>
     </row>
     <row r="118" spans="1:25" ht="21" customHeight="1">
-      <c r="A118" s="195" t="s">
+      <c r="A118" s="204" t="s">
         <v>54</v>
       </c>
-      <c r="B118" s="129"/>
-      <c r="C118" s="113"/>
-      <c r="D118" s="196"/>
-      <c r="E118" s="129"/>
-      <c r="F118" s="113"/>
+      <c r="B118" s="112"/>
+      <c r="C118" s="102"/>
+      <c r="D118" s="115"/>
+      <c r="E118" s="112"/>
+      <c r="F118" s="102"/>
       <c r="G118" s="65"/>
       <c r="H118" s="64">
         <v>5</v>
       </c>
-      <c r="I118" s="75"/>
-      <c r="J118" s="172"/>
-      <c r="K118" s="105"/>
-      <c r="L118" s="173"/>
-      <c r="M118" s="173"/>
+      <c r="I118" s="75">
+        <v>1</v>
+      </c>
+      <c r="J118" s="120">
+        <f>5*I118</f>
+        <v>5</v>
+      </c>
+      <c r="K118" s="121"/>
+      <c r="L118" s="95"/>
+      <c r="M118" s="95"/>
       <c r="N118" s="13"/>
       <c r="O118" s="47"/>
       <c r="P118" s="13"/>
@@ -5058,23 +5150,28 @@
       <c r="Y118" s="38"/>
     </row>
     <row r="119" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A119" s="176"/>
-      <c r="B119" s="131"/>
-      <c r="C119" s="118"/>
-      <c r="D119" s="176"/>
-      <c r="E119" s="131"/>
-      <c r="F119" s="118"/>
+      <c r="A119" s="97"/>
+      <c r="B119" s="110"/>
+      <c r="C119" s="103"/>
+      <c r="D119" s="97"/>
+      <c r="E119" s="110"/>
+      <c r="F119" s="103"/>
       <c r="G119" s="65"/>
       <c r="H119" s="64">
         <v>1</v>
       </c>
-      <c r="I119" s="75"/>
-      <c r="J119" s="172"/>
-      <c r="K119" s="105"/>
-      <c r="L119" s="173" t="s">
+      <c r="I119" s="75">
+        <v>1</v>
+      </c>
+      <c r="J119" s="120">
+        <f>1*I119</f>
+        <v>1</v>
+      </c>
+      <c r="K119" s="121"/>
+      <c r="L119" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="M119" s="173"/>
+      <c r="M119" s="95"/>
       <c r="N119" s="13"/>
       <c r="O119" s="47"/>
       <c r="P119" s="13"/>
@@ -5089,25 +5186,30 @@
       <c r="Y119" s="38"/>
     </row>
     <row r="120" spans="1:25" ht="21" customHeight="1">
-      <c r="A120" s="195" t="s">
+      <c r="A120" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="B120" s="129"/>
-      <c r="C120" s="113"/>
-      <c r="D120" s="174"/>
-      <c r="E120" s="129"/>
-      <c r="F120" s="113"/>
+      <c r="B120" s="112"/>
+      <c r="C120" s="102"/>
+      <c r="D120" s="119"/>
+      <c r="E120" s="112"/>
+      <c r="F120" s="102"/>
       <c r="G120" s="65"/>
       <c r="H120" s="64">
         <v>0.25</v>
       </c>
-      <c r="I120" s="76"/>
-      <c r="J120" s="172"/>
-      <c r="K120" s="105"/>
-      <c r="L120" s="177" t="s">
+      <c r="I120" s="76">
+        <v>1</v>
+      </c>
+      <c r="J120" s="120">
+        <f>0.25*I120</f>
+        <v>0.25</v>
+      </c>
+      <c r="K120" s="121"/>
+      <c r="L120" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="M120" s="177"/>
+      <c r="M120" s="122"/>
       <c r="N120" s="13"/>
       <c r="O120" s="47"/>
       <c r="P120" s="50"/>
@@ -5122,19 +5224,22 @@
       <c r="Y120" s="38"/>
     </row>
     <row r="121" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A121" s="175"/>
-      <c r="B121" s="195"/>
-      <c r="C121" s="114"/>
-      <c r="D121" s="175"/>
-      <c r="E121" s="174"/>
-      <c r="F121" s="114"/>
+      <c r="A121" s="116"/>
+      <c r="B121" s="114"/>
+      <c r="C121" s="109"/>
+      <c r="D121" s="116"/>
+      <c r="E121" s="119"/>
+      <c r="F121" s="109"/>
       <c r="G121" s="65"/>
-      <c r="H121" s="178" t="s">
+      <c r="H121" s="201" t="s">
         <v>57</v>
       </c>
-      <c r="I121" s="105"/>
-      <c r="J121" s="172"/>
-      <c r="K121" s="105"/>
+      <c r="I121" s="121"/>
+      <c r="J121" s="120">
+        <f>SUM(J111:K120)</f>
+        <v>1886.25</v>
+      </c>
+      <c r="K121" s="121"/>
       <c r="L121" s="77"/>
       <c r="M121" s="51"/>
       <c r="N121" s="13"/>
@@ -5151,22 +5256,22 @@
       <c r="Y121" s="38"/>
     </row>
     <row r="122" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A122" s="176"/>
-      <c r="B122" s="131"/>
-      <c r="C122" s="118"/>
-      <c r="D122" s="176"/>
-      <c r="E122" s="131"/>
-      <c r="F122" s="118"/>
+      <c r="A122" s="97"/>
+      <c r="B122" s="110"/>
+      <c r="C122" s="103"/>
+      <c r="D122" s="97"/>
+      <c r="E122" s="110"/>
+      <c r="F122" s="103"/>
       <c r="G122" s="65"/>
-      <c r="H122" s="179" t="s">
+      <c r="H122" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="I122" s="105"/>
-      <c r="J122" s="180"/>
-      <c r="K122" s="105"/>
-      <c r="L122" s="181"/>
-      <c r="M122" s="181"/>
-      <c r="N122" s="181"/>
+      <c r="I122" s="121"/>
+      <c r="J122" s="124"/>
+      <c r="K122" s="121"/>
+      <c r="L122" s="125"/>
+      <c r="M122" s="125"/>
+      <c r="N122" s="125"/>
       <c r="O122" s="47"/>
       <c r="P122" s="13"/>
       <c r="Q122" s="13"/>
@@ -5237,12 +5342,12 @@
     </row>
     <row r="125" spans="1:25" ht="15.75" customHeight="1">
       <c r="A125" s="13"/>
-      <c r="B125" s="197"/>
-      <c r="C125" s="100"/>
-      <c r="D125" s="100"/>
-      <c r="E125" s="125"/>
-      <c r="F125" s="100"/>
-      <c r="G125" s="100"/>
+      <c r="B125" s="117"/>
+      <c r="C125" s="94"/>
+      <c r="D125" s="94"/>
+      <c r="E125" s="118"/>
+      <c r="F125" s="94"/>
+      <c r="G125" s="94"/>
       <c r="H125" s="26"/>
       <c r="I125" s="26"/>
       <c r="J125" s="43"/>
@@ -5264,12 +5369,12 @@
     </row>
     <row r="126" spans="1:25" ht="15.75" customHeight="1">
       <c r="A126" s="13"/>
-      <c r="B126" s="102"/>
-      <c r="C126" s="100"/>
-      <c r="D126" s="100"/>
-      <c r="E126" s="173"/>
-      <c r="F126" s="173"/>
-      <c r="G126" s="173"/>
+      <c r="B126" s="93"/>
+      <c r="C126" s="94"/>
+      <c r="D126" s="94"/>
+      <c r="E126" s="95"/>
+      <c r="F126" s="95"/>
+      <c r="G126" s="95"/>
       <c r="H126" s="67"/>
       <c r="I126" s="67"/>
       <c r="J126" s="67"/>
@@ -5291,12 +5396,12 @@
     </row>
     <row r="127" spans="1:25" ht="15.75" customHeight="1">
       <c r="A127" s="13"/>
-      <c r="B127" s="102"/>
-      <c r="C127" s="100"/>
-      <c r="D127" s="100"/>
-      <c r="E127" s="173"/>
-      <c r="F127" s="173"/>
-      <c r="G127" s="173"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="94"/>
+      <c r="D127" s="94"/>
+      <c r="E127" s="95"/>
+      <c r="F127" s="95"/>
+      <c r="G127" s="95"/>
       <c r="H127" s="67"/>
       <c r="I127" s="67"/>
       <c r="J127" s="67"/>
@@ -5318,12 +5423,12 @@
     </row>
     <row r="128" spans="1:25" ht="15.75" customHeight="1">
       <c r="A128" s="38"/>
-      <c r="B128" s="102"/>
-      <c r="C128" s="100"/>
-      <c r="D128" s="100"/>
-      <c r="E128" s="173"/>
-      <c r="F128" s="173"/>
-      <c r="G128" s="173"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="94"/>
+      <c r="D128" s="94"/>
+      <c r="E128" s="95"/>
+      <c r="F128" s="95"/>
+      <c r="G128" s="95"/>
       <c r="H128" s="67"/>
       <c r="I128" s="67"/>
       <c r="J128" s="67"/>
@@ -5345,12 +5450,12 @@
     </row>
     <row r="129" spans="1:25" ht="15.75" customHeight="1">
       <c r="A129" s="38"/>
-      <c r="B129" s="102"/>
-      <c r="C129" s="100"/>
-      <c r="D129" s="100"/>
-      <c r="E129" s="173"/>
-      <c r="F129" s="173"/>
-      <c r="G129" s="173"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="94"/>
+      <c r="D129" s="94"/>
+      <c r="E129" s="95"/>
+      <c r="F129" s="95"/>
+      <c r="G129" s="95"/>
       <c r="H129" s="67"/>
       <c r="I129" s="67"/>
       <c r="J129" s="67"/>
@@ -11186,6 +11291,320 @@
     <row r="923" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="338">
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="D120:F122"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="L122:N122"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="E129:G129"/>
     <mergeCell ref="G7:G8"/>
@@ -11210,322 +11629,208 @@
     <mergeCell ref="E125:G125"/>
     <mergeCell ref="B126:D126"/>
     <mergeCell ref="E126:G126"/>
-    <mergeCell ref="D120:F122"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="L119:M119"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="L122:N122"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="L116:M116"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="L117:M117"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="L118:M118"/>
-    <mergeCell ref="H108:K108"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:M110"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:F99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:F98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="A79:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
   </mergeCells>
   <pageMargins left="0.30277777777777798" right="0.30277777777777798" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22EDB13-97B7-4A2F-BAB6-03BD01D9969B}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="31.5">
+      <c r="A1" s="196" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="196" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="196" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="196">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="197"/>
+      <c r="C2" s="198">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="196">
+        <v>500</v>
+      </c>
+      <c r="B3" s="197"/>
+      <c r="C3" s="199">
+        <v>500</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="0">D3*C3</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="196">
+        <v>200</v>
+      </c>
+      <c r="B4" s="197"/>
+      <c r="C4" s="199">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="196">
+        <v>100</v>
+      </c>
+      <c r="B5" s="197"/>
+      <c r="C5" s="199">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" s="196">
+        <v>50</v>
+      </c>
+      <c r="B6" s="197"/>
+      <c r="C6" s="199">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="196">
+        <v>20</v>
+      </c>
+      <c r="B7" s="197"/>
+      <c r="C7" s="199">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="196">
+        <v>10</v>
+      </c>
+      <c r="B8" s="197"/>
+      <c r="C8" s="199">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="196">
+        <v>5</v>
+      </c>
+      <c r="B9" s="197"/>
+      <c r="C9" s="199">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="196">
+        <v>1</v>
+      </c>
+      <c r="B10" s="197"/>
+      <c r="C10" s="199">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="196">
+        <v>0.25</v>
+      </c>
+      <c r="B11" s="197"/>
+      <c r="C11" s="199">
+        <v>0.25</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" s="200">
+        <f>SUM(C2:C11)</f>
+        <v>1886.25</v>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E11)</f>
+        <v>3491.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>